--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7920883091822406</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03960441545911203</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03960441545911203</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06336706473457925</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06247539086962028</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01247539086962028</v>
+        <v>0.02176855477620425</v>
       </c>
       <c r="B65" t="n">
-        <v>0.007742878463644761</v>
+        <v>0.01351070084479633</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>7.792228159268083e-05</v>
+        <v>0.001956843977449114</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007999997221675133</v>
+        <v>0.0007906777088749688</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002269162404760022</v>
+        <v>0.00743673294801675</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008065214415909748</v>
+        <v>0.0007774131786819445</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004734332645740441</v>
+        <v>0.008731804489802875</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000782190133652599</v>
+        <v>0.000778181812565362</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008187131309008056</v>
+        <v>0.001956843977449114</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000806466261528612</v>
+        <v>0.0007906777088749688</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002993954612441334</v>
+        <v>0.004417942389962196</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001599999444335027</v>
+        <v>0.001581355417749938</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.00482104338739258</v>
+        <v>0.01570213057556655</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00161304288318195</v>
+        <v>0.001554826357363889</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009999999999999981</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001462816571512221</v>
+        <v>0.001357676630434784</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01819109424388016</v>
+        <v>0.004417942389962196</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001612932523057224</v>
+        <v>0.001581355417749938</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0059406623188668</v>
+        <v>0.006664709660909734</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002580959487881587</v>
+        <v>0.002372033126624906</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007037460681476766</v>
+        <v>0.02208722179330638</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002419564324772924</v>
+        <v>0.002332239536045833</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01456983222559918</v>
+        <v>0.02387780430489328</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002346570400957797</v>
+        <v>0.002334545437696086</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02561174801083338</v>
+        <v>0.006664709660909734</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002419398784585836</v>
+        <v>0.002372033126624906</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006950151935298104</v>
+        <v>0.008678560213662201</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003199998888670053</v>
+        <v>0.003162710835499875</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009500232020591672</v>
+        <v>0.0278830355118935</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003226085766363899</v>
+        <v>0.003109652714727778</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01886097676078824</v>
+        <v>0.02997948563100306</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003128760534610396</v>
+        <v>0.003112727250261448</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03299999999999997</v>
+        <v>0.008678560213662201</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003116753308128543</v>
+        <v>0.003162710835499875</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002580959487881587</v>
+        <v>0.006951304347826087</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0059406623188668</v>
+        <v>0.016</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006153624344926646</v>
+        <v>0.01024090847159005</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003999998610837567</v>
+        <v>0.003953388544374843</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01119117513831638</v>
+        <v>0.03378060064198493</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004032607207954873</v>
+        <v>0.003887065893409722</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.0227586937086999</v>
+        <v>0.03736543172884921</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003910950668262994</v>
+        <v>0.00389090906282681</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0395014666733155</v>
+        <v>0.01024090847159005</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00403233130764306</v>
+        <v>0.003953388544374843</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007249743428584803</v>
+        <v>0.01233316885806375</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004799998333005079</v>
+        <v>0.004744066253249813</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01319210776823</v>
+        <v>0.03767094609423788</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004839128649545848</v>
+        <v>0.004664479072091667</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02607472571205516</v>
+        <v>0.04297612735995643</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004693140801915594</v>
+        <v>0.004669090875392172</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04485650934223068</v>
+        <v>0.01233316885806375</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004838797569171671</v>
+        <v>0.004744066253249813</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008245708963168417</v>
+        <v>0.01343675579645379</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005599998055172593</v>
+        <v>0.005534743962124781</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01488484764391163</v>
+        <v>0.04199999999999998</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005645650091136824</v>
+        <v>0.005738105004101719</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02952081541357507</v>
+        <v>0.04905205728584966</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005475330935568193</v>
+        <v>0.005447272687957534</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05049487219270549</v>
+        <v>0.01343675579645379</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005645263830700283</v>
+        <v>0.005534743962124781</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009148720725573323</v>
+        <v>0.01483308371013063</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006399997777340106</v>
+        <v>0.00632542167099975</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0158512124989403</v>
+        <v>0.04313666710812442</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006452171532727798</v>
+        <v>0.006219305429455556</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03310870545598066</v>
+        <v>0.05423370626805368</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006257521069220792</v>
+        <v>0.006225454500522896</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05458743853823289</v>
+        <v>0.01483308371013063</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006451730092228896</v>
+        <v>0.00632542167099975</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01196597849269534</v>
+        <v>0.016</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00719999749950762</v>
+        <v>0.006951304347826087</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01717302006689515</v>
+        <v>0.04430879926338488</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007258692974318773</v>
+        <v>0.0069967186081375</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03655013848199296</v>
+        <v>0.06026155906809333</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007039711202873391</v>
+        <v>0.007003636313088257</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05930509169230608</v>
+        <v>0.016</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007258196353757507</v>
+        <v>0.006951304347826087</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01247539086962028</v>
+        <v>0.01691857327370841</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007742878463644761</v>
+        <v>0.007906777088749687</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.018</v>
+        <v>0.04518458626346553</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007820217391304351</v>
+        <v>0.007774131786819444</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03955685713433307</v>
+        <v>0.06417610044749333</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007821901336525989</v>
+        <v>0.00778181812565362</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06301871496841771</v>
+        <v>0.01691857327370841</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008064662615286119</v>
+        <v>0.007906777088749687</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01243915312062898</v>
+        <v>0.0178228519802666</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008799996943842646</v>
+        <v>0.008697454797624656</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01859629120048033</v>
+        <v>0.04683998647852256</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008871735857500724</v>
+        <v>0.008551544965501388</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04244060405572189</v>
+        <v>0.06851781516777872</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008604091470178588</v>
+        <v>0.008559999938218982</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06759919168006112</v>
+        <v>0.0178228519802666</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008871128876814731</v>
+        <v>0.008697454797624656</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01417270819290563</v>
+        <v>0.01854089510724559</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009599996666010158</v>
+        <v>0.009488132506499625</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0192224721401287</v>
+        <v>0.04801710413712201</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009678257299091697</v>
+        <v>0.009371672977268481</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04561312188888061</v>
+        <v>0.07426565349803976</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009386281603831188</v>
+        <v>0.009602737352214836</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07426565349803976</v>
+        <v>0.01854089510724559</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01002024767187635</v>
+        <v>0.009488132506499625</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01290593349192806</v>
+        <v>0.01889484333760144</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01039999638817767</v>
+        <v>0.01027881021537459</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01976891566931852</v>
+        <v>0.04907828579161219</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01048477874068267</v>
+        <v>0.01010637132286528</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04801710413712201</v>
+        <v>0.07559515533691119</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01003431652111575</v>
+        <v>0.01011636356334971</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0765701979857295</v>
+        <v>0.01889484333760144</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01048406139987195</v>
+        <v>0.01027881021537459</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01363525897329678</v>
+        <v>0.01990683735429022</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01119999611034519</v>
+        <v>0.01106948792424956</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02029035628503881</v>
+        <v>0.0496426915168732</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01129130018227365</v>
+        <v>0.01088378450154722</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05099528480977902</v>
+        <v>0.07838917193416106</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01095066187113639</v>
+        <v>0.01089454537591507</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08029819065203064</v>
+        <v>0.01990683735429022</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01129052766140057</v>
+        <v>0.01106948792424956</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01435711459261231</v>
+        <v>0.020499017840268</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0119999958325127</v>
+        <v>0.01186016563312453</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02064152848427873</v>
+        <v>0.05134080116604314</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01209782162386462</v>
+        <v>0.01166119768022917</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05407857393678814</v>
+        <v>0.08064649824919135</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01173285200478899</v>
+        <v>0.01167272718848043</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08467595027338759</v>
+        <v>0.020499017840268</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01209699392292918</v>
+        <v>0.01186016563312453</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01506793030547515</v>
+        <v>0.02099352547849084</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01279999555468021</v>
+        <v>0.0126508433419995</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02097716676402744</v>
+        <v>0.05216953967818322</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0129043430654556</v>
+        <v>0.01243861085891111</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05701539629321833</v>
+        <v>0.08466559652219041</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01251504213844158</v>
+        <v>0.01245090900104579</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08976044850203158</v>
+        <v>0.02099352547849084</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01290346018445779</v>
+        <v>0.0126508433419995</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01776413606748582</v>
+        <v>0.02176855477620425</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01359999527684773</v>
+        <v>0.01351070084479633</v>
       </c>
       <c r="J82" t="n">
+        <v>0.05422583199235456</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01321602403759306</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.08654492899334654</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.01322909081361115</v>
+      </c>
+      <c r="N82" t="n">
         <v>0.02176855477620425</v>
       </c>
-      <c r="K82" t="n">
+      <c r="O82" t="n">
         <v>0.01351070084479633</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.05928230053591843</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.01329723227209418</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.0940086569901939</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.0137099264459864</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01644216183424484</v>
+        <v>0.02226451520354562</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01439999499901524</v>
+        <v>0.01423219875974944</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02248469610287092</v>
+        <v>0.05580660304761842</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01451738594863755</v>
+        <v>0.013993437216275</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06225583532173723</v>
+        <v>0.09018295790284836</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01407942240574678</v>
+        <v>0.01400727262617651</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09797754739010567</v>
+        <v>0.02226451520354562</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01451639270751501</v>
+        <v>0.01423219875974944</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01709843756135272</v>
+        <v>0.0230380125281716</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01519999472118275</v>
+        <v>0.01502287646862441</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0237626247640737</v>
+        <v>0.05700877778303592</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01532390739022852</v>
+        <v>0.01477085039495694</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06511254930752347</v>
+        <v>0.09277814549088409</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01486161253939938</v>
+        <v>0.01478545443874188</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1031240913539979</v>
+        <v>0.0230380125281716</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01532285896904363</v>
+        <v>0.01502287646862441</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01872939320440997</v>
+        <v>0.02353076633786684</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01599999444335027</v>
+        <v>0.01581355417749937</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02534558641061338</v>
+        <v>0.05812928113766833</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01613042883181949</v>
+        <v>0.01554826357363889</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06832899115012603</v>
+        <v>0.09472895399764208</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01564380267305198</v>
+        <v>0.01556363625130724</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1076052605341021</v>
+        <v>0.02353076633786684</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01612932523057224</v>
+        <v>0.01581355417749937</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01933145871901711</v>
+        <v>0.02424064383031595</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01679999416551778</v>
+        <v>0.01660423188637434</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0268898379604489</v>
+        <v>0.05986503805057672</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01693695027341047</v>
+        <v>0.01632567675232083</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07098170950639365</v>
+        <v>0.09783384566331094</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01642599280670458</v>
+        <v>0.0163418180638726</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1118780265826492</v>
+        <v>0.02424064383031595</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01693579149210085</v>
+        <v>0.01660423188637434</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01990106406077465</v>
+        <v>0.02506551220320356</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01759999388768529</v>
+        <v>0.01739490959524931</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02845163633153903</v>
+        <v>0.06121297346082241</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01774347171500145</v>
+        <v>0.01710308993100278</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07364725303317513</v>
+        <v>0.09959128272807893</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01720818294035718</v>
+        <v>0.01711999987643796</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1159993611518703</v>
+        <v>0.02506551220320356</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01774225775362946</v>
+        <v>0.01739490959524931</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02043463918528311</v>
+        <v>0.02590323865421425</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01839999360985281</v>
+        <v>0.01818558730412428</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0303872384418427</v>
+        <v>0.06227001230746648</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01854999315659242</v>
+        <v>0.01788050310968472</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0767021703873193</v>
+        <v>0.1019997274321345</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01799037307400977</v>
+        <v>0.01789818168900333</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1213262358939969</v>
+        <v>0.02590323865421425</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01854872401515808</v>
+        <v>0.01818558730412428</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.020928614048143</v>
+        <v>0.02625169038103262</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01919999333202032</v>
+        <v>0.01897626501299925</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03205290120931871</v>
+        <v>0.06373307952957016</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01935651459818339</v>
+        <v>0.01865791628836667</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0790230102256749</v>
+        <v>0.104857642015666</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01877256320766238</v>
+        <v>0.01867636350156869</v>
       </c>
       <c r="N89" t="n">
-        <v>0.12461562246126</v>
+        <v>0.02625169038103262</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01935519027668669</v>
+        <v>0.01897626501299925</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02237941860495484</v>
+        <v>0.02720873458134326</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01999999305418783</v>
+        <v>0.01976694272187422</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03360488155192594</v>
+        <v>0.06529910006619466</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02016303603977437</v>
+        <v>0.01943532946704861</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08118632120509078</v>
+        <v>0.107963488718862</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01955475334131497</v>
+        <v>0.01945454531413405</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1283244925058908</v>
+        <v>0.02720873458134326</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0201616565382153</v>
+        <v>0.01976694272187422</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02078348281131912</v>
+        <v>0.0280722384528308</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02079999277635534</v>
+        <v>0.02055762043074918</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03549943638762322</v>
+        <v>0.06726499885640116</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02096955748136534</v>
+        <v>0.02021274264573056</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08366865198241577</v>
+        <v>0.1097157297819106</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02033694347496757</v>
+        <v>0.02023272712669941</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1322098176801205</v>
+        <v>0.0280722384528308</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02096812279974391</v>
+        <v>0.02055762043074918</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0211372366228364</v>
+        <v>0.02874006919317983</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02159999249852286</v>
+        <v>0.02134829813962416</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03679282263436942</v>
+        <v>0.06792770083925079</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02177607892295632</v>
+        <v>0.0209901558244125</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08604655121449856</v>
+        <v>0.1119128274450005</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02111913360862017</v>
+        <v>0.02101090893926478</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1352285696361801</v>
+        <v>0.02874006919317983</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02177458906127252</v>
+        <v>0.02134829813962416</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02243710999510715</v>
+        <v>0.02941009400007494</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02239999222069037</v>
+        <v>0.02213897584849912</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03844129721012339</v>
+        <v>0.06988413095380483</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0225826003645473</v>
+        <v>0.02176756900309445</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08799656755818802</v>
+        <v>0.1145532439483199</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02190132374227277</v>
+        <v>0.02178909075183014</v>
       </c>
       <c r="N93" t="n">
-        <v>0.136837720026301</v>
+        <v>0.02941009400007494</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02258105532280113</v>
+        <v>0.02213897584849912</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0226795328837319</v>
+        <v>0.03038018007120075</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02319999194285789</v>
+        <v>0.0229296535573741</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03950111703284398</v>
+        <v>0.07103121413912442</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02338912180613827</v>
+        <v>0.02254498218177639</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08939524967033294</v>
+        <v>0.1169354415320573</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02268351387592537</v>
+        <v>0.0225672725643955</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1390942405027145</v>
+        <v>0.03038018007120075</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02338752158432975</v>
+        <v>0.0229296535573741</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02286093524431117</v>
+        <v>0.03104819460424184</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0239999916650254</v>
+        <v>0.02372033126624906</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04082853902049005</v>
+        <v>0.07246587533427068</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02419564324772924</v>
+        <v>0.02332239536045833</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08991914620778207</v>
+        <v>0.1185578824364011</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02346570400957797</v>
+        <v>0.02334545437696086</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1401551027176514</v>
+        <v>0.03104819460424184</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02419398784585836</v>
+        <v>0.02372033126624906</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02197774703244547</v>
+        <v>0.03161200479688285</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02479999138719291</v>
+        <v>0.02451100897512403</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04147982009102047</v>
+        <v>0.0736850394783049</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02500216468932022</v>
+        <v>0.02409980853914028</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09114480582738427</v>
+        <v>0.1207190289015397</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02424789414323057</v>
+        <v>0.02412363618952622</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1409772783233432</v>
+        <v>0.03161200479688285</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02500045410738697</v>
+        <v>0.02451100897512403</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02402639820373531</v>
+        <v>0.03236947784680833</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02559999110936043</v>
+        <v>0.025301686683999</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04201121716239406</v>
+        <v>0.07538563151028829</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02580868613091119</v>
+        <v>0.02487722171782222</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09214877718598832</v>
+        <v>0.1234173431676614</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02503008427688317</v>
+        <v>0.02490181800209158</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1416177389720209</v>
+        <v>0.03236947784680833</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02580692036891558</v>
+        <v>0.025301686683999</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02400053809774511</v>
+        <v>0.03331848095170289</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02639999083152794</v>
+        <v>0.02609236439287397</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04189291996669602</v>
+        <v>0.07646457636928189</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02661520757250217</v>
+        <v>0.02565463489650417</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09210760894044301</v>
+        <v>0.1242512874749547</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02581227441053577</v>
+        <v>0.02567999981465694</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1422674040970601</v>
+        <v>0.03331848095170289</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0266133866304442</v>
+        <v>0.02609236439287397</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02289888216970119</v>
+        <v>0.03425688130925118</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02719999055369545</v>
+        <v>0.02688304210174894</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04179260235766377</v>
+        <v>0.07851879899434702</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02742172901409315</v>
+        <v>0.02643204807518611</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09237754329781556</v>
+        <v>0.126819324063608</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02659446454418836</v>
+        <v>0.02645818162722231</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1412058957060865</v>
+        <v>0.03425688130925118</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02741985289197281</v>
+        <v>0.02688304210174894</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0227317552821733</v>
+        <v>0.03458254611713776</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02799999027586296</v>
+        <v>0.02767371981062391</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04148446381411328</v>
+        <v>0.07984522432454483</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02822825045568412</v>
+        <v>0.02720946125386806</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09212374419270222</v>
+        <v>0.1285199151738097</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02737665467784096</v>
+        <v>0.02723636343978767</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1408600007414852</v>
+        <v>0.03458254611713776</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02822631915350142</v>
+        <v>0.02767371981062391</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02150970802206593</v>
+        <v>0.03549334257304723</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02879998999803048</v>
+        <v>0.02846439751949887</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04138516431921198</v>
+        <v>0.0812407772989365</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02903477189727509</v>
+        <v>0.02798687443255</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0919615114248189</v>
+        <v>0.1304515230457481</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02815884481149356</v>
+        <v>0.02801454525235303</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1410469321599764</v>
+        <v>0.03549334257304723</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02903278541503003</v>
+        <v>0.02846439751949887</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02224329097628364</v>
+        <v>0.03628713787466423</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02959998972019799</v>
+        <v>0.02925507522837384</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04101136385612732</v>
+        <v>0.0818023828565832</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02984129333886607</v>
+        <v>0.02876428761123194</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09150066559130263</v>
+        <v>0.1318126099196119</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02894103494514616</v>
+        <v>0.02879272706491839</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1405839029182805</v>
+        <v>0.03628713787466423</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02983925167655864</v>
+        <v>0.02925507522837384</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02194305473173096</v>
+        <v>0.03706179921967331</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0303999894423655</v>
+        <v>0.03004575293724881</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04047972240802673</v>
+        <v>0.08292696593654611</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03064781478045704</v>
+        <v>0.02954170078991389</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09065102728929067</v>
+        <v>0.1339016380355891</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02972322507879876</v>
+        <v>0.02957090887748376</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1387881259731175</v>
+        <v>0.03706179921967331</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03064571793808725</v>
+        <v>0.03004575293724881</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0206195498753124</v>
+        <v>0.03751519380575909</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03119998916453302</v>
+        <v>0.03083643064612378</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04010689995807767</v>
+        <v>0.08441145147788653</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03145433622204802</v>
+        <v>0.03031911396859583</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09022241711592008</v>
+        <v>0.1350170696338683</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03050541521245136</v>
+        <v>0.03034909069004912</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1377768142812079</v>
+        <v>0.03751519380575909</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03145218419961587</v>
+        <v>0.03083643064612378</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02028332699393252</v>
+        <v>0.03814518883060621</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03199998888670053</v>
+        <v>0.03162710835499875</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03980955648944755</v>
+        <v>0.08615276441966552</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03226085766363899</v>
+        <v>0.03109652714727778</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08942465566832808</v>
+        <v>0.136957366954638</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03128760534610395</v>
+        <v>0.03112727250261448</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1373671807992718</v>
+        <v>0.03814518883060621</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03225865046114448</v>
+        <v>0.03162710835499875</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02194493667449586</v>
+        <v>0.0387496514918992</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03279998860886804</v>
+        <v>0.03241778606387372</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03930435198530383</v>
+        <v>0.08724782970094433</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03306737910522996</v>
+        <v>0.03187394032595972</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0886675635436518</v>
+        <v>0.1370209922380864</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03206979547975656</v>
+        <v>0.03190545431517984</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1356764384840296</v>
+        <v>0.0387496514918992</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03306511672267309</v>
+        <v>0.03241778606387372</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02061492950390694</v>
+        <v>0.03912644898732273</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03359998833103556</v>
+        <v>0.03320846377274869</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03850794642881394</v>
+        <v>0.08779357226078408</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03387390054682094</v>
+        <v>0.03265135350464167</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08796096133902845</v>
+        <v>0.1387064077244021</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03285198561340916</v>
+        <v>0.03268363612774521</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1340218002922015</v>
+        <v>0.03912644898732273</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0338715829842017</v>
+        <v>0.03320846377274869</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02130385606907031</v>
+        <v>0.04007344851456136</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03439998805320307</v>
+        <v>0.03399914148162366</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03813699980314529</v>
+        <v>0.08888691703824603</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03468042198841191</v>
+        <v>0.03342876668332361</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08731466965159509</v>
+        <v>0.1406120756537733</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03363417574706176</v>
+        <v>0.03346181794031057</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1333204791805077</v>
+        <v>0.04007344851456136</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03467804924573031</v>
+        <v>0.03399914148162366</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02102226695689049</v>
+        <v>0.04048851727129969</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03519998777537058</v>
+        <v>0.03478981919049862</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03780817209146538</v>
+        <v>0.08932478897239135</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03548694343000289</v>
+        <v>0.03420617986200555</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08643850907848896</v>
+        <v>0.1417364582663886</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03441636588071435</v>
+        <v>0.03423999975287593</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1324896881056686</v>
+        <v>0.04048851727129969</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03548451550725892</v>
+        <v>0.03478981919049862</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01978071275427202</v>
+        <v>0.04076952245522236</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0359999874975381</v>
+        <v>0.03558049689937359</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0371381232769416</v>
+        <v>0.09110411300228125</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03629346487159386</v>
+        <v>0.0349835930406875</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08554230021684717</v>
+        <v>0.1416780178024362</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03519855601436696</v>
+        <v>0.03501818156544129</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1307466400244043</v>
+        <v>0.04076952245522236</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03629098176878754</v>
+        <v>0.03558049689937359</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01858974404811944</v>
+        <v>0.04121433126401394</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03679998721970561</v>
+        <v>0.03637117460824856</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0368435133427414</v>
+        <v>0.09132181406697679</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03709998631318484</v>
+        <v>0.03576100621936944</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08483586366380694</v>
+        <v>0.1427352165021047</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03598074614801955</v>
+        <v>0.03579636337800665</v>
       </c>
       <c r="N111" t="n">
-        <v>0.128908547893435</v>
+        <v>0.04121433126401394</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03709744803031615</v>
+        <v>0.03637117460824856</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01945991142533728</v>
+        <v>0.04172081089535903</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03759998694187312</v>
+        <v>0.03716185231712353</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03674100227203222</v>
+        <v>0.09217481710553932</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03790650775477582</v>
+        <v>0.03653841939805139</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08432902001650533</v>
+        <v>0.1436065166055824</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03676293628167215</v>
+        <v>0.03657454519057202</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1275926246694812</v>
+        <v>0.04172081089535903</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03790391429184476</v>
+        <v>0.03716185231712353</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01940176547283008</v>
+        <v>0.04218682854694224</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03839998666404063</v>
+        <v>0.0379525300259985</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03684725004798151</v>
+        <v>0.09296004705703001</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03871302919636679</v>
+        <v>0.03731583257673333</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08333158987207956</v>
+        <v>0.1446903803530576</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03754512641532475</v>
+        <v>0.03735272700313737</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1261160833092631</v>
+        <v>0.04218682854694224</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03871038055337337</v>
+        <v>0.0379525300259985</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01840778808200765</v>
+        <v>0.04241025141644818</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03919998638620815</v>
+        <v>0.03874320773487347</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03675272722743539</v>
+        <v>0.0935744288605099</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03951955063795776</v>
+        <v>0.03809324575541528</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08315339382766682</v>
+        <v>0.1451852699847189</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03832731654897735</v>
+        <v>0.03813090881570274</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1254961367695008</v>
+        <v>0.04241025141644818</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03951684681490199</v>
+        <v>0.03874320773487347</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01844148659612128</v>
+        <v>0.04288894670156145</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03999998610837566</v>
+        <v>0.03953388544374844</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0367972684250247</v>
+        <v>0.09361488745504037</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04032607207954874</v>
+        <v>0.03887065893409723</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08180425248040418</v>
+        <v>0.1459896477407545</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03910950668262995</v>
+        <v>0.0389090906282681</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1239499980069147</v>
+        <v>0.04288894670156145</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0403233130764306</v>
+        <v>0.03953388544374844</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02049971552809548</v>
+        <v>0.04272078159996663</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04079998583054317</v>
+        <v>0.0403245631526234</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03707548619128687</v>
+        <v>0.09487834777968249</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04113259352113972</v>
+        <v>0.03964807211277917</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08089398642742882</v>
+        <v>0.1463019758613531</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03989169681628255</v>
+        <v>0.03968727244083346</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1234948799782249</v>
+        <v>0.04272078159996663</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04112977933795921</v>
+        <v>0.0403245631526234</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0195807517879672</v>
+        <v>0.04320362330934834</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04159998555271069</v>
+        <v>0.04111524086149837</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03678517632439804</v>
+        <v>0.0945617347734975</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04193911496273069</v>
+        <v>0.04042548529146112</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08073241626587793</v>
+        <v>0.1477207165867028</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04067388694993514</v>
+        <v>0.04046545425339882</v>
       </c>
       <c r="N117" t="n">
-        <v>0.122447995640152</v>
+        <v>0.04320362330934834</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04193624559948782</v>
+        <v>0.04111524086149837</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01868287228577342</v>
+        <v>0.04303533902739116</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0423999852748782</v>
+        <v>0.04190591857037335</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03702413462253432</v>
+        <v>0.0948619733755465</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04274563640432166</v>
+        <v>0.04120289847014305</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07992936259288871</v>
+        <v>0.1472443321569921</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04145607708358775</v>
+        <v>0.04124363606596419</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1208265579494158</v>
+        <v>0.04303533902739116</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04274271186101643</v>
+        <v>0.04190591857037335</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02080435393155108</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04319998499704571</v>
+        <v>0.04269659627924832</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03729015688387181</v>
+        <v>0.09547598852489075</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04355215784591264</v>
+        <v>0.041980311648825</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07979464600559821</v>
+        <v>0.1480712848124095</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04223826721724035</v>
+        <v>0.04202181787852955</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1204477798627369</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04354917812254504</v>
+        <v>0.04269659627924832</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01894347363533715</v>
+        <v>0.04353708337344156</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04399998471921323</v>
+        <v>0.04348727398812328</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03748103890658666</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04435867928750361</v>
+        <v>0.04275772482750694</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07893808710114364</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04302045735089294</v>
+        <v>0.04279999969109491</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1196288743368354</v>
+        <v>0.04353708337344156</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04435564438407365</v>
+        <v>0.04348727398812328</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02009850830716862</v>
+        <v>0.04343353058251785</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04479998444138075</v>
+        <v>0.04427795169699825</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03779457648885498</v>
+        <v>0.09543412647421221</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04516520072909459</v>
+        <v>0.04353513800618889</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07896950647666215</v>
+        <v>0.1477309387400969</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04380264748454554</v>
+        <v>0.04357818150366027</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1203870543284317</v>
+        <v>0.04343353058251785</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04516211064560226</v>
+        <v>0.04427795169699825</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01926773485708242</v>
+        <v>0.04352411786233916</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04559998416354825</v>
+        <v>0.04506862940587322</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0379285654288529</v>
+        <v>0.09532971590889966</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04597172217068556</v>
+        <v>0.04431255118487083</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07839872472929094</v>
+        <v>0.1482192601399953</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04458483761819815</v>
+        <v>0.04435636331622563</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1196395327942459</v>
+        <v>0.04352411786233916</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04596857690713087</v>
+        <v>0.04506862940587322</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02044943019511553</v>
+        <v>0.04310902577904603</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04639998388571577</v>
+        <v>0.04585930711474819</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03838080152475652</v>
+        <v>0.09561855263365468</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04677824361227654</v>
+        <v>0.04508996436355278</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07823556245616708</v>
+        <v>0.1478913340767534</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04536702775185074</v>
+        <v>0.045134545128791</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1193534717902672</v>
+        <v>0.04310902577904603</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04677504316865949</v>
+        <v>0.04585930711474819</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01964187123130489</v>
+        <v>0.04328843489877904</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04719998360788329</v>
+        <v>0.04664998482362315</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03824908057474198</v>
+        <v>0.09530059606105284</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04758476505386751</v>
+        <v>0.04586737754223472</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07799075587894314</v>
+        <v>0.1476473745013809</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04614921788550334</v>
+        <v>0.04591272694135635</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1206235587223138</v>
+        <v>0.04328843489877904</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04758150943018811</v>
+        <v>0.04664998482362315</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02084333487568749</v>
+        <v>0.04336252578767873</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0479999833300508</v>
+        <v>0.04744066253249812</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03853119837698539</v>
+        <v>0.09517580560366976</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04839128649545849</v>
+        <v>0.04664479072091667</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07793511177947196</v>
+        <v>0.1480875953648877</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04693140801915594</v>
+        <v>0.04669090875392172</v>
       </c>
       <c r="N125" t="n">
-        <v>0.12141693512706</v>
+        <v>0.04336252578767873</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04838797569171672</v>
+        <v>0.04744066253249812</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02105209803830028</v>
+        <v>0.04313147901188566</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04879998305221831</v>
+        <v>0.04823134024137309</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03892495072966286</v>
+        <v>0.0950441406740809</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04919780793704946</v>
+        <v>0.04742220389959861</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07839222156644665</v>
+        <v>0.1469122106182836</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04771359815280854</v>
+        <v>0.04746909056648708</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1226968512682121</v>
+        <v>0.04313147901188566</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04919444195324533</v>
+        <v>0.04823134024137309</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02026643762918023</v>
+        <v>0.04299547513754039</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04959998277438582</v>
+        <v>0.04902201795024806</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03932813343095051</v>
+        <v>0.09580556068486198</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05000432937864043</v>
+        <v>0.04819961707828056</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07943944886298368</v>
+        <v>0.1471214342125782</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04849578828646114</v>
+        <v>0.04824727237905244</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1241265574094761</v>
+        <v>0.04299547513754039</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05000090821477394</v>
+        <v>0.04902201795024806</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0214846305583643</v>
+        <v>0.04295469473078346</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05039998249655334</v>
+        <v>0.04981269565912303</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03943854227902449</v>
+        <v>0.09516002504858845</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05081085082023142</v>
+        <v>0.0489770302569625</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07985415729219955</v>
+        <v>0.1475154800987813</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04927797842011374</v>
+        <v>0.0490254541916178</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1244693038145583</v>
+        <v>0.04295469473078346</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05080737447630255</v>
+        <v>0.04981269565912303</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02270495373588943</v>
+        <v>0.04330931835775548</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05119998221872085</v>
+        <v>0.050603373367998</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04015397307206089</v>
+        <v>0.09570749317783597</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05161737226182238</v>
+        <v>0.04975444343564445</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08131371047721081</v>
+        <v>0.1467945622279027</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05006016855376633</v>
+        <v>0.04980363600418317</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1268883407471651</v>
+        <v>0.04330931835775548</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05161384073783117</v>
+        <v>0.050603373367998</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02292568407179262</v>
+        <v>0.04315952658459696</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05199998194088836</v>
+        <v>0.05139405107687297</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04017222160823584</v>
+        <v>0.09564792448518006</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05242389370341336</v>
+        <v>0.05053185661432639</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08209547204113393</v>
+        <v>0.1469588945509521</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05084235868741893</v>
+        <v>0.05058181781674853</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1284469184710025</v>
+        <v>0.04315952658459696</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05242030699935978</v>
+        <v>0.05139405107687297</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02314509847611081</v>
+        <v>0.04300549997744847</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05279998166305588</v>
+        <v>0.05218472878574793</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04069108368572547</v>
+        <v>0.09548127838319634</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05323041514500433</v>
+        <v>0.05130926979300834</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08247680560708545</v>
+        <v>0.1469086910189393</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05162454882107154</v>
+        <v>0.05135999962931389</v>
       </c>
       <c r="N131" t="n">
-        <v>0.130208287249777</v>
+        <v>0.04300549997744847</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05322677326088839</v>
+        <v>0.05218472878574793</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02136147385888097</v>
+        <v>0.04294741910245058</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05359998138522339</v>
+        <v>0.0529754064946229</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04100835510270587</v>
+        <v>0.09520751428446037</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05403693658659531</v>
+        <v>0.05208668297169028</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08363507479818191</v>
+        <v>0.147144165582874</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05240673895472413</v>
+        <v>0.05213818144187925</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1328356973471945</v>
+        <v>0.04294741910245058</v>
       </c>
       <c r="O132" t="n">
-        <v>0.054033239522417</v>
+        <v>0.0529754064946229</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02157308713014004</v>
+        <v>0.04288546452574384</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0543999811073909</v>
+        <v>0.05376608420349788</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04102183165735321</v>
+        <v>0.09502659160154772</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05484345802818629</v>
+        <v>0.05286409615037222</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08544764323753981</v>
+        <v>0.146665532193766</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05318892908837673</v>
+        <v>0.05291636325444462</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1346923990269616</v>
+        <v>0.04288546452574384</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05483970578394561</v>
+        <v>0.05376608420349788</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02377821519992504</v>
+        <v>0.0428198168134688</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05519998082955841</v>
+        <v>0.05455676191237285</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04172930914784354</v>
+        <v>0.09463846974703399</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05564997946977726</v>
+        <v>0.05364150932905416</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08679187454827564</v>
+        <v>0.146573004802625</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05397111922202933</v>
+        <v>0.05369454506700997</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1366416425527843</v>
+        <v>0.0428198168134688</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05564617204547422</v>
+        <v>0.05455676191237285</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02197513497827286</v>
+        <v>0.04275065653176605</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05599998055172593</v>
+        <v>0.05534743962124782</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04182858337235303</v>
+        <v>0.09524310813349474</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05645650091136824</v>
+        <v>0.05441892250773611</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08744513235350596</v>
+        <v>0.1468667973604609</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05475330935568193</v>
+        <v>0.05447272687957534</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1390466781883688</v>
+        <v>0.04275065653176605</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05645263830700284</v>
+        <v>0.05534743962124782</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02316212337522053</v>
+        <v>0.04267816424677609</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05679998027389345</v>
+        <v>0.05613811733012278</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0419174501290578</v>
+        <v>0.09464046617350552</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05726302235295921</v>
+        <v>0.05519633568641805</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0885847802763472</v>
+        <v>0.1461471238182832</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05553549948933453</v>
+        <v>0.0552509086921407</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1406707561974215</v>
+        <v>0.04267816424677609</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05725910456853144</v>
+        <v>0.05613811733012278</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02233745730080497</v>
+        <v>0.04240252052463954</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05759997999606096</v>
+        <v>0.05692879503899775</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04229370521613396</v>
+        <v>0.09423050327964194</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05806954379455018</v>
+        <v>0.0559737488651</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08978818193991592</v>
+        <v>0.1462141981271018</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05631768962298712</v>
+        <v>0.05602909050470606</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1427771268436485</v>
+        <v>0.04240252052463954</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05806557083006006</v>
+        <v>0.05692879503899775</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02349941366506314</v>
+        <v>0.04232390593149692</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05839997971822847</v>
+        <v>0.05771947274787272</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04285514443175761</v>
+        <v>0.09441317886447959</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05887606523614115</v>
+        <v>0.05675116204378194</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09103270096732866</v>
+        <v>0.1449682342379265</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05709987975663972</v>
+        <v>0.05680727231727143</v>
       </c>
       <c r="N138" t="n">
-        <v>0.144429040390756</v>
+        <v>0.04232390593149692</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05887203709158867</v>
+        <v>0.05771947274787272</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02264626937803203</v>
+        <v>0.04244250103348879</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05919997944039598</v>
+        <v>0.05851015045674769</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0430995635741049</v>
+        <v>0.09398845234059397</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05968258667773214</v>
+        <v>0.05752857522246389</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09219570098170191</v>
+        <v>0.145109446101767</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05788206989029233</v>
+        <v>0.05758545412983679</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1451897471024505</v>
+        <v>0.04244250103348879</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05967850335311729</v>
+        <v>0.05851015045674769</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02277630134974859</v>
+        <v>0.04225848639675572</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05999997916256349</v>
+        <v>0.05930082816562265</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04302475844135195</v>
+        <v>0.09425628312056078</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06048910811932311</v>
+        <v>0.05830598840114583</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09295454560615221</v>
+        <v>0.144838047669633</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05866426002394493</v>
+        <v>0.05836363594240215</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1469224972424379</v>
+        <v>0.04225848639675572</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06048496961464589</v>
+        <v>0.05930082816562265</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02388778649024978</v>
+        <v>0.04207204258743827</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06079997888473101</v>
+        <v>0.06009150587449762</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04353710955240848</v>
+        <v>0.09421663061695548</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06129562956091408</v>
+        <v>0.05908340157982778</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09458659846379608</v>
+        <v>0.1448542528925345</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05944645015759752</v>
+        <v>0.05914181775496751</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1485313069960795</v>
+        <v>0.04207204258743827</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06129143587617451</v>
+        <v>0.06009150587449762</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02495078173924056</v>
+        <v>0.04228335017167699</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06159997860689852</v>
+        <v>0.06088218358337259</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04352295839110767</v>
+        <v>0.09366945424235373</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06210215100250506</v>
+        <v>0.05986081475850973</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09506922317774991</v>
+        <v>0.1442582757214808</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06022864029125012</v>
+        <v>0.05991999956753287</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1480986057250805</v>
+        <v>0.04228335017167699</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06209790213770312</v>
+        <v>0.06088218358337259</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02506810554192543</v>
+        <v>0.04199258971561246</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06239997832906604</v>
+        <v>0.06167286129224756</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0439236016059741</v>
+        <v>0.09361471340933103</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06290867244409604</v>
+        <v>0.06063822793719167</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09603420827424403</v>
+        <v>0.144250330107482</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06101083042490272</v>
+        <v>0.06069818138009824</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1491033574145447</v>
+        <v>0.04199258971561246</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06290436839923173</v>
+        <v>0.06167286129224756</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02515594640594278</v>
+        <v>0.04189994178538518</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06319997805123355</v>
+        <v>0.06246353900112254</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04382943505259232</v>
+        <v>0.09345236753046304</v>
       </c>
       <c r="K144" t="n">
-        <v>0.063715193885687</v>
+        <v>0.06141564111587362</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09623089292338896</v>
+        <v>0.1435306300015478</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06179302055855532</v>
+        <v>0.0614763631926636</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1509027974099645</v>
+        <v>0.04189994178538518</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06371083466076034</v>
+        <v>0.06246353900112254</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02524357288394764</v>
+        <v>0.04190558694713577</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06399997777340106</v>
+        <v>0.06325421670999749</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04413940829337426</v>
+        <v>0.09318237601832527</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06452171532727798</v>
+        <v>0.06219305429455555</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09645957129050767</v>
+        <v>0.1429993893546879</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06257521069220791</v>
+        <v>0.06225454500522896</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1511945499602912</v>
+        <v>0.04190558694713577</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06451730092228895</v>
+        <v>0.06325421670999749</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02333080888472876</v>
+        <v>0.04200970576700477</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06479997749556858</v>
+        <v>0.06404489441887247</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04435247089073185</v>
+        <v>0.09350469828549332</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06532823676886897</v>
+        <v>0.06297046747323749</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09688160381204594</v>
+        <v>0.143756822117912</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06335740082586051</v>
+        <v>0.06303272681779433</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1523762393144764</v>
+        <v>0.04200970576700477</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06532376718381756</v>
+        <v>0.06404489441887247</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02541747831707494</v>
+        <v>0.04151247881113272</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06559997721773608</v>
+        <v>0.06483557212774743</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04456757240707697</v>
+        <v>0.09301929374454279</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06613475821045993</v>
+        <v>0.06374788065191944</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09679633334311316</v>
+        <v>0.14260314224223</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06413959095951312</v>
+        <v>0.06381090863035968</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1523454897214712</v>
+        <v>0.04151247881113272</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06613023344534617</v>
+        <v>0.06483557212774743</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02450340508977493</v>
+        <v>0.04181408664566021</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0663999769399036</v>
+        <v>0.06562624983662241</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04458366240482155</v>
+        <v>0.09332612180804919</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06694127965205091</v>
+        <v>0.06452529383060139</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09710310273881878</v>
+        <v>0.1419385636786515</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06492178109316572</v>
+        <v>0.06458909044292505</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1525999254302273</v>
+        <v>0.04181408664566021</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0669366997068748</v>
+        <v>0.06562624983662241</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02558841311161751</v>
+        <v>0.04141470983672776</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06719997666207111</v>
+        <v>0.06641692754549737</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04499969044637747</v>
+        <v>0.09272514188858816</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06774780109364188</v>
+        <v>0.06530270700928334</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09740125485427212</v>
+        <v>0.1424633003781863</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06570397122681831</v>
+        <v>0.06536727225549041</v>
       </c>
       <c r="N149" t="n">
-        <v>0.154037170689696</v>
+        <v>0.04141470983672776</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06774316596840339</v>
+        <v>0.06641692754549737</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02367232629139147</v>
+        <v>0.04131452895047595</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06799997638423863</v>
+        <v>0.06720760525437235</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04531460609415668</v>
+        <v>0.09301631339873523</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06855432253523286</v>
+        <v>0.06608012018796527</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09799013254458261</v>
+        <v>0.1418775662918443</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06648616136047092</v>
+        <v>0.06614545406805576</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1542548497488286</v>
+        <v>0.04131452895047595</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06854963222993202</v>
+        <v>0.06720760525437235</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02375496853788556</v>
+        <v>0.04151372455304533</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06879997610640615</v>
+        <v>0.06799828296324732</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04552735891057107</v>
+        <v>0.09239959575106602</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06936084397682382</v>
+        <v>0.06685753336664722</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09776907866485954</v>
+        <v>0.1407815753706351</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06726835149412351</v>
+        <v>0.06692363588062114</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1559505868565768</v>
+        <v>0.04151372455304533</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06935609849146063</v>
+        <v>0.06799828296324732</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02383616375988856</v>
+        <v>0.04141247721057649</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06959997582857365</v>
+        <v>0.06878896067212227</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04573689845803254</v>
+        <v>0.09247494835815609</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07016736541841481</v>
+        <v>0.06763494654532916</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09823743607021238</v>
+        <v>0.1407755415655684</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06805054162777611</v>
+        <v>0.06770181769318649</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1558220062618915</v>
+        <v>0.04141247721057649</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07016256475298924</v>
+        <v>0.06878896067212227</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02391573586618924</v>
+        <v>0.04091096748920994</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07039997555074116</v>
+        <v>0.06957963838099725</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04604217429895299</v>
+        <v>0.091942330632581</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07097388686000579</v>
+        <v>0.06841235972401111</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09819454761575044</v>
+        <v>0.1400596788276541</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06883273176142871</v>
+        <v>0.06847999950575186</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1568667322137246</v>
+        <v>0.04091096748920994</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07096903101451785</v>
+        <v>0.06957963838099725</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0239935087655764</v>
+        <v>0.04100937595508626</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07119997527290868</v>
+        <v>0.07037031608987221</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04584213599574437</v>
+        <v>0.09130170198691637</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07178040830159675</v>
+        <v>0.06918977290269306</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0990397561565832</v>
+        <v>0.1400342011079019</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06961492189508131</v>
+        <v>0.06925818131831722</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1577823889610271</v>
+        <v>0.04100937595508626</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07177549727604646</v>
+        <v>0.07037031608987221</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02406930636683877</v>
+        <v>0.04090788317434602</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0719999749950762</v>
+        <v>0.07116099379874719</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04603573311081854</v>
+        <v>0.09095302183373771</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07258692974318773</v>
+        <v>0.06996718608137499</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09907240454781988</v>
+        <v>0.1397993223573215</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07039711202873392</v>
+        <v>0.07003636313088257</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1576666007527509</v>
+        <v>0.04090788317434602</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07258196353757508</v>
+        <v>0.07116099379874719</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02614295257876516</v>
+        <v>0.04090666971312974</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07279997471724371</v>
+        <v>0.07195167150762216</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04652191520658741</v>
+        <v>0.09079624958562066</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0733934511847787</v>
+        <v>0.07074459926005694</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09869183564456996</v>
+        <v>0.1397552565269227</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07117930216238651</v>
+        <v>0.07081454494344794</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1583169918378469</v>
+        <v>0.04090666971312974</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07338842979910369</v>
+        <v>0.07195167150762216</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02621427131014431</v>
+        <v>0.04090591613757803</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07359997443941123</v>
+        <v>0.07274234921649712</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04669963184546293</v>
+        <v>0.09073134465514077</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07419997262636968</v>
+        <v>0.07152201243873889</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09949739230194285</v>
+        <v>0.1388022175677153</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0719614922960391</v>
+        <v>0.0715927267560133</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1585311864652668</v>
+        <v>0.04090591613757803</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0741948960606323</v>
+        <v>0.07274234921649712</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02528308646976503</v>
+        <v>0.04040580301383143</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07439997416157873</v>
+        <v>0.0735330269253721</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04666783258985699</v>
+        <v>0.0901582664548736</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07500649406796066</v>
+        <v>0.07229942561742084</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09948841737504782</v>
+        <v>0.138640419430709</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0727436824296917</v>
+        <v>0.07237090856857867</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1593068088839619</v>
+        <v>0.04040580301383143</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07500136232216091</v>
+        <v>0.0735330269253721</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02634922196641608</v>
+        <v>0.04070651090803047</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07519997388374625</v>
+        <v>0.07432370463424706</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04682546700218149</v>
+        <v>0.09047697439739474</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07581301550955163</v>
+        <v>0.07307683879610277</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1001642537189943</v>
+        <v>0.1383700760669135</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07352587256334431</v>
+        <v>0.07314909038114403</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1606414833428836</v>
+        <v>0.04070651090803047</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07580782858368952</v>
+        <v>0.07432370463424706</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02441250170888622</v>
+        <v>0.04040822038631574</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07599997360591376</v>
+        <v>0.07511438234312202</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04697148464484834</v>
+        <v>0.08988742789527976</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07661953695114261</v>
+        <v>0.07385425197478472</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1001242441888918</v>
+        <v>0.1376914014273386</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07430806269699691</v>
+        <v>0.07392727219370938</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1604328340909834</v>
+        <v>0.04040822038631574</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07661429484521813</v>
+        <v>0.07511438234312202</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02447274960596421</v>
+        <v>0.04021089479988273</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07679997332808126</v>
+        <v>0.075905060051997</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04730483508026943</v>
+        <v>0.08958958636110428</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07742605839273357</v>
+        <v>0.07463166515346667</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09986773163984947</v>
+        <v>0.1362046094629941</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0750902528306495</v>
+        <v>0.07470545400627475</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1602784853772125</v>
+        <v>0.04021089479988273</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07742076110674674</v>
+        <v>0.075905060051997</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02452978956643888</v>
+        <v>0.04001290521249323</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07759997305024878</v>
+        <v>0.07669573776087196</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0473244678708567</v>
+        <v>0.08978340920744382</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07823257983432455</v>
+        <v>0.0754090783321486</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1003940589269768</v>
+        <v>0.1365099141248897</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07587244296430211</v>
+        <v>0.07548363581884011</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1616760614505225</v>
+        <v>0.04001290521249323</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07822722736827535</v>
+        <v>0.07669573776087196</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02558344549909895</v>
+        <v>0.04001378308706663</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07839997277241631</v>
+        <v>0.07748641546974694</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04752933257902206</v>
+        <v>0.08956885584687396</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07903910127591553</v>
+        <v>0.07618649151083055</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1002025689053831</v>
+        <v>0.1352075293640351</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0766546330979547</v>
+        <v>0.07626181763140548</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1607231865598648</v>
+        <v>0.04001378308706663</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07903369362980397</v>
+        <v>0.07748641546974694</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02663354131273322</v>
+        <v>0.04021340795820516</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07919997249458381</v>
+        <v>0.0782770931786219</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0477183787671774</v>
+        <v>0.08844588569197032</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0798456227175065</v>
+        <v>0.07696390468951249</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09999260443017802</v>
+        <v>0.1345976691314402</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07743682323160729</v>
+        <v>0.07703999944397083</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1615174849541907</v>
+        <v>0.04021340795820516</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07984015989133257</v>
+        <v>0.0782770931786219</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02567990091613044</v>
+        <v>0.03991165936051107</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07999997221675133</v>
+        <v>0.07906777088749688</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04739055599773463</v>
+        <v>0.08821445815530843</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08065214415909748</v>
+        <v>0.07774131786819445</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1000635083564705</v>
+        <v>0.1345805473781146</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0782190133652599</v>
+        <v>0.07781818125653621</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1611565808824517</v>
+        <v>0.03991165936051107</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08064662615286119</v>
+        <v>0.07906777088749688</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02672234821807944</v>
+        <v>0.03990841682858665</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08079997193891884</v>
+        <v>0.07985844859637185</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04754481383310567</v>
+        <v>0.08827453264946392</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08145866560068846</v>
+        <v>0.07851873104687639</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1009146235393703</v>
+        <v>0.1349563780550683</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0790012034989125</v>
+        <v>0.07859636306910156</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1617380985935991</v>
+        <v>0.03990841682858665</v>
       </c>
       <c r="O166" t="n">
-        <v>0.0814530924143898</v>
+        <v>0.07985844859637185</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0257607071273689</v>
+        <v>0.0397035598970341</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08159997166108635</v>
+        <v>0.0806491263052468</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04788010183570242</v>
+        <v>0.08752606858701226</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08226518704227943</v>
+        <v>0.07929614422555833</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1008452928339866</v>
+        <v>0.1340253751133107</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07978339363256511</v>
+        <v>0.07937454488166691</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1612586491520124</v>
+        <v>0.0397035598970341</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08225955867591841</v>
+        <v>0.0806491263052468</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02579480155278767</v>
+        <v>0.03949696810045572</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08239997138325386</v>
+        <v>0.08143980401412178</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04769536956793678</v>
+        <v>0.08746902538052914</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0830717084838704</v>
+        <v>0.08007355740424027</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1008548358898471</v>
+        <v>0.1329877525038518</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0805655837662177</v>
+        <v>0.08015272669423229</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1617605111840432</v>
+        <v>0.03949696810045572</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08306602493744704</v>
+        <v>0.08143980401412178</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0248244554031245</v>
+        <v>0.03958852097345371</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08319997110542138</v>
+        <v>0.08223048172299674</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04788454418169012</v>
+        <v>0.08690336244259012</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08387822992546137</v>
+        <v>0.08085097058292223</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1009345890350149</v>
+        <v>0.1320437241777012</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08134777389987029</v>
+        <v>0.08093090850679764</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1614177961356986</v>
+        <v>0.03958852097345371</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08387249119897563</v>
+        <v>0.08223048172299674</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02484949258716815</v>
+        <v>0.03957809805063037</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08399997082758889</v>
+        <v>0.08302115943187172</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04743673575217507</v>
+        <v>0.08642903918577072</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08468475136705235</v>
+        <v>0.08162838376160417</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1002787439126536</v>
+        <v>0.1314935040858688</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08212996403352289</v>
+        <v>0.08170909031936302</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1607395151935271</v>
+        <v>0.03957809805063037</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08467895746050426</v>
+        <v>0.08302115943187172</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02686973701370743</v>
+        <v>0.03906557886658793</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08479997054975641</v>
+        <v>0.08381183714074669</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04735365689720911</v>
+        <v>0.08614601502264657</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08549127280864333</v>
+        <v>0.0824057969402861</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1001885199927204</v>
+        <v>0.1312347310874389</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0829121541671755</v>
+        <v>0.08248727213192837</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1603346795440779</v>
+        <v>0.03906557886658793</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08548542372203287</v>
+        <v>0.08381183714074669</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02488501259153106</v>
+        <v>0.03905084295592863</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08559997027192393</v>
+        <v>0.08460251484962165</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04723750535908415</v>
+        <v>0.08575424936579323</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0862977942502343</v>
+        <v>0.08318321011896805</v>
       </c>
       <c r="L172" t="n">
-        <v>0.100665136745173</v>
+        <v>0.1306873654381259</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08369434430082809</v>
+        <v>0.08326545394449374</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1593123003738998</v>
+        <v>0.03905084295592863</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08629188998356148</v>
+        <v>0.08460251484962165</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02589514322942786</v>
+        <v>0.03883376985325473</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08639996999409143</v>
+        <v>0.08539319255849663</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04709047888009213</v>
+        <v>0.08595370162778623</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08710431569182528</v>
+        <v>0.08396062329765</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09960981363996896</v>
+        <v>0.1302200231672609</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08447653443448069</v>
+        <v>0.0840436357570591</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1589813888695414</v>
+        <v>0.03883376985325473</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08709835624509009</v>
+        <v>0.08539319255849663</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02489995283618658</v>
+        <v>0.03871423909316853</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08719996971625894</v>
+        <v>0.08618387026737159</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04731477520252497</v>
+        <v>0.0850219457482127</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08791083713341626</v>
+        <v>0.08473803647633195</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1001237701470656</v>
+        <v>0.1291417275526655</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08525872456813328</v>
+        <v>0.08482181756962445</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1575509562175518</v>
+        <v>0.03871423909316853</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0879048225066187</v>
+        <v>0.08618387026737159</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02689549548866935</v>
+        <v>0.0388921302102722</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08799996943842646</v>
+        <v>0.08697454797624656</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04701259206867461</v>
+        <v>0.08466228780281149</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08871735857500722</v>
+        <v>0.08551544965501388</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1001082257364204</v>
+        <v>0.1287615018721619</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08604091470178589</v>
+        <v>0.08559999938218982</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1579300136044796</v>
+        <v>0.0388921302102722</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08871128876814731</v>
+        <v>0.08697454797624656</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02486795509206803</v>
+        <v>0.03886732273916806</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08879996916059396</v>
+        <v>0.08776522568512153</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04658612722083297</v>
+        <v>0.08332939972388584</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0895238800165982</v>
+        <v>0.08629286283369583</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09946439987799099</v>
+        <v>0.1277883694035716</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08682310483543848</v>
+        <v>0.08637818119475518</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1568275722168738</v>
+        <v>0.03886732273916806</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08951775502967592</v>
+        <v>0.08776522568512153</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02481728884457217</v>
+        <v>0.0387396962144583</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08959996888276149</v>
+        <v>0.08855590339399649</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04643757840129195</v>
+        <v>0.0814840057976792</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09033040145818919</v>
+        <v>0.08707027601237778</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09939351204173483</v>
+        <v>0.1262313534247166</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08760529496909109</v>
+        <v>0.08715636300732055</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1552526432412832</v>
+        <v>0.0387396962144583</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09032422129120453</v>
+        <v>0.08855590339399649</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0257448832165401</v>
+        <v>0.03840913017074521</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09039996860492901</v>
+        <v>0.08934658110287147</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04636914335234353</v>
+        <v>0.07978683031043488</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09113692289978015</v>
+        <v>0.08784768919105972</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09849678169760939</v>
+        <v>0.1249994772134188</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08838748510274369</v>
+        <v>0.0879345448198859</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1539142378642565</v>
+        <v>0.03840913017074521</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09113068755273315</v>
+        <v>0.08934658110287147</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02665212467833018</v>
+        <v>0.03817550414263106</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09119996832709651</v>
+        <v>0.09013725881174643</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04578301981627959</v>
+        <v>0.07829859754839627</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09194344434137112</v>
+        <v>0.08862510236974167</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09807542831557214</v>
+        <v>0.1235017640475</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0891696752363963</v>
+        <v>0.08871272663245126</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1530213672723427</v>
+        <v>0.03817550414263106</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09193715381426175</v>
+        <v>0.09013725881174643</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02654039970030077</v>
+        <v>0.03793869766471807</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09199996804926402</v>
+        <v>0.09092793652062141</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04558140553539206</v>
+        <v>0.07598003179780671</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0927499657829621</v>
+        <v>0.0894025155484236</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09783067136558068</v>
+        <v>0.1215472372047818</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08995186537004889</v>
+        <v>0.08949090844501663</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1514830426520906</v>
+        <v>0.03793869766471807</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09274362007579037</v>
+        <v>0.09092793652062141</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02541109475281023</v>
+        <v>0.03779859027160849</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09279996777143154</v>
+        <v>0.09171861422949638</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04546649825197289</v>
+        <v>0.07419185734490946</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09355648722455308</v>
+        <v>0.09017992872710556</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09826373031759239</v>
+        <v>0.1204449199630865</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09073405550370148</v>
+        <v>0.09026909025758199</v>
       </c>
       <c r="N181" t="n">
-        <v>0.150608275190049</v>
+        <v>0.03779859027160849</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09355008633731898</v>
+        <v>0.09171861422949638</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02626559630621692</v>
+        <v>0.0377550614979046</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09359996749359904</v>
+        <v>0.09250929193837133</v>
       </c>
       <c r="J182" t="n">
-        <v>0.045040495708314</v>
+        <v>0.07149479847594797</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09436300866614404</v>
+        <v>0.0909573419057875</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09697582464156479</v>
+        <v>0.1198038356002356</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09151624563735408</v>
+        <v>0.09104727207014736</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1491060760727668</v>
+        <v>0.0377550614979046</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09435655259884759</v>
+        <v>0.09250929193837133</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02610529083087919</v>
+        <v>0.03790799087820861</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09439996721576657</v>
+        <v>0.09329996964724631</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0444055956467073</v>
+        <v>0.07004957947716556</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09516953010773502</v>
+        <v>0.09173475508446945</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09696817380745543</v>
+        <v>0.1173330073940511</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09229843577100669</v>
+        <v>0.09182545388271271</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1484854564867926</v>
+        <v>0.03790799087820861</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09516301886037622</v>
+        <v>0.09329996964724631</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02493156479715541</v>
+        <v>0.03745725794712283</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09519996693793409</v>
+        <v>0.09409064735612127</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04416399580944474</v>
+        <v>0.06831692463480554</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09597605154932601</v>
+        <v>0.09251216826315138</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09694199728522179</v>
+        <v>0.1164414586223547</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09308062590465928</v>
+        <v>0.09260363569527807</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1461554276186756</v>
+        <v>0.03745725794712283</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09596948512190481</v>
+        <v>0.09409064735612127</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02474580467540394</v>
+        <v>0.03740274223924946</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09599996666010159</v>
+        <v>0.09488132506499625</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04401789393881823</v>
+        <v>0.06655755823511136</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09678257299091697</v>
+        <v>0.09328958144183333</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09589851454482129</v>
+        <v>0.1146382125629684</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09386281603831188</v>
+        <v>0.09338181750784344</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1456250006549644</v>
+        <v>0.03740274223924946</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09677595138343344</v>
+        <v>0.09488132506499625</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02354939693598312</v>
+        <v>0.03724432328919075</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09679996638226911</v>
+        <v>0.09567200277387122</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04376948777711971</v>
+        <v>0.06513220456432622</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09758909443250795</v>
+        <v>0.09406699462051528</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0952389450562115</v>
+        <v>0.1138322924937141</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09464500617196447</v>
+        <v>0.09415999932040879</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1443031867822078</v>
+        <v>0.03724432328919075</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09758241764496205</v>
+        <v>0.09567200277387122</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02434372804925132</v>
+        <v>0.03688188063154901</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09759996610443662</v>
+        <v>0.09646268048274619</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0430209750666411</v>
+        <v>0.06320158790869362</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09839561587409892</v>
+        <v>0.09484440779919721</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09506450828934995</v>
+        <v>0.1120327216924134</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09542719630561708</v>
+        <v>0.09493818113297417</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1431989971869548</v>
+        <v>0.03688188063154901</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09838888390649066</v>
+        <v>0.09646268048274619</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02413018448556691</v>
+        <v>0.03681529380092644</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09839996582660412</v>
+        <v>0.09725335819162116</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04277455354967431</v>
+        <v>0.06251948316703959</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0992021373156899</v>
+        <v>0.09562182097787916</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09457642371419406</v>
+        <v>0.1103485234368883</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09620938643926967</v>
+        <v>0.09571636294553952</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1405214430557541</v>
+        <v>0.03681529380092644</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09919535016801927</v>
+        <v>0.09725335819162116</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02491015271528822</v>
+        <v>0.03674444233192528</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09919996554877164</v>
+        <v>0.09804403590049612</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04253242096851129</v>
+        <v>0.06178491213768775</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1000086587572809</v>
+        <v>0.09639923415656111</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09437591080070137</v>
+        <v>0.1085887210049605</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09699157657292228</v>
+        <v>0.09649454475810489</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1398795355751546</v>
+        <v>0.03674444233192528</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1000018164295479</v>
+        <v>0.09804403590049612</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02268501920877362</v>
+        <v>0.03666920575914784</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09999996527093917</v>
+        <v>0.09883471360937109</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04209677506544396</v>
+        <v>0.06078033820525242</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1008151801988719</v>
+        <v>0.09717664733524306</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09406418901882932</v>
+        <v>0.1080623376744522</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09777376670657488</v>
+        <v>0.09727272657067025</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1381822859317051</v>
+        <v>0.03666920575914784</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1008082826910765</v>
+        <v>0.09883471360937109</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02345617043638148</v>
+        <v>0.03658946361719632</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1007999649931067</v>
+        <v>0.09962539131824606</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04186981358276423</v>
+        <v>0.06030459155474654</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1016217016404628</v>
+        <v>0.097954060513925</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09324247783853543</v>
+        <v>0.1066783967231848</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09855595684022748</v>
+        <v>0.0980509083832356</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1377387053119545</v>
+        <v>0.03658946361719632</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1016147489526051</v>
+        <v>0.09962539131824606</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02222499286847017</v>
+        <v>0.03630509544067299</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1015999647152742</v>
+        <v>0.100416069027121</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04135373426276406</v>
+        <v>0.05985650237118298</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1024282230820538</v>
+        <v>0.09873147369260694</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09261199672977727</v>
+        <v>0.1044459214289805</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09933814697388006</v>
+        <v>0.09882909019580098</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1372578049024515</v>
+        <v>0.03630509544067299</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1024212152141337</v>
+        <v>0.100416069027121</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02199287297539801</v>
+        <v>0.03601598076418014</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1023999644374417</v>
+        <v>0.101206746735996</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04145073484773536</v>
+        <v>0.05953490083957477</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1032347445236448</v>
+        <v>0.09950888687128889</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09217396516251222</v>
+        <v>0.1031739350696608</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1001203371075327</v>
+        <v>0.09960727200836633</v>
       </c>
       <c r="N193" t="n">
-        <v>0.135148595889745</v>
+        <v>0.03601598076418014</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1032276814756623</v>
+        <v>0.101206746735996</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02176119722752337</v>
+        <v>0.03592199912231994</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1031999641596092</v>
+        <v>0.101997424444871</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04106301307997004</v>
+        <v>0.05813861714493476</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1040412659652357</v>
+        <v>0.1002863000499708</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09192960260669789</v>
+        <v>0.1028263757990587</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1009025272411853</v>
+        <v>0.1003854538209317</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1348200894603839</v>
+        <v>0.03592199912231994</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1040341477371909</v>
+        <v>0.101997424444871</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02253135209520463</v>
+        <v>0.03542303004969473</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1039999638817767</v>
+        <v>0.1027881021537459</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04059276670176006</v>
+        <v>0.05836648147227594</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1048477874068267</v>
+        <v>0.1010637132286528</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09138012853229172</v>
+        <v>0.1009457218955859</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1016847173748379</v>
+        <v>0.1011636356334971</v>
       </c>
       <c r="N195" t="n">
-        <v>0.134081296800917</v>
+        <v>0.03542303004969473</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1048406139987196</v>
+        <v>0.1027881021537459</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02130472404880011</v>
+        <v>0.0355189530809067</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1047999636039442</v>
+        <v>0.1035787798626209</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0402421934553973</v>
+        <v>0.05781732400661124</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1056543088484177</v>
+        <v>0.1018411264073347</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09072676240925112</v>
+        <v>0.09943755076267941</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1024669075084905</v>
+        <v>0.1019418174460624</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1327412290978931</v>
+        <v>0.0355189530809067</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1056470802602482</v>
+        <v>0.1035787798626209</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02108269955866822</v>
+        <v>0.03520766203696975</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1055999633261118</v>
+        <v>0.1043694575714959</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04031349108317372</v>
+        <v>0.05668997493295352</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1064608302900087</v>
+        <v>0.1026185395860167</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09007072370753375</v>
+        <v>0.09890794490683524</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1032490976421431</v>
+        <v>0.1027199992586278</v>
       </c>
       <c r="N197" t="n">
-        <v>0.132208897537861</v>
+        <v>0.03520766203696975</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1064535465217768</v>
+        <v>0.1043694575714959</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02086666509516727</v>
+        <v>0.03505991151614968</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1063999630482793</v>
+        <v>0.1051601352803708</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04020885732738126</v>
+        <v>0.05688326443631583</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1072673517315997</v>
+        <v>0.1033959527646986</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08921323189709698</v>
+        <v>0.0973629868345493</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1040312877757957</v>
+        <v>0.1034981810711931</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1314933133073697</v>
+        <v>0.03505991151614968</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1072600127833054</v>
+        <v>0.1051601352803708</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02065800712865565</v>
+        <v>0.03476900026877112</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1071999627704468</v>
+        <v>0.1059508129892458</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03973048993031184</v>
+        <v>0.05629602270171102</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1080738731731906</v>
+        <v>0.1041733659433806</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08885550644789836</v>
+        <v>0.09530875905231784</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1048134779094483</v>
+        <v>0.1042763628837585</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1316034875929679</v>
+        <v>0.03476900026877112</v>
       </c>
       <c r="O199" t="n">
-        <v>0.108066479044834</v>
+        <v>0.1059508129892458</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0214581121294917</v>
+        <v>0.03413878161716481</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1079999624926143</v>
+        <v>0.1067414906981208</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03958058663425734</v>
+        <v>0.05592707991415208</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1088803946147816</v>
+        <v>0.1049507791220625</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08789876682989539</v>
+        <v>0.09385134406663653</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1055956680431009</v>
+        <v>0.1050545446963239</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1317484315812043</v>
+        <v>0.03413878161716481</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1088729453063626</v>
+        <v>0.1067414906981208</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02226836656803378</v>
+        <v>0.03397310888366144</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1087999622147818</v>
+        <v>0.1075321684069958</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03936134518150973</v>
+        <v>0.05467526625865185</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1096869160563726</v>
+        <v>0.1057281923007444</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08754423251304558</v>
+        <v>0.09289682438400154</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1063778581767535</v>
+        <v>0.1058327265088892</v>
       </c>
       <c r="N201" t="n">
-        <v>0.131237156458628</v>
+        <v>0.03397310888366144</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1096794115678912</v>
+        <v>0.1075321684069958</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02208536196433998</v>
+        <v>0.03367583539059177</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1095999619369493</v>
+        <v>0.1083228461158707</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03957496331436092</v>
+        <v>0.05473941192022339</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1104934374979635</v>
+        <v>0.1065056054794264</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08689312296730636</v>
+        <v>0.09105128251090872</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1071600483104061</v>
+        <v>0.1066109083214546</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1318328867776927</v>
+        <v>0.03367583539059177</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1104858778294198</v>
+        <v>0.1083228461158707</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01990210664330334</v>
+        <v>0.0330508144602865</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1103999616591168</v>
+        <v>0.1091135238247457</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03952363877510286</v>
+        <v>0.05401834708387954</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1112999589395545</v>
+        <v>0.1072830186581083</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08614665766263527</v>
+        <v>0.09072080095385421</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1079422384440587</v>
+        <v>0.1073890901340199</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1313333571216282</v>
+        <v>0.0330508144602865</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1112923440909484</v>
+        <v>0.1091135238247457</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02071850744140025</v>
+        <v>0.03280189941507637</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1111999613812843</v>
+        <v>0.1099042015336207</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03949731626610935</v>
+        <v>0.05421090193463327</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1121064803811455</v>
+        <v>0.1080604318367903</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0861060560689898</v>
+        <v>0.08821146221933379</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1087244285777113</v>
+        <v>0.1081672719465853</v>
       </c>
       <c r="N204" t="n">
-        <v>0.130534815007514</v>
+        <v>0.03280189941507637</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1120988103524771</v>
+        <v>0.1099042015336207</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02153456088018143</v>
+        <v>0.03233294357729208</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1119999611034519</v>
+        <v>0.1106948792424956</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03947216200165499</v>
+        <v>0.05321590665749748</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1129130018227365</v>
+        <v>0.1088378450154722</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08537253765632749</v>
+        <v>0.08782934881384363</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1095066187113639</v>
+        <v>0.1089454537591507</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1307378204120286</v>
+        <v>0.03233294357729208</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1129052766140057</v>
+        <v>0.1106948792424956</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02035026348119761</v>
+        <v>0.03174780026926437</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1127999608256194</v>
+        <v>0.1114855569513706</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0391474703393881</v>
+        <v>0.05293219143748518</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1137195232643275</v>
+        <v>0.1096152581941542</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08484456385494615</v>
+        <v>0.08658054324387982</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1102888088450165</v>
+        <v>0.109723635571716</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1305429333118505</v>
+        <v>0.03174780026926437</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1137117428755343</v>
+        <v>0.1114855569513706</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01916561176599954</v>
+        <v>0.03105032281332397</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1135999605477869</v>
+        <v>0.1122762346602456</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03922323991717559</v>
+        <v>0.05295858645960924</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1145260447059184</v>
+        <v>0.1103926713728361</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08460827577149052</v>
+        <v>0.08537112801593805</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1110709989786691</v>
+        <v>0.1105018173842814</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1317507136836581</v>
+        <v>0.03105032281332397</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1145182091370629</v>
+        <v>0.1122762346602456</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01898060225613798</v>
+        <v>0.03084436453180159</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1143999602699544</v>
+        <v>0.1130669123691205</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0394994693728843</v>
+        <v>0.05239392190888262</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1153325661475094</v>
+        <v>0.1111700845515181</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08386163175673758</v>
+        <v>0.08450718563651444</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1118531891123217</v>
+        <v>0.1112799991968468</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1315617215041297</v>
+        <v>0.03084436453180159</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1153246753985915</v>
+        <v>0.1130669123691205</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02079523147316365</v>
+        <v>0.03013377874702798</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1151999599921219</v>
+        <v>0.1138575900779955</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03907615734438108</v>
+        <v>0.05213702797031822</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1161390875891004</v>
+        <v>0.1119474977302</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08350469035948288</v>
+        <v>0.083594798612105</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1126353792459742</v>
+        <v>0.1120581810094121</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1305765167499439</v>
+        <v>0.03013377874702798</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1161311416601201</v>
+        <v>0.1138575900779955</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0206094959386273</v>
+        <v>0.02972241878133379</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1159999597142894</v>
+        <v>0.1146482677868705</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03925330246953282</v>
+        <v>0.051386734828929</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1169456090306913</v>
+        <v>0.1127249109088819</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08323751012852199</v>
+        <v>0.08114004944920566</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1134175693796268</v>
+        <v>0.1128363628219775</v>
       </c>
       <c r="N210" t="n">
-        <v>0.130595659397779</v>
+        <v>0.02972241878133379</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1169376079216487</v>
+        <v>0.1146482677868705</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01842339217407968</v>
+        <v>0.02941413795704982</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1167999594364569</v>
+        <v>0.1154389454957454</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03913090338620637</v>
+        <v>0.05114187266972789</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1177521304722823</v>
+        <v>0.1135023240875639</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08226014961265055</v>
+        <v>0.08104902065431252</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1141997595132794</v>
+        <v>0.1136145446345429</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1306197094243134</v>
+        <v>0.02941413795704982</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1177440741831773</v>
+        <v>0.1154389454957454</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02023691670107151</v>
+        <v>0.02851278959650677</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1175999591586245</v>
+        <v>0.1162296232046204</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0393089587322686</v>
+        <v>0.05120127167772784</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1185586519138733</v>
+        <v>0.1142797372662458</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08157266736066418</v>
+        <v>0.08002779473392146</v>
       </c>
       <c r="M212" t="n">
-        <v>0.114981949646932</v>
+        <v>0.1143927264471082</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1307492268062258</v>
+        <v>0.02851278959650677</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1185505404447059</v>
+        <v>0.1162296232046204</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01805006604115356</v>
+        <v>0.02842222702203534</v>
       </c>
       <c r="G213" t="n">
-        <v>0.118399958880792</v>
+        <v>0.1170203009134954</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03898746714558636</v>
+        <v>0.05056376203794172</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1193651733554643</v>
+        <v>0.1150571504449278</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08147512192135842</v>
+        <v>0.07848245419452843</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1157641397805847</v>
+        <v>0.1151709082596736</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1316847715201943</v>
+        <v>0.02842222702203534</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1193570067062346</v>
+        <v>0.1170203009134954</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01786283671587655</v>
+        <v>0.02784630355596628</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1191999586029595</v>
+        <v>0.1178109786223703</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03926642726402654</v>
+        <v>0.05042817393538254</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1201716947970552</v>
+        <v>0.1158345636236097</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08086757184352897</v>
+        <v>0.07851907567829652</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1165463299142373</v>
+        <v>0.1159490900722389</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1318269035428976</v>
+        <v>0.02784630355596628</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1201634729677632</v>
+        <v>0.1178109786223703</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01967522524679122</v>
+        <v>0.02718887252063031</v>
       </c>
       <c r="G215" t="n">
-        <v>0.119999958325127</v>
+        <v>0.1186016563312453</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03924583772545599</v>
+        <v>0.0495933375550632</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1209782162386462</v>
+        <v>0.1166119768022917</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08025007567597134</v>
+        <v>0.0770982513627349</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1173285200478899</v>
+        <v>0.1167272718848043</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1309761828510138</v>
+        <v>0.02718887252063031</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1209699392292918</v>
+        <v>0.1186016563312453</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01948722815544832</v>
+        <v>0.02705378723835813</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1207999580472945</v>
+        <v>0.1193923340401203</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03912569716774156</v>
+        <v>0.04935808308199668</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1217847376802372</v>
+        <v>0.1173893899809736</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07952269196748118</v>
+        <v>0.0773788827647211</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1181107101815425</v>
+        <v>0.1175054536973697</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1315331694212216</v>
+        <v>0.02705378723835813</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1217764054908204</v>
+        <v>0.1193923340401203</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0172988419633986</v>
+        <v>0.0262449010314805</v>
       </c>
       <c r="G217" t="n">
-        <v>0.121599957769462</v>
+        <v>0.1201830117489952</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03900600422875014</v>
+        <v>0.04892124070119586</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1225912591218282</v>
+        <v>0.1181668031596556</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07898547926685409</v>
+        <v>0.07686151037270017</v>
       </c>
       <c r="M217" t="n">
-        <v>0.118892900315195</v>
+        <v>0.118283635509935</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1321984232301994</v>
+        <v>0.0262449010314805</v>
       </c>
       <c r="O217" t="n">
-        <v>0.122582871752349</v>
+        <v>0.1201830117489952</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01711006319219279</v>
+        <v>0.02586606722232811</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1223999574916295</v>
+        <v>0.1209736894578702</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03908675754634855</v>
+        <v>0.04908164059767364</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1233977805634191</v>
+        <v>0.1189442163383375</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07823849612288569</v>
+        <v>0.07474667467511725</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1196750904488476</v>
+        <v>0.1190618173225004</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1308725042546255</v>
+        <v>0.02586606722232811</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1233893380138776</v>
+        <v>0.1209736894578702</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01692088836338164</v>
+        <v>0.0259211391332317</v>
       </c>
       <c r="G219" t="n">
-        <v>0.123199957213797</v>
+        <v>0.1217643671667452</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03906795575840369</v>
+        <v>0.04813811295644305</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1242043020050101</v>
+        <v>0.1197216295170195</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07708180108437152</v>
+        <v>0.07433491616041749</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1204572805825002</v>
+        <v>0.1198399991350657</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1319559724711785</v>
+        <v>0.0259211391332317</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1241958042754062</v>
+        <v>0.1217643671667452</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01773131399851587</v>
+        <v>0.02531397008652202</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1239999569359646</v>
+        <v>0.1225550448756202</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03904959750278243</v>
+        <v>0.04778948796251695</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1250108234466011</v>
+        <v>0.1204990426957014</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07651545270010721</v>
+        <v>0.07412677531704587</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1212394707161528</v>
+        <v>0.1206181809476311</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1312493878565367</v>
+        <v>0.02531397008652202</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1250022705369348</v>
+        <v>0.1225550448756202</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01654133661914624</v>
+        <v>0.02534841340452972</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1247999566581321</v>
+        <v>0.1233457225844951</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03923168141735163</v>
+        <v>0.04813459580090831</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1258173448881921</v>
+        <v>0.1212764558743833</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07573950951888839</v>
+        <v>0.07362279263344756</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1220216608498054</v>
+        <v>0.1213963627601965</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1312533103873785</v>
+        <v>0.02534841340452972</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1258087367984635</v>
+        <v>0.1233457225844951</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01835095274682351</v>
+        <v>0.02472832240958558</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1255999563802996</v>
+        <v>0.1241364002933701</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03891420613997812</v>
+        <v>0.04737226665663005</v>
       </c>
       <c r="K222" t="n">
-        <v>0.126623866329783</v>
+        <v>0.1220538690530653</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07525403008951062</v>
+        <v>0.07262350859806782</v>
       </c>
       <c r="M222" t="n">
-        <v>0.122803850983458</v>
+        <v>0.1221745445727618</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1315683000403824</v>
+        <v>0.02472832240958558</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1266152030599921</v>
+        <v>0.1241364002933701</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01616015890309839</v>
+        <v>0.02475755042402029</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1263999561024671</v>
+        <v>0.1249270780022451</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0389971703085288</v>
+        <v>0.0474013307146951</v>
       </c>
       <c r="K223" t="n">
-        <v>0.127430387771374</v>
+        <v>0.1228312822317472</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07445907296076956</v>
+        <v>0.0723294636993515</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1235860411171106</v>
+        <v>0.1229527263853272</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1327949167922269</v>
+        <v>0.02475755042402029</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1274216693215207</v>
+        <v>0.1249270780022451</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01796895160952163</v>
+        <v>0.02473995077016462</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1271999558246346</v>
+        <v>0.12571775571112</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03918057256087053</v>
+        <v>0.04632061816011637</v>
       </c>
       <c r="K224" t="n">
-        <v>0.128236909212965</v>
+        <v>0.1236086954104292</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07335469668146077</v>
+        <v>0.07114119842574385</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1243682312507633</v>
+        <v>0.1237309081978926</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1323337206195903</v>
+        <v>0.02473995077016462</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1282281355830493</v>
+        <v>0.12571775571112</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01577732738764397</v>
+        <v>0.02476776655969869</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1279999555468021</v>
+        <v>0.126508433419995</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03886441153487015</v>
+        <v>0.04583212573589179</v>
       </c>
       <c r="K225" t="n">
-        <v>0.129043430654556</v>
+        <v>0.1243861085891111</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0729409598003799</v>
+        <v>0.07055925326569013</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1251504213844158</v>
+        <v>0.1245090900104579</v>
       </c>
       <c r="N225" t="n">
-        <v>0.132785271499151</v>
+        <v>0.02476776655969869</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1290346018445779</v>
+        <v>0.126508433419995</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01558528275901617</v>
+        <v>0.02460089313224791</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1287999552689696</v>
+        <v>0.12729911112887</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03904868586839455</v>
+        <v>0.04544481891359545</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1298499520961469</v>
+        <v>0.1251635217677931</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0720179208663225</v>
+        <v>0.06918416870763511</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1259326115180684</v>
+        <v>0.1252872718230233</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1326501294075876</v>
+        <v>0.02460089313224791</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1298410681061065</v>
+        <v>0.12729911112887</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01539281424518895</v>
+        <v>0.02443556646689149</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1295999549911372</v>
+        <v>0.1280897888377449</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03893339419931055</v>
+        <v>0.04575935789448446</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1306564735377379</v>
+        <v>0.125940934946475</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07128563842808416</v>
+        <v>0.06981648524002421</v>
       </c>
       <c r="M227" t="n">
-        <v>0.126714801651721</v>
+        <v>0.1260654536355887</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1326288543215784</v>
+        <v>0.02443556646689149</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1306475343676351</v>
+        <v>0.1280897888377449</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01519991836771306</v>
+        <v>0.02417179670875085</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1303999547133046</v>
+        <v>0.1288804665466199</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03871853516548508</v>
+        <v>0.04497577018468599</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1314629949793289</v>
+        <v>0.1267183481251569</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07124417103446054</v>
+        <v>0.06885674335130232</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1274969917853736</v>
+        <v>0.126843635448154</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1335220062178019</v>
+        <v>0.02417179670875085</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1314540006291637</v>
+        <v>0.1288804665466199</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01700659164813925</v>
+        <v>0.02440959400294744</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1311999544354722</v>
+        <v>0.1296711442554949</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03870410740478496</v>
+        <v>0.04449408329032709</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1322695164209199</v>
+        <v>0.1274957613038389</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0700935772342472</v>
+        <v>0.06850548352991465</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1282791819190262</v>
+        <v>0.1276218172607194</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1325301450729364</v>
+        <v>0.02440959400294744</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1322604668906923</v>
+        <v>0.1296711442554949</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01481283060801824</v>
+        <v>0.02424896849460263</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1319999541576397</v>
+        <v>0.1304618219643698</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03869010955507707</v>
+        <v>0.04481432471753499</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1330760378625108</v>
+        <v>0.1282731744825208</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0698339155762398</v>
+        <v>0.06786324626430623</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1290613720526788</v>
+        <v>0.1283999990732847</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1326538308636604</v>
+        <v>0.02424896849460263</v>
       </c>
       <c r="O230" t="n">
-        <v>0.133066933152221</v>
+        <v>0.1304618219643698</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01561863176890079</v>
+        <v>0.02398993032883795</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1327999538798072</v>
+        <v>0.1312524996732448</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03897654025422825</v>
+        <v>0.04433652197243687</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1338825593041018</v>
+        <v>0.1290505876612028</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06856524460923388</v>
+        <v>0.0665305720429224</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1298435621863314</v>
+        <v>0.1291781808858501</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1334936235666525</v>
+        <v>0.02398993032883795</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1338733994137496</v>
+        <v>0.1312524996732448</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01442399165233764</v>
+        <v>0.02393248965077473</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1335999536019747</v>
+        <v>0.1320431773821198</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03886339814010539</v>
+        <v>0.04396070256115978</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1346890807456928</v>
+        <v>0.1298280008398847</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06808762288202508</v>
+        <v>0.06640800135420794</v>
       </c>
       <c r="M232" t="n">
-        <v>0.130625752319984</v>
+        <v>0.1299563626984155</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1343500831585909</v>
+        <v>0.02393248965077473</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1346798656752782</v>
+        <v>0.1320431773821198</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01422890677987953</v>
+        <v>0.02387665660553447</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1343999533241422</v>
+        <v>0.1328338550909947</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03885068185057534</v>
+        <v>0.04348689398983088</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1354956021872838</v>
+        <v>0.1306054140185667</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06670110894340894</v>
+        <v>0.0648960746866083</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1314079424536366</v>
+        <v>0.1307345445109808</v>
       </c>
       <c r="N233" t="n">
-        <v>0.133423769616154</v>
+        <v>0.02387665660553447</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1354863319368068</v>
+        <v>0.1328338550909947</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01403337367307719</v>
+        <v>0.02382244133823856</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1351999530463097</v>
+        <v>0.1336245327998697</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03863839002350498</v>
+        <v>0.04261512376457741</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1363021236288748</v>
+        <v>0.1313828271972486</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06630576134218114</v>
+        <v>0.06519533252856824</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1321901325872892</v>
+        <v>0.1315127263235462</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1344152429160205</v>
+        <v>0.02382244133823856</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1362927981983354</v>
+        <v>0.1336245327998697</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01483738885348138</v>
+        <v>0.02386985399400844</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1359999527684773</v>
+        <v>0.1344152105087447</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03902652129676115</v>
+        <v>0.04224541939152637</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1371086450704657</v>
+        <v>0.1321602403759305</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06520163862713726</v>
+        <v>0.06370631536853311</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1329723227209418</v>
+        <v>0.1322909081361115</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1348250630348685</v>
+        <v>0.02386985399400844</v>
       </c>
       <c r="O235" t="n">
-        <v>0.137099264459864</v>
+        <v>0.1344152105087447</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01364094884264283</v>
+        <v>0.02411890471796552</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1367999524906448</v>
+        <v>0.1352058882176197</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03901507430821073</v>
+        <v>0.04237780837680505</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1379151665120567</v>
+        <v>0.1329376535546125</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06418879934707286</v>
+        <v>0.06322956369494798</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1337545128545944</v>
+        <v>0.1330690899486769</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1356537899493767</v>
+        <v>0.02411890471796552</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1379057307213926</v>
+        <v>0.1352058882176197</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01344405016211229</v>
+        <v>0.02396960365523124</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1375999522128123</v>
+        <v>0.1359965659264946</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03870404769572058</v>
+        <v>0.04141231822654048</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1387216879536476</v>
+        <v>0.1337150667332944</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06416730205078366</v>
+        <v>0.06256561799625787</v>
       </c>
       <c r="M237" t="n">
-        <v>0.134536702988247</v>
+        <v>0.1338472717612423</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1349019836362233</v>
+        <v>0.02396960365523124</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1387121969829213</v>
+        <v>0.1359965659264946</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01524668933344048</v>
+        <v>0.02382196095092706</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1383999519349798</v>
+        <v>0.1367872436353696</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03889344009715756</v>
+        <v>0.04094897644685991</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1395282093952386</v>
+        <v>0.1344924799119764</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0633372052870651</v>
+        <v>0.06191501876090799</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1353188931218996</v>
+        <v>0.1346254535738076</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1361702040720869</v>
+        <v>0.02382196095092706</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1395186632444499</v>
+        <v>0.1367872436353696</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01404886287817818</v>
+        <v>0.02367598675017439</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1391999516571473</v>
+        <v>0.1375779213442445</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03898325015038855</v>
+        <v>0.04118781054389037</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1403347308368296</v>
+        <v>0.1352698930906583</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06209856760471288</v>
+        <v>0.06197830647734348</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1361010832555522</v>
+        <v>0.135403635386373</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1361590112336458</v>
+        <v>0.02367598675017439</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1403251295059785</v>
+        <v>0.1375779213442445</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0138505673178761</v>
+        <v>0.02393169119809463</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1399999513793148</v>
+        <v>0.1383685990531195</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03867347649328037</v>
+        <v>0.0404288480237591</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1411412522784206</v>
+        <v>0.1360473062693403</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06085144755252261</v>
+        <v>0.06155602163400925</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1368832733892048</v>
+        <v>0.1361818171989383</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1367689650975786</v>
+        <v>0.02393169119809463</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1411315957675071</v>
+        <v>0.1383685990531195</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01265179917408499</v>
+        <v>0.02388908443980924</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1407999511014823</v>
+        <v>0.1391592767619945</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03866411776369993</v>
+        <v>0.04077211639259323</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1419477737200116</v>
+        <v>0.1368247194480222</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0606959036792899</v>
+        <v>0.06124870471935057</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1376654635228574</v>
+        <v>0.1369599990115037</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1374006256405635</v>
+        <v>0.02388908443980924</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1419380620290357</v>
+        <v>0.1391592767619945</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01245255496835559</v>
+        <v>0.02354817662043965</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1415999508236498</v>
+        <v>0.1399499544708695</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03885517259951408</v>
+        <v>0.04011764315651986</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1427542951616025</v>
+        <v>0.1376021326267041</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05953199453381028</v>
+        <v>0.06025689622181257</v>
       </c>
       <c r="M242" t="n">
-        <v>0.13844765365651</v>
+        <v>0.1377381808240691</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1372545528392792</v>
+        <v>0.02354817662043965</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1427445282905643</v>
+        <v>0.1399499544708695</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01325283122223866</v>
+        <v>0.02380897788510725</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1423999505458174</v>
+        <v>0.1407406321797444</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03874663963858967</v>
+        <v>0.03936545582166615</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1435608166031935</v>
+        <v>0.1383795458053861</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05865977866487943</v>
+        <v>0.06038113662984029</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1392298437901626</v>
+        <v>0.1385163626366344</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1380313066704039</v>
+        <v>0.02380897788510725</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1435509945520929</v>
+        <v>0.1407406321797444</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01205262445728492</v>
+        <v>0.02337149837893351</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1431999502679849</v>
+        <v>0.1415313098886194</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0386385175187936</v>
+        <v>0.03901558189415927</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1443673380447845</v>
+        <v>0.1391569589840681</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05767931462129289</v>
+        <v>0.0594219664318788</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1400120339238152</v>
+        <v>0.1392945444491998</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1391314471106161</v>
+        <v>0.02337149837893351</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1443574608136216</v>
+        <v>0.1415313098886194</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01385193119504511</v>
+        <v>0.02373574824703983</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1439999499901524</v>
+        <v>0.1423219875974944</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03883080487799268</v>
+        <v>0.03866804888012634</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1451738594863755</v>
+        <v>0.13993437216275</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05699066095184627</v>
+        <v>0.05847992611637332</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1407942240574678</v>
+        <v>0.1400727262617651</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1386555341365943</v>
+        <v>0.02373574824703983</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1451639270751502</v>
+        <v>0.1423219875974944</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01165074795706999</v>
+        <v>0.0234017376345477</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1447999497123199</v>
+        <v>0.1431126653063693</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03892350035405383</v>
+        <v>0.03812288428569449</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1459803809279664</v>
+        <v>0.1407117853414319</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05569387620533522</v>
+        <v>0.0579555561717689</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1415764141911204</v>
+        <v>0.1408509080743305</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1397041277250168</v>
+        <v>0.0234017376345477</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1459703933366787</v>
+        <v>0.1431126653063693</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01144907126491028</v>
+        <v>0.02366947668657847</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1455999494344874</v>
+        <v>0.1439033430152443</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03881660258484386</v>
+        <v>0.03788011561699095</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1467869023695574</v>
+        <v>0.1414891985201139</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05558901893055529</v>
+        <v>0.05814939708651068</v>
       </c>
       <c r="M247" t="n">
-        <v>0.142358604324773</v>
+        <v>0.1416290898868959</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1397777878525621</v>
+        <v>0.02366947668657847</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1467768595982074</v>
+        <v>0.1439033430152443</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01124689764011674</v>
+        <v>0.02333897554825361</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1463999491566549</v>
+        <v>0.1446940207241193</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03881011020822966</v>
+        <v>0.03823977038014281</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1475934238111484</v>
+        <v>0.1422666116987958</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05377614767630218</v>
+        <v>0.05796198934904373</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1431407944584256</v>
+        <v>0.1424072716994612</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1399770744959087</v>
+        <v>0.02333897554825361</v>
       </c>
       <c r="O248" t="n">
-        <v>0.147583325859736</v>
+        <v>0.1446940207241193</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01104422360424011</v>
+        <v>0.02351024436469452</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1471999488788225</v>
+        <v>0.1454846984329942</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03880402186207811</v>
+        <v>0.03730187608127719</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1483999452527394</v>
+        <v>0.1430440248774778</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0532553209913714</v>
+        <v>0.05679387344781311</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1439229845920782</v>
+        <v>0.1431854535120266</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1408025476317349</v>
+        <v>0.02351024436469452</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1483897921212646</v>
+        <v>0.1454846984329942</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01184104567883112</v>
+        <v>0.02348329328102267</v>
       </c>
       <c r="G250" t="n">
-        <v>0.14799994860099</v>
+        <v>0.1462753761418692</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03889833618425605</v>
+        <v>0.03766646022652126</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1492064666943303</v>
+        <v>0.1438214380561597</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05202659742455856</v>
+        <v>0.05724558987126405</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1447051747257308</v>
+        <v>0.143963635324592</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1420547672367191</v>
+        <v>0.02348329328102267</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1491962583827932</v>
+        <v>0.1462753761418692</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01263736038544053</v>
+        <v>0.02315813244235948</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1487999483231575</v>
+        <v>0.1470660538507442</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03889305181263036</v>
+        <v>0.03673355032200218</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1500129881359213</v>
+        <v>0.1445988512348417</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05129003552465927</v>
+        <v>0.05661767910784155</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1454873648593834</v>
+        <v>0.1447418171371573</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1433342932875399</v>
+        <v>0.02315813244235948</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1500027246443218</v>
+        <v>0.1470660538507442</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01243316424561906</v>
+        <v>0.02333477199382634</v>
       </c>
       <c r="G252" t="n">
-        <v>0.149599948045325</v>
+        <v>0.1478567315596192</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03888816738506787</v>
+        <v>0.03630317387384704</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1508195095775123</v>
+        <v>0.1453762644135236</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05034569384046914</v>
+        <v>0.05601068164599093</v>
       </c>
       <c r="M252" t="n">
-        <v>0.146269554993036</v>
+        <v>0.1455199989497227</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1428416857608756</v>
+        <v>0.02333477199382634</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1508091909058504</v>
+        <v>0.1478567315596192</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01222845378091747</v>
+        <v>0.02351322208054472</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1503999477674925</v>
+        <v>0.1486474092684941</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0384836815394355</v>
+        <v>0.03617535838818303</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1516260310191033</v>
+        <v>0.1461536775922055</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04919363092078377</v>
+        <v>0.05572513797415701</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1470517451266886</v>
+        <v>0.1462981807622881</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1446775046334047</v>
+        <v>0.02351322208054472</v>
       </c>
       <c r="O253" t="n">
-        <v>0.151615657167379</v>
+        <v>0.1486474092684941</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01202322551288649</v>
+        <v>0.02339349284763603</v>
       </c>
       <c r="G254" t="n">
-        <v>0.15119994748966</v>
+        <v>0.1494380869773691</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03887959291360006</v>
+        <v>0.03635013137113732</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1524325524606942</v>
+        <v>0.1469310907708875</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04843390531439878</v>
+        <v>0.056261588580785</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1478339352603412</v>
+        <v>0.1470763625748534</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1441423098818055</v>
+        <v>0.02339349284763603</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1524221234289077</v>
+        <v>0.1494380869773691</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01081747596307685</v>
+        <v>0.02347559444022171</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1519999472118275</v>
+        <v>0.150228764686244</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03857590014542844</v>
+        <v>0.03582752032883701</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1532390739022852</v>
+        <v>0.1477085039495694</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04806657557010974</v>
+        <v>0.0564205739543201</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1486161253939938</v>
+        <v>0.1478545443874188</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1461366614827566</v>
+        <v>0.02347559444022171</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1532285896904363</v>
+        <v>0.150228764686244</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01061120165303932</v>
+        <v>0.0230595370034232</v>
       </c>
       <c r="G256" t="n">
-        <v>0.152799946933995</v>
+        <v>0.151019442395119</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0386726018727875</v>
+        <v>0.03520755276740928</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1540455953438762</v>
+        <v>0.1484859171282514</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04709170023671233</v>
+        <v>0.05580263458320733</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1493983155276464</v>
+        <v>0.1486327261999842</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1471611194129363</v>
+        <v>0.0230595370034232</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1540350559519649</v>
+        <v>0.151019442395119</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.009404399104324633</v>
+        <v>0.02324533068236188</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1535999466561625</v>
+        <v>0.151810120103994</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03856969673354411</v>
+        <v>0.03489025619298125</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1548521167854671</v>
+        <v>0.1492633303069333</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04610933786300206</v>
+        <v>0.05540831095589188</v>
       </c>
       <c r="M257" t="n">
-        <v>0.150180505661299</v>
+        <v>0.1494109080125495</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1472162436490231</v>
+        <v>0.02324533068236188</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1548415222134935</v>
+        <v>0.151810120103994</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01019706483848352</v>
+        <v>0.02323298562215921</v>
       </c>
       <c r="G258" t="n">
-        <v>0.15439994637833</v>
+        <v>0.1526007978128689</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0386671833655651</v>
+        <v>0.03507565811168004</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1556586382270581</v>
+        <v>0.1500407434856153</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04501954699777458</v>
+        <v>0.05583814356081873</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1509626957949516</v>
+        <v>0.1501890898251149</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1476025941676954</v>
+        <v>0.02323298562215921</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1556479884750221</v>
+        <v>0.1526007978128689</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.00898919537706673</v>
+        <v>0.02322251196793663</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1551999461004976</v>
+        <v>0.1533914755217439</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03846506040671741</v>
+        <v>0.03446378602963285</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1564651596686491</v>
+        <v>0.1508181566642972</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04372238618982544</v>
+        <v>0.05509267288643316</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1517448859286042</v>
+        <v>0.1509672716376802</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1485207309456316</v>
+        <v>0.02322251196793663</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1564544547365507</v>
+        <v>0.1533914755217439</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.00878078724162501</v>
+        <v>0.02341391986481556</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1559999458226651</v>
+        <v>0.1541821532306189</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0388633264948678</v>
+        <v>0.03405466745296681</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1572716811102401</v>
+        <v>0.1515955698429792</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04241791398795031</v>
+        <v>0.05507243942118012</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1525270760622568</v>
+        <v>0.1517454534502456</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1497712139595103</v>
+        <v>0.02341391986481556</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1572609209980793</v>
+        <v>0.1541821532306189</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0105718369537091</v>
+        <v>0.02330721945791743</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1567999455448326</v>
+        <v>0.1549728309394939</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03846198026788321</v>
+        <v>0.03364832988780903</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1580782025518311</v>
+        <v>0.1523729830216611</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04180618894094476</v>
+        <v>0.05457798365350475</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1533092661959094</v>
+        <v>0.152523635262811</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1513546031860096</v>
+        <v>0.02330721945791743</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1580673872596079</v>
+        <v>0.1549728309394939</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.008362341034869721</v>
+        <v>0.02320242089236367</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1575999452670001</v>
+        <v>0.1557635086483689</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03846102036363047</v>
+        <v>0.03364480084028673</v>
       </c>
       <c r="K262" t="n">
-        <v>0.158884723993422</v>
+        <v>0.1531503962003431</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0409872695976044</v>
+        <v>0.05410984607185221</v>
       </c>
       <c r="M262" t="n">
-        <v>0.154091456329562</v>
+        <v>0.1533018170753763</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1517714586018082</v>
+        <v>0.02320242089236367</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1588738535211366</v>
+        <v>0.1557635086483689</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01015229600665764</v>
+        <v>0.02339953431327568</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1583999449891676</v>
+        <v>0.1565541863572438</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03846044541997648</v>
+        <v>0.03274410781652698</v>
       </c>
       <c r="K263" t="n">
-        <v>0.159691245435013</v>
+        <v>0.153927809379025</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03986121450672483</v>
+        <v>0.05406856716466762</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1548736464632146</v>
+        <v>0.1540799988879417</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1530223401835844</v>
+        <v>0.02339953431327568</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1596803197826651</v>
+        <v>0.1565541863572438</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.008941698390623587</v>
+        <v>0.02319856986577493</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1591999447113351</v>
+        <v>0.1573448640661188</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03866025407478806</v>
+        <v>0.03294627832265695</v>
       </c>
       <c r="K264" t="n">
-        <v>0.160497766876604</v>
+        <v>0.1547052225577069</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03822808221710169</v>
+        <v>0.05415468742039614</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1556558365968672</v>
+        <v>0.154858180700507</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1543078079080168</v>
+        <v>0.02319856986577493</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1604867860441938</v>
+        <v>0.1573448640661188</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7920883091822406</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03960441545911203</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03960441545911203</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06336706473457925</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08676264927546722</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02176855477620425</v>
+        <v>0.03676264927546721</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01351070084479633</v>
+        <v>0.01544264822624553</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001956843977449114</v>
+        <v>0.001205061672245433</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007906777088749688</v>
+        <v>0.0005597237194570256</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00743673294801675</v>
+        <v>0.002133901322623637</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007774131786819445</v>
+        <v>0.0007906777088749688</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008731804489802875</v>
+        <v>0.003999999999999976</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000778181812565362</v>
+        <v>0.0005792753623188371</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001956843977449114</v>
+        <v>0.009521710696486885</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007906777088749688</v>
+        <v>0.0007753923313687597</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004417942389962196</v>
+        <v>0.002421430657478942</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001581355417749938</v>
+        <v>0.001119447438914051</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01570213057556655</v>
+        <v>0.004286687101696357</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001554826357363889</v>
+        <v>0.001581355417749938</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01500000000000001</v>
+        <v>0.009273583193342899</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001357676630434784</v>
+        <v>0.001558322527588077</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.004417942389962196</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001581355417749938</v>
+        <v>0.001721431501230519</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006664709660909734</v>
+        <v>0.003648785770815746</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002372033126624906</v>
+        <v>0.001679171158371077</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.02208722179330638</v>
+        <v>0.006135909391923038</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002332239536045833</v>
+        <v>0.002372033126624906</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02387780430489328</v>
+        <v>0.01429720675919721</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002334545437696086</v>
+        <v>0.002337483791382115</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.006664709660909734</v>
+        <v>0.02591704062980138</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002372033126624906</v>
+        <v>0.002326176994106279</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008678560213662201</v>
+        <v>0.00488680582737111</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003162710835499875</v>
+        <v>0.002238894877828102</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0278830355118935</v>
+        <v>0.008159120248008529</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003109652714727778</v>
+        <v>0.003162710835499875</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02997948563100306</v>
+        <v>0.01832109276244612</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003112727250261448</v>
+        <v>0.003116645055176153</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.008678560213662201</v>
+        <v>0.03424042053863846</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003162710835499875</v>
+        <v>0.003101569325475039</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.006951304347826087</v>
+        <v>0.01032383795152635</v>
       </c>
       <c r="B70" t="n">
-        <v>0.016</v>
+        <v>0.02376264927546722</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01024090847159005</v>
+        <v>0.006135169642260241</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003953388544374843</v>
+        <v>0.002798618597285128</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.03378060064198493</v>
+        <v>0.009933871724657706</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003887065893409722</v>
+        <v>0.003953388544374843</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03736543172884921</v>
+        <v>0.02261149769481099</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00389090906282681</v>
+        <v>0.003895806318970192</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01024090847159005</v>
+        <v>0.04119477732565546</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003953388544374843</v>
+        <v>0.003876961656843798</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01233316885806375</v>
+        <v>0.007393556030598381</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004744066253249813</v>
+        <v>0.003358342316742153</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03767094609423788</v>
+        <v>0.01153771587657545</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004664479072091667</v>
+        <v>0.004744066253249813</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04297612735995643</v>
+        <v>0.02703467804801332</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004669090875392172</v>
+        <v>0.00467496758276423</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.01233316885806375</v>
+        <v>0.04718784274184096</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004744066253249813</v>
+        <v>0.004652353988212558</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01343675579645379</v>
+        <v>0.00866164380750075</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005534743962124781</v>
+        <v>0.003918066036199179</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.04199999999999998</v>
+        <v>0.01274820475846661</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005738105004101719</v>
+        <v>0.005534743962124781</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04905205728584966</v>
+        <v>0.03055689031377437</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005447272687957534</v>
+        <v>0.005454128846558269</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01343675579645379</v>
+        <v>0.05392734853818282</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005534743962124781</v>
+        <v>0.005427746319581318</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01483308371013063</v>
+        <v>0.009939111788082607</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00632542167099975</v>
+        <v>0.004477789755656205</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.04313666710812442</v>
+        <v>0.014</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006219305429455556</v>
+        <v>0.006082391304347826</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05423370626805368</v>
+        <v>0.03414439098381566</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006225454500522896</v>
+        <v>0.006233290110352307</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01483308371013063</v>
+        <v>0.05982102646566945</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00632542167099975</v>
+        <v>0.006203138650950077</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.016</v>
+        <v>0.01122563878745917</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006951304347826087</v>
+        <v>0.00503751347511323</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.04430879926338488</v>
+        <v>0.0150147555983927</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.0069967186081375</v>
+        <v>0.007116099379874718</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06026155906809333</v>
+        <v>0.03766343654985854</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007003636313088257</v>
+        <v>0.007012451374146345</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.016</v>
+        <v>0.06477660827528919</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006951304347826087</v>
+        <v>0.006978530982318838</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01691857327370841</v>
+        <v>0.01252090362074568</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007906777088749687</v>
+        <v>0.005597237194570256</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04518458626346553</v>
+        <v>0.01628669655597446</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007774131786819444</v>
+        <v>0.007906777088749687</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06417610044749333</v>
+        <v>0.04118028350362438</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00778181812565362</v>
+        <v>0.007791612637940384</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01691857327370841</v>
+        <v>0.06900182571803026</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007906777088749687</v>
+        <v>0.007753923313687597</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0178228519802666</v>
+        <v>0.01382458510305736</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008697454797624656</v>
+        <v>0.006156960914027281</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04683998647852256</v>
+        <v>0.01697823743667295</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008551544965501388</v>
+        <v>0.008697454797624656</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06851781516777872</v>
+        <v>0.04346118833683463</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008559999938218982</v>
+        <v>0.008570773901734422</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0178228519802666</v>
+        <v>0.07426565349803976</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008697454797624656</v>
+        <v>0.00869681873408136</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01854089510724559</v>
+        <v>0.01513636204950945</v>
       </c>
       <c r="G77" t="n">
+        <v>0.006716684633484306</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01770309139388354</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009488132506499625</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04801710413712201</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009371672977268481</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.07426565349803976</v>
+        <v>0.04627240754121068</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009602737352214836</v>
+        <v>0.009349935165528461</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01854089510724559</v>
+        <v>0.07627372475435579</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009488132506499625</v>
+        <v>0.009304707976425117</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01889484333760144</v>
+        <v>0.01645591327521717</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007276408352941333</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01877497158100172</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01027881021537459</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04907828579161219</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01010637132286528</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.07559515533691119</v>
+        <v>0.04801710413712201</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01011636356334971</v>
+        <v>0.009933973355904591</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01889484333760144</v>
+        <v>0.07897930054736146</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01027881021537459</v>
+        <v>0.01008010030779388</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01990683735429022</v>
+        <v>0.01778291759529578</v>
       </c>
       <c r="G79" t="n">
+        <v>0.007836132072398357</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01960759115142292</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01106948792424956</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.0496426915168732</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01088378450154722</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07838917193416106</v>
+        <v>0.0501801054204534</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01089454537591507</v>
+        <v>0.01090825769311654</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01990683735429022</v>
+        <v>0.08174074438351675</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01106948792424956</v>
+        <v>0.01085549263916264</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.020499017840268</v>
+        <v>0.01911705382486049</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008395855791855384</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02031466325854257</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01186016563312453</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.05134080116604314</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01166119768022917</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.08064649824919135</v>
+        <v>0.05214466529136935</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01167272718848043</v>
+        <v>0.01168741895691058</v>
       </c>
       <c r="N80" t="n">
-        <v>0.020499017840268</v>
+        <v>0.08375698869059595</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01186016563312453</v>
+        <v>0.01163088497053139</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02099352547849084</v>
+        <v>0.02045800077902655</v>
       </c>
       <c r="G81" t="n">
+        <v>0.008955579511312409</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02080990105575611</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.0126508433419995</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.05216953967818322</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01243861085891111</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.08466559652219041</v>
+        <v>0.05378566544450433</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01245090900104579</v>
+        <v>0.01246658022070461</v>
       </c>
       <c r="N81" t="n">
-        <v>0.02099352547849084</v>
+        <v>0.08772696589637363</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0126508433419995</v>
+        <v>0.01240627730190015</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
+        <v>0.02180543727290919</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.009515303230769434</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.02176855477620425</v>
       </c>
-      <c r="G82" t="n">
+      <c r="K82" t="n">
         <v>0.01351070084479633</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.05422583199235456</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01321602403759306</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.08654492899334654</v>
+        <v>0.05540202790333271</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01322909081361115</v>
+        <v>0.01324574148449865</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02176855477620425</v>
+        <v>0.08984960842862411</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01351070084479633</v>
+        <v>0.01318166963326891</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02226451520354562</v>
+        <v>0.02376264927546722</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01032383795152635</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02221777768516645</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01423219875974944</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05580660304761842</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.013993437216275</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.09018295790284836</v>
+        <v>0.05679267469132906</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01400727262617651</v>
+        <v>0.01402490274829269</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02226451520354562</v>
+        <v>0.09292384871512205</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01423219875974944</v>
+        <v>0.01395706196463768</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0230380125281716</v>
+        <v>0.02454022102450899</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01063475066968349</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02304367707478089</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01502287646862441</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05700877778303592</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01477085039495694</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.09277814549088409</v>
+        <v>0.05945652783196789</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01478545443874188</v>
+        <v>0.01480406401208673</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0230380125281716</v>
+        <v>0.09494861918364172</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01502287646862441</v>
+        <v>0.01473245429600643</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02353076633786684</v>
+        <v>0.02603526345713701</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01119447438914051</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.02378284214776616</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01581355417749937</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05812928113766833</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01554826357363889</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.09472895399764208</v>
+        <v>0.06089250934872364</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01556363625130724</v>
+        <v>0.01558322527588077</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02353076633786684</v>
+        <v>0.0975228522619575</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01581355417749937</v>
+        <v>0.01550784662737519</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02424064383031595</v>
+        <v>0.0276132065295282</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01175419810859754</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02433339721237321</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01660423188637434</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05986503805057672</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01632567675232083</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.09783384566331094</v>
+        <v>0.0623995412650708</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0163418180638726</v>
+        <v>0.0163623865396748</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02424064383031595</v>
+        <v>0.09984548037784396</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01660423188637434</v>
+        <v>0.01628323895874395</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02506551220320356</v>
+        <v>0.02922765574255712</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01231392182805456</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02529346657685304</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01739490959524931</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.06121297346082241</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01710308993100278</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.09959128272807893</v>
+        <v>0.06417654560448394</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01711999987643796</v>
+        <v>0.01714154780346884</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02506551220320356</v>
+        <v>0.1028154359590756</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01739490959524931</v>
+        <v>0.01705863129011271</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02590323865421425</v>
+        <v>0.0308322165970983</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01287364554751159</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02616117454945666</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01818558730412428</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06227001230746648</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01788050310968472</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1019997274321345</v>
+        <v>0.06592244439043746</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01789818168900333</v>
+        <v>0.01792070906726288</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02590323865421425</v>
+        <v>0.1049316514334265</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01818558730412428</v>
+        <v>0.01783402362148147</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02625169038103262</v>
+        <v>0.03238049459402628</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01343336926696861</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02663464543843504</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01897626501299925</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06373307952957016</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01865791628836667</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.104857642015666</v>
+        <v>0.06743615964640592</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01867636350156869</v>
+        <v>0.01869987033105692</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02625169038103262</v>
+        <v>0.1077930592286714</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01897626501299925</v>
+        <v>0.01860941595285023</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02720873458134326</v>
+        <v>0.03382609523421563</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01399309298642564</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02731200355203915</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01976694272187422</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06529910006619466</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01943532946704861</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.107963488718862</v>
+        <v>0.06881661339586376</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01945454531413405</v>
+        <v>0.01947903159485096</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02720873458134326</v>
+        <v>0.1092985917725849</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01976694272187422</v>
+        <v>0.01938480828421899</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0280722384528308</v>
+        <v>0.03512262401854091</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01455281670588267</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02819137319852001</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02055762043074918</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06726499885640116</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02021274264573056</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1097157297819106</v>
+        <v>0.07006272766228555</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02023272712669941</v>
+        <v>0.020258192858645</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0280722384528308</v>
+        <v>0.1126471814929411</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02055762043074918</v>
+        <v>0.02016020061558775</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02874006919317983</v>
+        <v>0.03622368644787659</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01511254042533969</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02887087868612859</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02134829813962416</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06792770083925079</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.0209901558244125</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1119128274450005</v>
+        <v>0.0717734244691457</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02101090893926478</v>
+        <v>0.02103735412243904</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02874006919317983</v>
+        <v>0.1136377608175145</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02134829813962416</v>
+        <v>0.02093559294695651</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02941009400007494</v>
+        <v>0.03676264927546721</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01544264822624553</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0297486443231159</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02213897584849912</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06988413095380483</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02176756900309445</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1145532439483199</v>
+        <v>0.07304762583991872</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02178909075183014</v>
+        <v>0.02181651538623307</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02941009400007494</v>
+        <v>0.1158692621740796</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02213897584849912</v>
+        <v>0.02171098527832527</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03038018007120075</v>
+        <v>0.03791512203209457</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01623198786425374</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0305227944177329</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.0229296535573741</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.07103121413912442</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02254498218177639</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1169354415320573</v>
+        <v>0.07488425379807914</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0225672725643955</v>
+        <v>0.02259567665002711</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03038018007120075</v>
+        <v>0.1187406179904109</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0229296535573741</v>
+        <v>0.02248637760969403</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03104819460424184</v>
+        <v>0.03869815703338063</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01679171158371077</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.03149145327823059</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02372033126624906</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07246587533427068</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02332239536045833</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1185578824364011</v>
+        <v>0.07678223036710144</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02334545437696086</v>
+        <v>0.02337483791382115</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03104819460424184</v>
+        <v>0.1211507606942827</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02372033126624906</v>
+        <v>0.02326176994106279</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03161200479688285</v>
+        <v>0.03945267780396938</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01735143530316779</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03215274521285998</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02451100897512403</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.0736850394783049</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02409980853914028</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1207190289015397</v>
+        <v>0.0772404775704601</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02412363618952622</v>
+        <v>0.02415399917761519</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03161200479688285</v>
+        <v>0.1227986227134695</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02451100897512403</v>
+        <v>0.02403716227243155</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03236947784680833</v>
+        <v>0.04017855648537831</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01791115902262482</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03280479452987203</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.025301686683999</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07538563151028829</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02487722171782222</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1234173431676614</v>
+        <v>0.07865791743162967</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02490181800209158</v>
+        <v>0.02493316044140923</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03236947784680833</v>
+        <v>0.1247831364757458</v>
       </c>
       <c r="O97" t="n">
-        <v>0.025301686683999</v>
+        <v>0.02481255460380031</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03331848095170289</v>
+        <v>0.04087566521912475</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01847088274208184</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03344572553751772</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02609236439287397</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.07646457636928189</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02565463489650417</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1242512874749547</v>
+        <v>0.08043347197408454</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02567999981465694</v>
+        <v>0.02571232170520327</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03331848095170289</v>
+        <v>0.126603234408886</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02609236439287397</v>
+        <v>0.02558794693516907</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03425688130925118</v>
+        <v>0.04154387614672614</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01903060646153887</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03447366254404807</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02688304210174894</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.07851879899434702</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02643204807518611</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.126819324063608</v>
+        <v>0.08156606322129922</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02645818162722231</v>
+        <v>0.02649148296899731</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03425688130925118</v>
+        <v>0.1283578489406645</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02688304210174894</v>
+        <v>0.02636333926653783</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03458254611713776</v>
+        <v>0.04218306140969991</v>
       </c>
       <c r="G100" t="n">
+        <v>0.01959033018099589</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03488672985771406</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02767371981062391</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.07984522432454483</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02720946125386806</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1285199151738097</v>
+        <v>0.08295461319674835</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02723636343978767</v>
+        <v>0.02727064423279135</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03458254611713776</v>
+        <v>0.1300459124988557</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02767371981062391</v>
+        <v>0.02713873159790659</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03549334257304723</v>
+        <v>0.04279309314956346</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02015005390045292</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.03558305178676666</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02846439751949887</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.0812407772989365</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02798687443255</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1304515230457481</v>
+        <v>0.08379804392390625</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02801454525235303</v>
+        <v>0.02804980549658538</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03549334257304723</v>
+        <v>0.1308663575112342</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02846439751949887</v>
+        <v>0.02791412392927535</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03628713787466423</v>
+        <v>0.04337384350783421</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02070977761990995</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03646075263945688</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02925507522837384</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.0818023828565832</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02876428761123194</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1318126099196119</v>
+        <v>0.08469527742624752</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02879272706491839</v>
+        <v>0.02882896676037942</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03628713787466423</v>
+        <v>0.1328181164055743</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02925507522837384</v>
+        <v>0.02868951626064411</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03706179921967331</v>
+        <v>0.04392518462602957</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02126950133936697</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03711795672403569</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03004575293724881</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.08292696593654611</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02954170078991389</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1339016380355891</v>
+        <v>0.0857452357272466</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02957090887748376</v>
+        <v>0.02960812802417346</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03706179921967331</v>
+        <v>0.1347001216096504</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03004575293724881</v>
+        <v>0.02946490859201287</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03751519380575909</v>
+        <v>0.04444698864566694</v>
       </c>
       <c r="G104" t="n">
+        <v>0.021829225058824</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03775278834875412</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03083643064612378</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.08441145147788653</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03031911396859583</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1350170696338683</v>
+        <v>0.08694684085037799</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03034909069004912</v>
+        <v>0.0303872892879675</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03751519380575909</v>
+        <v>0.1358113055512372</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03083643064612378</v>
+        <v>0.03024030092338163</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03814518883060621</v>
+        <v>0.04493912770826375</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02238894877828103</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03816337182186308</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03162710835499875</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.08615276441966552</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03109652714727778</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.136957366954638</v>
+        <v>0.08809901481911617</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03112727250261448</v>
+        <v>0.03116645055176153</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03814518883060621</v>
+        <v>0.1364506006581087</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03162710835499875</v>
+        <v>0.03101569325475039</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0387496514918992</v>
+        <v>0.04540147395533742</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02294867249773805</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03894783145161364</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03241778606387372</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.08724782970094433</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03187394032595972</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1370209922380864</v>
+        <v>0.08850067965693567</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03190545431517984</v>
+        <v>0.03194561181555557</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0387496514918992</v>
+        <v>0.1378169393580397</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03241778606387372</v>
+        <v>0.03179108558611915</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03912644898732273</v>
+        <v>0.04583389952840532</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02350839621719507</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03950429154625673</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03320846377274869</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.08779357226078408</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03265135350464167</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1387064077244021</v>
+        <v>0.08985075738731096</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03268363612774521</v>
+        <v>0.03272477307934961</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03912644898732273</v>
+        <v>0.1388092540788045</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03320846377274869</v>
+        <v>0.03256647791748791</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04007344851456136</v>
+        <v>0.04623627656898491</v>
       </c>
       <c r="G108" t="n">
+        <v>0.0240681199366521</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.04023087641404341</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03399914148162366</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.08888691703824603</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03342876668332361</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1406120756537733</v>
+        <v>0.09034817003371656</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03346181794031057</v>
+        <v>0.03350393434314365</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04007344851456136</v>
+        <v>0.1411264772481776</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03399914148162366</v>
+        <v>0.03334187024885667</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04048851727129969</v>
+        <v>0.0466084772185936</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02462784365610913</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04052571036322457</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03478981919049862</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.08932478897239135</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03420617986200555</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1417364582663886</v>
+        <v>0.09079183961962689</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03423999975287593</v>
+        <v>0.03428309560693769</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04048851727129969</v>
+        <v>0.1423675412939334</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03478981919049862</v>
+        <v>0.03411726258022543</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04076952245522236</v>
+        <v>0.04695037361874876</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02518756737556615</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04118691770205128</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03558049689937359</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.09110411300228125</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.0349835930406875</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1416780178024362</v>
+        <v>0.09168068816851652</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03501818156544129</v>
+        <v>0.03506225687073173</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04076952245522236</v>
+        <v>0.1421313786438462</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03558049689937359</v>
+        <v>0.03489265491159418</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04121433126401394</v>
+        <v>0.04726183791096784</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02574729109502318</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04131262273877448</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03637117460824856</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.09132181406697679</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03576100621936944</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1427352165021047</v>
+        <v>0.09211363770386</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03579636337800665</v>
+        <v>0.03584141813452577</v>
       </c>
       <c r="N111" t="n">
-        <v>0.04121433126401394</v>
+        <v>0.1436169217256907</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03637117460824856</v>
+        <v>0.03566804724296294</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04172081089535903</v>
+        <v>0.04754274223676823</v>
       </c>
       <c r="G112" t="n">
+        <v>0.0263070148144802</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04200094978164519</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03716185231712353</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.09217481710553932</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03653841939805139</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1436065166055824</v>
+        <v>0.09278961024913168</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03657454519057202</v>
+        <v>0.03662057939831981</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04172081089535903</v>
+        <v>0.1440231029672412</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03716185231712353</v>
+        <v>0.0364434395743317</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04218682854694224</v>
+        <v>0.04779689699124196</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02686673853393723</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.04215002313891435</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.0379525300259985</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.09296004705703001</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03731583257673333</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1446903803530576</v>
+        <v>0.09380752782780613</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03735272700313737</v>
+        <v>0.03739974066211384</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04218682854694224</v>
+        <v>0.1454488547962722</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0379525300259985</v>
+        <v>0.03721883190570047</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04241025141644818</v>
+        <v>0.04804528902659841</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02742646225339426</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04255796711883303</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03874320773487347</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.0935744288605099</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03809324575541528</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1451852699847189</v>
+        <v>0.09456631246335778</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03813090881570274</v>
+        <v>0.03817890192590788</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04241025141644818</v>
+        <v>0.145793109640558</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03874320773487347</v>
+        <v>0.03799422423706923</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04288894670156145</v>
+        <v>0.04829095442731449</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02798618597285128</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04282290602965214</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03953388544374844</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.09361488745504037</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03887065893409723</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1459896477407545</v>
+        <v>0.09456488617926123</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0389090906282681</v>
+        <v>0.03895806318970192</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04288894670156145</v>
+        <v>0.1462547999278732</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03953388544374844</v>
+        <v>0.03876961656843798</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04272078159996663</v>
+        <v>0.04853380462399215</v>
       </c>
       <c r="G116" t="n">
+        <v>0.0285459096923083</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04274296417962273</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.0403245631526234</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.09487834777968249</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03964807211277917</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1463019758613531</v>
+        <v>0.09490217099899087</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03968727244083346</v>
+        <v>0.03973722445349596</v>
       </c>
       <c r="N116" t="n">
-        <v>0.04272078159996663</v>
+        <v>0.146032858085992</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0403245631526234</v>
+        <v>0.03954500889980674</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04320362330934834</v>
+        <v>0.04877375104723332</v>
       </c>
       <c r="G117" t="n">
+        <v>0.02910563341176533</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.04331626587699572</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04111524086149837</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.0945617347734975</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04042548529146112</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1477207165867028</v>
+        <v>0.09547708894602133</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04046545425339882</v>
+        <v>0.04051638571729</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04320362330934834</v>
+        <v>0.1474262165426891</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04111524086149837</v>
+        <v>0.04032040123117551</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04303533902739116</v>
+        <v>0.0490107051276399</v>
       </c>
       <c r="G118" t="n">
+        <v>0.02966535713122236</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.04314093543002219</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04190591857037335</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.0948619733755465</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04120289847014305</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1472443321569921</v>
+        <v>0.09518856204382697</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04124363606596419</v>
+        <v>0.04129554698108404</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04303533902739116</v>
+        <v>0.1478338077257388</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04190591857037335</v>
+        <v>0.04109579356254426</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04924457829581384</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03022508085067938</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.04353710955240848</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04269659627924832</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.09547598852489075</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.041980311648825</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1480712848124095</v>
+        <v>0.09553551231588228</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04202181787852955</v>
+        <v>0.04207470824487808</v>
       </c>
       <c r="N119" t="n">
-        <v>0.04353710955240848</v>
+        <v>0.1474545640629157</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04269659627924832</v>
+        <v>0.04187118589391302</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04353708337344156</v>
+        <v>0.04947528198235711</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03078480457013641</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04313703169858714</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04348727398812328</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.09603420827424403</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.04275772482750694</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04285386950867211</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1485313069960795</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04279999969109491</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.04353708337344156</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04348727398812328</v>
+        <v>0.04264657822528178</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04343353058251785</v>
+        <v>0.0497027276178716</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03134452828959343</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.04332652074331242</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04427795169699825</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.09543412647421221</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04353513800618889</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1477309387400969</v>
+        <v>0.09533227898090305</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04357818150366027</v>
+        <v>0.04363303077246615</v>
       </c>
       <c r="N121" t="n">
-        <v>0.04343353058251785</v>
+        <v>0.1478313032672152</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04427795169699825</v>
+        <v>0.04342197055665054</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04352411786233916</v>
+        <v>0.04992682663295925</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03190425200905046</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04349887473779353</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04506862940587322</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.09532971590889966</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04431255118487083</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1482192601399953</v>
+        <v>0.09569483113974744</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04435636331622563</v>
+        <v>0.04441219203626019</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04352411786233916</v>
+        <v>0.1473980182848523</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04506862940587322</v>
+        <v>0.0441973628880193</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04310902577904603</v>
+        <v>0.050147490458222</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03246397572850748</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04325490546515114</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04585930711474819</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.09561855263365468</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04508996436355278</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1478913340767534</v>
+        <v>0.09591134564348958</v>
       </c>
       <c r="M123" t="n">
-        <v>0.045134545128791</v>
+        <v>0.04519135330005423</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04310902577904603</v>
+        <v>0.1478012283414444</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04585930711474819</v>
+        <v>0.04497275521938806</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04328843489877904</v>
+        <v>0.05036463052426178</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03302369944796451</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04339542470850599</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04664998482362315</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.09530059606105284</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04586737754223472</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1476473745013809</v>
+        <v>0.09508407083583087</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04591272694135635</v>
+        <v>0.04597051456384826</v>
       </c>
       <c r="N124" t="n">
-        <v>0.04328843489877904</v>
+        <v>0.147743426108868</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04664998482362315</v>
+        <v>0.04574814755075682</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04336252578767873</v>
+        <v>0.05057815826168052</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03358342316742154</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04302124425097879</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04744066253249812</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.09517580560366976</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04664479072091667</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1480875953648877</v>
+        <v>0.09511525506047269</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04669090875392172</v>
+        <v>0.04674967582764231</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04336252578767873</v>
+        <v>0.1476271042589997</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04744066253249812</v>
+        <v>0.04652353988212558</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04313147901188566</v>
+        <v>0.05078798510108015</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03414314688687856</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04283317587569024</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04823134024137309</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.0950441406740809</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04742220389959861</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1469122106182836</v>
+        <v>0.09450714666111645</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04746909056648708</v>
+        <v>0.04752883709143634</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04313147901188566</v>
+        <v>0.1472547554637159</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04823134024137309</v>
+        <v>0.04729893221349434</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04299547513754039</v>
+        <v>0.05099402247306259</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03470287060633558</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04273203136576108</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04902201795024806</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.09580556068486198</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04819961707828056</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1471214342125782</v>
+        <v>0.09516199398146355</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04824727237905244</v>
+        <v>0.04830799835523038</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04299547513754039</v>
+        <v>0.1468288723948931</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04902201795024806</v>
+        <v>0.0480743245448631</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04295469473078346</v>
+        <v>0.05119618180822982</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03526259432579262</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04301862250431199</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04981269565912303</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.09516002504858845</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.0489770302569625</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1475154800987813</v>
+        <v>0.09408204536521539</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0490254541916178</v>
+        <v>0.04908715961902441</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04295469473078346</v>
+        <v>0.1461519477244078</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04981269565912303</v>
+        <v>0.04884971687623186</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04330931835775548</v>
+        <v>0.05139437453718373</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03582231804524964</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0426937610744637</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.050603373367998</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.09570749317783597</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04975444343564445</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1467945622279027</v>
+        <v>0.09416954915607334</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04980363600418317</v>
+        <v>0.04986632088281846</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04330931835775548</v>
+        <v>0.1462264741241366</v>
       </c>
       <c r="O129" t="n">
-        <v>0.050603373367998</v>
+        <v>0.04962510920760062</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04315952658459696</v>
+        <v>0.05158851209052626</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03638204176470666</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04265825885933693</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05139405107687297</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.09564792448518006</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05053185661432639</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1469588945509521</v>
+        <v>0.09372675369773883</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05058181781674853</v>
+        <v>0.0506454821466125</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04315952658459696</v>
+        <v>0.1458549442659558</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05139405107687297</v>
+        <v>0.05040050153896938</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04300549997744847</v>
+        <v>0.05177850589885935</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03694176548416369</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04251292764205238</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05218472878574793</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.09548127838319634</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05130926979300834</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1469086910189393</v>
+        <v>0.09375590733391326</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05135999962931389</v>
+        <v>0.05142464341040653</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04300549997744847</v>
+        <v>0.144739850821742</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05218472878574793</v>
+        <v>0.05117589387033814</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04294741910245058</v>
+        <v>0.05196426739278492</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03750148920362071</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04205857920573078</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.0529754064946229</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.09520751428446037</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05208668297169028</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.147144165582874</v>
+        <v>0.09305925840829796</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05213818144187925</v>
+        <v>0.05220380467420058</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04294741910245058</v>
+        <v>0.1445836864633717</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0529754064946229</v>
+        <v>0.0519512862017069</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04288546452574384</v>
+        <v>0.05214570800290493</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03806121292307774</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04189602533349282</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05376608420349788</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.09502659160154772</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05286409615037222</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.146665532193766</v>
+        <v>0.09273905526459442</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05291636325444462</v>
+        <v>0.05298296593799461</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04288546452574384</v>
+        <v>0.1442889438627214</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05376608420349788</v>
+        <v>0.05272667853307566</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0428198168134688</v>
+        <v>0.05232273915982126</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03862093664253476</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04192607780845921</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05455676191237285</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.09463846974703399</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05364150932905416</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.146573004802625</v>
+        <v>0.09259754624650396</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05369454506700997</v>
+        <v>0.05376212720178866</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0428198168134688</v>
+        <v>0.1430581156916676</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05455676191237285</v>
+        <v>0.05350207086444442</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04275065653176605</v>
+        <v>0.05249527229413589</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03918066036199179</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04154954841375071</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05534743962124782</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.09524310813349474</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05441892250773611</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1468667973604609</v>
+        <v>0.09173697969772801</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05447272687957534</v>
+        <v>0.05454128846558269</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04275065653176605</v>
+        <v>0.1427936946220867</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05534743962124782</v>
+        <v>0.05427746319581318</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04267816424677609</v>
+        <v>0.05266321883645074</v>
       </c>
       <c r="G136" t="n">
+        <v>0.03974038408144882</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04156724893248796</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05613811733012278</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.09464046617350552</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05519633568641805</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1461471238182832</v>
+        <v>0.09085960396196802</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0552509086921407</v>
+        <v>0.05532044972937672</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04267816424677609</v>
+        <v>0.1412981733258553</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05613811733012278</v>
+        <v>0.05505285552718193</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04240252052463954</v>
+        <v>0.05282649021736777</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04030010780090584</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04147999114779174</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05692879503899775</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.09423050327964194</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.0559737488651</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1462141981271018</v>
+        <v>0.09066766738292528</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05602909050470606</v>
+        <v>0.05609961099317076</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04240252052463954</v>
+        <v>0.1412740444748498</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05692879503899775</v>
+        <v>0.0558282478585507</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04232390593149692</v>
+        <v>0.05298499786748885</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04085983152036286</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04118858684278273</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05771947274787272</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.09441317886447959</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05675116204378194</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1449682342379265</v>
+        <v>0.08996341830430124</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05680727231727143</v>
+        <v>0.0568787722569648</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04232390593149692</v>
+        <v>0.1407238007409467</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05771947274787272</v>
+        <v>0.05660364018991946</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04244250103348879</v>
+        <v>0.05313865321741595</v>
       </c>
       <c r="G139" t="n">
+        <v>0.0414195552398199</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04079384780058166</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05851015045674769</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.09398845234059397</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05752857522246389</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.145109446101767</v>
+        <v>0.08934910506979732</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05758545412983679</v>
+        <v>0.05765793352075885</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04244250103348879</v>
+        <v>0.1391499347960226</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05851015045674769</v>
+        <v>0.05737903252128821</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04225848639675572</v>
+        <v>0.05328736769775098</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04197927895927692</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04059658580430923</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05930082816562265</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.09425628312056078</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05830598840114583</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.144838047669633</v>
+        <v>0.08882697602311487</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05836363594240215</v>
+        <v>0.05843709478455288</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04225848639675572</v>
+        <v>0.1383549393119539</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05930082816562265</v>
+        <v>0.05815442485265698</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04207204258743827</v>
+        <v>0.05343105273909592</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04253900267873394</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04079761263708616</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06009150587449762</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.09421663061695548</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05908340157982778</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1448542528925345</v>
+        <v>0.08909927950795535</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05914181775496751</v>
+        <v>0.05921625604834692</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04207204258743827</v>
+        <v>0.1379413069606171</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06009150587449762</v>
+        <v>0.05892981718402573</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04228335017167699</v>
+        <v>0.05356961977205266</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04309872639819097</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04029774008203314</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06088218358337259</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.09366945424235373</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05986081475850973</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1442582757214808</v>
+        <v>0.08846826386802009</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05991999956753287</v>
+        <v>0.05999541731214095</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04228335017167699</v>
+        <v>0.1365115304138887</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06088218358337259</v>
+        <v>0.0597052095153945</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04199258971561246</v>
+        <v>0.05370298022722315</v>
       </c>
       <c r="G143" t="n">
+        <v>0.043658450117648</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04009777992227093</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06167286129224756</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.09361471340933103</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06063822793719167</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.144250330107482</v>
+        <v>0.08793617744701052</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06069818138009824</v>
+        <v>0.060774578575935</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04199258971561246</v>
+        <v>0.1360681023436452</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06167286129224756</v>
+        <v>0.06048060184676325</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04189994178538518</v>
+        <v>0.0538310455352093</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04421817383710502</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.04019854394092018</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06246353900112254</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.09345236753046304</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06141564111587362</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1435306300015478</v>
+        <v>0.08750526858862803</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0614763631926636</v>
+        <v>0.06155373983972903</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04189994178538518</v>
+        <v>0.1360135154217632</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06246353900112254</v>
+        <v>0.06125599417813202</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04190558694713577</v>
+        <v>0.05395372712661309</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04477789755656205</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03960084392110166</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06325421670999749</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.09318237601832527</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06219305429455555</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1429993893546879</v>
+        <v>0.08647778563657402</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06225454500522896</v>
+        <v>0.06233290110352307</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04190558694713577</v>
+        <v>0.134050262320119</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06325421670999749</v>
+        <v>0.06203138650950078</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04200970576700477</v>
+        <v>0.05407093643203641</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04533762127601907</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03960549164593606</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06404489441887247</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.09350469828549332</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06297046747323749</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.143756822117912</v>
+        <v>0.08595597693454987</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06303272681779433</v>
+        <v>0.0631120623673171</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04200970576700477</v>
+        <v>0.1330808357105892</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06404489441887247</v>
+        <v>0.06280677884086953</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04151247881113272</v>
+        <v>0.05418258488208118</v>
       </c>
       <c r="G147" t="n">
+        <v>0.0458973449954761</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03931329889854411</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06483557212774743</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.09301929374454279</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06374788065191944</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.14260314224223</v>
+        <v>0.08594209082625701</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06381090863035968</v>
+        <v>0.06389122363111115</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04151247881113272</v>
+        <v>0.1323077282650503</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06483557212774743</v>
+        <v>0.0635821711722383</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04181408664566021</v>
+        <v>0.05428858390734939</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04645706871493312</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03902507746204648</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06562624983662241</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.09332612180804919</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06452529383060139</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1419385636786515</v>
+        <v>0.08503837565539679</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06458909044292505</v>
+        <v>0.06467038489490519</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04181408664566021</v>
+        <v>0.1323334326553787</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06562624983662241</v>
+        <v>0.06435756350360705</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04141470983672776</v>
+        <v>0.05438884493844294</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04701679243439014</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03904163911956393</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06641692754549737</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.09272514188858816</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06530270700928334</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1424633003781863</v>
+        <v>0.08404707976567066</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06536727225549041</v>
+        <v>0.06544954615869922</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04141470983672776</v>
+        <v>0.130660441553451</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06641692754549737</v>
+        <v>0.06513295583497582</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04131452895047595</v>
+        <v>0.05448327940596373</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04757651615384718</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03886379565421713</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06720760525437235</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.09301631339873523</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06608012018796527</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1418775662918443</v>
+        <v>0.08367045150078001</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06614545406805576</v>
+        <v>0.06622870742249326</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04131452895047595</v>
+        <v>0.1295912476311436</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06720760525437235</v>
+        <v>0.06590834816634457</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04151372455304533</v>
+        <v>0.05457179874051375</v>
       </c>
       <c r="G151" t="n">
+        <v>0.0481362398733042</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03869235884912685</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06799828296324732</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.09239959575106602</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06685753336664722</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1407815753706351</v>
+        <v>0.0832107392044262</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06692363588062114</v>
+        <v>0.0670078686862873</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04151372455304533</v>
+        <v>0.1294283435603331</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06799828296324732</v>
+        <v>0.06668374049771333</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04141247721057649</v>
+        <v>0.0546543143726949</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04869596359276122</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03842814048741376</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06878896067212227</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.09247494835815609</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06763494654532916</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1407755415655684</v>
+        <v>0.08347019122031063</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06770181769318649</v>
+        <v>0.06778702995008135</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04141247721057649</v>
+        <v>0.1282742220128959</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06878896067212227</v>
+        <v>0.06745913282908209</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04091096748920994</v>
+        <v>0.05473073773310913</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04925568731221825</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03847195235219857</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06957963838099725</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.091942330632581</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06841235972401111</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1400596788276541</v>
+        <v>0.08295105589213472</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06847999950575186</v>
+        <v>0.06856619121387537</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04091096748920994</v>
+        <v>0.1274313756607086</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06957963838099725</v>
+        <v>0.06823452516045085</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04100937595508626</v>
+        <v>0.05480098025235834</v>
       </c>
       <c r="G154" t="n">
+        <v>0.04981541103167528</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03832460622660201</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07037031608987221</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.09130170198691637</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06918977290269306</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1400342011079019</v>
+        <v>0.08205558156359988</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06925818131831722</v>
+        <v>0.06934535247766942</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04100937595508626</v>
+        <v>0.1275022971756475</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07037031608987221</v>
+        <v>0.06900991749181962</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04090788317434602</v>
+        <v>0.05486495336104452</v>
       </c>
       <c r="G155" t="n">
+        <v>0.0503751347511323</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0380869138937448</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07116099379874719</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.09095302183373771</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06996718608137499</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1397993223573215</v>
+        <v>0.08198601657840748</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07003636313088257</v>
+        <v>0.07012451374146346</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04090788317434602</v>
+        <v>0.1266894792295893</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07116099379874719</v>
+        <v>0.06978530982318837</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04090666971312974</v>
+        <v>0.05492256848976954</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05093485847058933</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03785968713674764</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07195167150762216</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.09079624958562066</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07074459926005694</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1397552565269227</v>
+        <v>0.08204460928025892</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07081454494344794</v>
+        <v>0.0709036750052575</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04090666971312974</v>
+        <v>0.1249954144944104</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07195167150762216</v>
+        <v>0.07056070215455713</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04090591613757803</v>
+        <v>0.05497373706913536</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05149458219004635</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03774373773873124</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07274234921649712</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.09073134465514077</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07152201243873889</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1388022175677153</v>
+        <v>0.08083360801285561</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0715927267560133</v>
+        <v>0.07168283626905153</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04090591613757803</v>
+        <v>0.1242225956419872</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07274234921649712</v>
+        <v>0.07133609448592589</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04040580301383143</v>
+        <v>0.05501837052974391</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05205430590950338</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03753703806572516</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.0735330269253721</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.0901582664548736</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07229942561742084</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.138640419430709</v>
+        <v>0.08054738444276358</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07237090856857867</v>
+        <v>0.07246199753284557</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04040580301383143</v>
+        <v>0.1238579181572954</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0735330269253721</v>
+        <v>0.07211148681729465</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04070651090803047</v>
+        <v>0.05505638030219714</v>
       </c>
       <c r="G159" t="n">
+        <v>0.0526140296289604</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03783489713892574</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07432370463424706</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.09047697439739474</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07307683879610277</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1383700760669135</v>
+        <v>0.08097290309632879</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07314909038114403</v>
+        <v>0.07324115879663962</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04070651090803047</v>
+        <v>0.1223769149661928</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07432370463424706</v>
+        <v>0.0728868791486634</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04040822038631574</v>
+        <v>0.05508767781709693</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05317375334841743</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0374369397303165</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07511438234312202</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.08988742789527976</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07385425197478472</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1376914014273386</v>
+        <v>0.08010918814131951</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07392727219370938</v>
+        <v>0.07402032006043364</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04040822038631574</v>
+        <v>0.1224799572539682</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07511438234312202</v>
+        <v>0.07366227148003217</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04021089479988273</v>
+        <v>0.0551121745050453</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05373347706787445</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03754286998863601</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.075905060051997</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.08958958636110428</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07463166515346667</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1362046094629941</v>
+        <v>0.08065548905113729</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07470545400627475</v>
+        <v>0.07479948132422769</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04021089479988273</v>
+        <v>0.1219678086717052</v>
       </c>
       <c r="O161" t="n">
-        <v>0.075905060051997</v>
+        <v>0.07443766381140093</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04001290521249323</v>
+        <v>0.05512978179664409</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05429320078733148</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03745239206262291</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07669573776087196</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.08978340920744382</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.0754090783321486</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1365099141248897</v>
+        <v>0.08031105529918375</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07548363581884011</v>
+        <v>0.07557864258802172</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04001290521249323</v>
+        <v>0.1202412328704874</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07669573776087196</v>
+        <v>0.07521305614276969</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04001378308706663</v>
+        <v>0.05514041112249531</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05485292450678851</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03726521010101579</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07748641546974694</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.08956885584687396</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07618649151083055</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1352075293640351</v>
+        <v>0.07937513635886048</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07626181763140548</v>
+        <v>0.07635780385181576</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04001378308706663</v>
+        <v>0.1191009935013984</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07748641546974694</v>
+        <v>0.07598844847413845</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04021340795820516</v>
+        <v>0.05514397391320082</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05541264822624553</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03708102825255329</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.0782770931786219</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.08844588569197032</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07696390468951249</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1345976691314402</v>
+        <v>0.07974698170356903</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07703999944397083</v>
+        <v>0.0771369651156098</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04021340795820516</v>
+        <v>0.1192478542155216</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0782770931786219</v>
+        <v>0.0767638408055072</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03991165936051107</v>
+        <v>0.05514397391320082</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05541264822624553</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03699955066597399</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07906777088749688</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.08821445815530843</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07774131786819445</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1345805473781146</v>
+        <v>0.07952584080671102</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07781818125653621</v>
+        <v>0.07791612637940384</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03991165936051107</v>
+        <v>0.1172825786639408</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07906777088749688</v>
+        <v>0.07753923313687597</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03990841682858665</v>
+        <v>0.05422818383788601</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05541237969778151</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03722048149001653</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07985844859637185</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.08827453264946392</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07851873104687639</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1349563780550683</v>
+        <v>0.07921096314168805</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07859636306910156</v>
+        <v>0.07869528764319787</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03990841682858665</v>
+        <v>0.1172059304977395</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07985844859637185</v>
+        <v>0.07831462546824472</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0397035598970341</v>
+        <v>0.05332252137460124</v>
       </c>
       <c r="G167" t="n">
+        <v>0.0554121111693175</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03674352487341953</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.0806491263052468</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.08752606858701226</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07929614422555833</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1340253751133107</v>
+        <v>0.07920159818190167</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07937454488166691</v>
+        <v>0.07947444890699192</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0397035598970341</v>
+        <v>0.1156186733680013</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0806491263052468</v>
+        <v>0.07909001779961349</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03949696810045572</v>
+        <v>0.05242743799576828</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05541184264085347</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03696838496492157</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08143980401412178</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.08746902538052914</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08007355740424027</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1329877525038518</v>
+        <v>0.07909699540075354</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08015272669423229</v>
+        <v>0.08025361017078596</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03949696810045572</v>
+        <v>0.1158215709258097</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08143980401412178</v>
+        <v>0.07986541013098225</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03958852097345371</v>
+        <v>0.0515433851739255</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05541157411238946</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.0368947659132613</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08223048172299674</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.08690336244259012</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08085097058292223</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1320437241777012</v>
+        <v>0.07799640427164517</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08093090850679764</v>
+        <v>0.08103277143458</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03958852097345371</v>
+        <v>0.1141153868222485</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08223048172299674</v>
+        <v>0.08064080246235102</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03957809805063037</v>
+        <v>0.05067081438149422</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05541130558392544</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03692237186717731</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08302115943187172</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.08642903918577072</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08162838376160417</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1314935040858688</v>
+        <v>0.07829907426797819</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08170909031936302</v>
+        <v>0.08181193269837403</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03957809805063037</v>
+        <v>0.1135008847084009</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08302115943187172</v>
+        <v>0.08141619479371977</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03906557886658793</v>
+        <v>0.0498101770909349</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05541103705546143</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03645090697540823</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08381183714074669</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.08614601502264657</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.0824057969402861</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1312347310874389</v>
+        <v>0.07770425486315419</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08248727213192837</v>
+        <v>0.08259109396216807</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03906557886658793</v>
+        <v>0.1117788282353508</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08381183714074669</v>
+        <v>0.08219158712508852</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03905084295592863</v>
+        <v>0.04896192477467137</v>
       </c>
       <c r="G172" t="n">
+        <v>0.0554107685269974</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03658007538669265</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08460251484962165</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.08575424936579323</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08318321011896805</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1306873654381259</v>
+        <v>0.07821119553057479</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08326545394449374</v>
+        <v>0.08337025522596211</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03905084295592863</v>
+        <v>0.1114499810541816</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08460251484962165</v>
+        <v>0.08296697945645728</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03883376985325473</v>
+        <v>0.04812650890523795</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05541049999853339</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03660958124976924</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08539319255849663</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.08595370162778623</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08396062329765</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1302200231672609</v>
+        <v>0.07741914574364148</v>
       </c>
       <c r="M173" t="n">
-        <v>0.0840436357570591</v>
+        <v>0.08414941648975616</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03883376985325473</v>
+        <v>0.1110151068159771</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08539319255849663</v>
+        <v>0.08374237178782604</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03871423909316853</v>
+        <v>0.04730438095505797</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05541023147006938</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03653912871337654</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08618387026737159</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.0850219457482127</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08473803647633195</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1291417275526655</v>
+        <v>0.07702735497575594</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08482181756962445</v>
+        <v>0.08492857775355019</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03871423909316853</v>
+        <v>0.1099749691718206</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08618387026737159</v>
+        <v>0.0845177641191948</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0388921302102722</v>
+        <v>0.04649599239659187</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05540996294160536</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0365684219262532</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08697454797624656</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.08466228780281149</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08551544965501388</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1287615018721619</v>
+        <v>0.07723507270031973</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08559999938218982</v>
+        <v>0.08570773901734423</v>
       </c>
       <c r="N175" t="n">
-        <v>0.0388921302102722</v>
+        <v>0.1085303317727959</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08697454797624656</v>
+        <v>0.08529315645056357</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03886732273916806</v>
+        <v>0.04570179470226585</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05540969441314134</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03639716503713784</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08776522568512153</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.08332939972388584</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08629286283369583</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1277883694035716</v>
+        <v>0.07724154839073444</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08637818119475518</v>
+        <v>0.08648690028113826</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03886732273916806</v>
+        <v>0.1083819582699864</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08776522568512153</v>
+        <v>0.08606854878193233</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0387396962144583</v>
+        <v>0.04492223934460957</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05540942588467732</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03642506219476907</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08855590339399649</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.0814840057976792</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08707027601237778</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1262313534247166</v>
+        <v>0.07724603152040163</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08715636300732055</v>
+        <v>0.0872660615449323</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0387396962144583</v>
+        <v>0.1075306123144759</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08855590339399649</v>
+        <v>0.08684394111330108</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03840913017074521</v>
+        <v>0.04415777779604864</v>
       </c>
       <c r="G178" t="n">
+        <v>0.0554091573562133</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03635181754788548</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08934658110287147</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.07978683031043488</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08784768919105972</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1249994772134188</v>
+        <v>0.07624777156272294</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0879345448198859</v>
+        <v>0.08804522280872634</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03840913017074521</v>
+        <v>0.1063770575573477</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08934658110287147</v>
+        <v>0.08761933344466984</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03817550414263106</v>
+        <v>0.04340886152904348</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05540888882774929</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03627713524522572</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09013725881174643</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.07829859754839627</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08862510236974167</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1235017640475</v>
+        <v>0.07654601799109989</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08871272663245126</v>
+        <v>0.08882438407252037</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03817550414263106</v>
+        <v>0.1047220576496856</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09013725881174643</v>
+        <v>0.0883947257760386</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03793869766471807</v>
+        <v>0.04267594201602309</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05540862029928526</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03590071943552839</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09092793652062141</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.07598003179780671</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0894025155484236</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1215472372047818</v>
+        <v>0.07644002027893418</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08949090844501663</v>
+        <v>0.08960354533631441</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03793869766471807</v>
+        <v>0.1032663762425731</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09092793652062141</v>
+        <v>0.08917011810740735</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03779859027160849</v>
+        <v>0.04195947072951171</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05540835177082125</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03592227426753206</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09171861422949638</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.07419185734490946</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09017992872710556</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1204449199630865</v>
+        <v>0.07582902789962731</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09026909025758199</v>
+        <v>0.09038270660010846</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03779859027160849</v>
+        <v>0.1033107769870938</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09171861422949638</v>
+        <v>0.08994551043877612</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0377550614979046</v>
+        <v>0.04125989914193759</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05540808324235724</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03604150388997543</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09250929193837133</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.07149479847594797</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.0909573419057875</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1198038356002356</v>
+        <v>0.07561229032658084</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09104727207014736</v>
+        <v>0.0911618678639025</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0377550614979046</v>
+        <v>0.1024560235343313</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09250929193837133</v>
+        <v>0.09072090277014488</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03790799087820861</v>
+        <v>0.04057767872576118</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05540781471389322</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03585811245159704</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09329996964724631</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.07004957947716556</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09173475508446945</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1173330073940511</v>
+        <v>0.07538905703319648</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09182545388271271</v>
+        <v>0.09194102912769653</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03790799087820861</v>
+        <v>0.1012028795353691</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09329996964724631</v>
+        <v>0.09149629510151365</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03745725794712283</v>
+        <v>0.03991326095341446</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05540754618542919</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03587180410113555</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09409064735612127</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.06831692463480554</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09251216826315138</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1164414586223547</v>
+        <v>0.07585857749287575</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09260363569527807</v>
+        <v>0.09272019039149057</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03745725794712283</v>
+        <v>0.1004521086412908</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09409064735612127</v>
+        <v>0.0922716874328824</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03740274223924946</v>
+        <v>0.03926709729741575</v>
       </c>
       <c r="G185" t="n">
+        <v>0.05540727765696518</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03578228298732955</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09488132506499625</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.06655755823511136</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09328958144183333</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1146382125629684</v>
+        <v>0.07562010117902021</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09338181750784344</v>
+        <v>0.09349935165528461</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03740274223924946</v>
+        <v>0.09960447450318</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09488132506499625</v>
+        <v>0.09304707976425115</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03724432328919075</v>
+        <v>0.0386396392301962</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05540700912850117</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03568925325891766</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09567200277387122</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.06513220456432622</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09406699462051528</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1138322924937141</v>
+        <v>0.07447287756503146</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09415999932040879</v>
+        <v>0.09427851291907866</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03724432328919075</v>
+        <v>0.09806074077212035</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09567200277387122</v>
+        <v>0.09382247209561992</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03688188063154901</v>
+        <v>0.03803133822421631</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05540674060003715</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03539241906463848</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09646268048274619</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.06320158790869362</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09484440779919721</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1120327216924134</v>
+        <v>0.07451615612431117</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09493818113297417</v>
+        <v>0.09505767418287268</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03688188063154901</v>
+        <v>0.09782167109919537</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09646268048274619</v>
+        <v>0.09459786442698867</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03681529380092644</v>
+        <v>0.03744264575191135</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05540647207157313</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03519148455323068</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09725335819162116</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.06251948316703959</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09562182097787916</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1103485234368883</v>
+        <v>0.0743491863302608</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09571636294553952</v>
+        <v>0.09583683544666673</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03681529380092644</v>
+        <v>0.09628802913548856</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09725335819162116</v>
+        <v>0.09537325675835744</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03674444233192528</v>
+        <v>0.03687401328579307</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05540620354310911</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03498615387343279</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09804403590049612</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.06178491213768775</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09639923415656111</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1085887210049605</v>
+        <v>0.07377121765628206</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09649454475810489</v>
+        <v>0.09661599671046077</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03674444233192528</v>
+        <v>0.09536057853208368</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09804403590049612</v>
+        <v>0.0961486490897262</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03666920575914784</v>
+        <v>0.03632404878574874</v>
       </c>
       <c r="G190" t="n">
+        <v>0.0554059350146451</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03497613117398347</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09883471360937109</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.06078033820525242</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09717664733524306</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1080623376744522</v>
+        <v>0.07338149957577642</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09727272657067025</v>
+        <v>0.0973951579742548</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03666920575914784</v>
+        <v>0.09474008294006409</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09883471360937109</v>
+        <v>0.09692404142109497</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03658946361719632</v>
+        <v>0.03578214264895713</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05540566648618108</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03506112060362132</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09962539131824606</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.06030459155474654</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.097954060513925</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1066783967231848</v>
+        <v>0.07337928156214557</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0980509083832356</v>
+        <v>0.09817431923804883</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03658946361719632</v>
+        <v>0.09312730601051356</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09962539131824606</v>
+        <v>0.09769943375246372</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03630509544067299</v>
+        <v>0.03524690283530876</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05540539795771706</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03464082631108498</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.100416069027121</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.05985650237118298</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09873147369260694</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1044459214289805</v>
+        <v>0.07306381308879106</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09882909019580098</v>
+        <v>0.09895348050184287</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03630509544067299</v>
+        <v>0.09342301139451553</v>
       </c>
       <c r="O192" t="n">
-        <v>0.100416069027121</v>
+        <v>0.09847482608383248</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03601598076418014</v>
+        <v>0.0347187808173107</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05540512942925304</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.03461190720862206</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.101206746735996</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.05953490083957477</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09950888687128889</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1031739350696608</v>
+        <v>0.07313084420882185</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09960727200836633</v>
+        <v>0.09973264176563691</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03601598076418014</v>
+        <v>0.09191030940260236</v>
       </c>
       <c r="O193" t="n">
-        <v>0.101206746735996</v>
+        <v>0.09925021841520124</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03592199912231994</v>
+        <v>0.03419822806739999</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05540486090078903</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03457091726722586</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.101997424444871</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.05813861714493476</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1002863000499708</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1028263757990587</v>
+        <v>0.07207623992599765</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1003854538209317</v>
+        <v>0.100511803029431</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03592199912231994</v>
+        <v>0.09056930729822427</v>
       </c>
       <c r="O194" t="n">
-        <v>0.101997424444871</v>
+        <v>0.10002561074657</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03542303004969473</v>
+        <v>0.03368569605803708</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05540459237232501</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03431842592779351</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1027881021537459</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.05836648147227594</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1010637132286528</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1009457218955859</v>
+        <v>0.0719008105564041</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1011636356334971</v>
+        <v>0.101290964293225</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03542303004969473</v>
+        <v>0.09030241017493323</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1027881021537459</v>
+        <v>0.1008010030779388</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0355189530809067</v>
+        <v>0.03318163626166075</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05540432384386099</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03445501167670614</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1035787798626209</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.05781732400661124</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1018411264073347</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.09943755076267941</v>
+        <v>0.0721053805626882</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1019418174460624</v>
+        <v>0.102070125557019</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0355189530809067</v>
+        <v>0.08861208112337632</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1035787798626209</v>
+        <v>0.1015763954093075</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03520766203696975</v>
+        <v>0.03268650015077532</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05540405531539697</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03398125300034494</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1043694575714959</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.05668997493295352</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1026185395860167</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.09890794490683524</v>
+        <v>0.07109077440749698</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1027199992586278</v>
+        <v>0.1028492868208131</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03520766203696975</v>
+        <v>0.08740078323420042</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1043694575714959</v>
+        <v>0.1023517877406763</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03505991151614968</v>
+        <v>0.03220073919781914</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05540378678693296</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03409772838509112</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1051601352803708</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.05688326443631583</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1033959527646986</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.0973629868345493</v>
+        <v>0.07105781655347751</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1034981810711931</v>
+        <v>0.1036284480846071</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03505991151614968</v>
+        <v>0.08707097959805238</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1051601352803708</v>
+        <v>0.103127180072045</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03476900026877112</v>
+        <v>0.03172480487525271</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05540351825846895</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03380501631732588</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1059508129892458</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.05629602270171102</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1041733659433806</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.09530875905231784</v>
+        <v>0.07020733146327679</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1042763628837585</v>
+        <v>0.1044076093484012</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03476900026877112</v>
+        <v>0.0855251333055792</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1059508129892458</v>
+        <v>0.1039025724034138</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03413878161716481</v>
+        <v>0.03125914865551645</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05540324973000492</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03360369528343038</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1067414906981208</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.05592707991415208</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1049507791220625</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.09385134406663653</v>
+        <v>0.07024014359954195</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1050545446963239</v>
+        <v>0.1051867706121952</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03413878161716481</v>
+        <v>0.0840657074474277</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1067414906981208</v>
+        <v>0.1046779647347826</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03397310888366144</v>
+        <v>0.03080422201111137</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05540298120154091</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03309434376978582</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1075321684069958</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05467526625865185</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1057281923007444</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.09289682438400154</v>
+        <v>0.06925707742491991</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1058327265088892</v>
+        <v>0.1059659318759892</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03397310888366144</v>
+        <v>0.08429516511424495</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1075321684069958</v>
+        <v>0.1054533570661513</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03367583539059177</v>
+        <v>0.03036047641447748</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05540271267307689</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03327754026277339</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1083228461158707</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.05473941192022339</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1065056054794264</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.09105128251090872</v>
+        <v>0.06875895740205776</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1066109083214546</v>
+        <v>0.1067450931397833</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03367583539059177</v>
+        <v>0.08191596939667778</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1083228461158707</v>
+        <v>0.1062287493975201</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0330508144602865</v>
+        <v>0.02992836333807526</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05540244414461287</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03305386324877427</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1091135238247457</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.05401834708387954</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1072830186581083</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.09072080095385421</v>
+        <v>0.06804660799360251</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1073890901340199</v>
+        <v>0.1075242544035773</v>
       </c>
       <c r="N203" t="n">
-        <v>0.0330508144602865</v>
+        <v>0.08093058338537307</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1091135238247457</v>
+        <v>0.1070041417288888</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03280189941507637</v>
+        <v>0.02950833425434714</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05540217561614885</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03242389121416968</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1099042015336207</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.05421090193463327</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1080604318367903</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.08821146221933379</v>
+        <v>0.06802085366220129</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1081672719465853</v>
+        <v>0.1083034156673713</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03280189941507637</v>
+        <v>0.08004147017097785</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1099042015336207</v>
+        <v>0.1077795340602576</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03233294357729208</v>
+        <v>0.02910084063579017</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05540190708768483</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03248820264534076</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1106948792424956</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.05321590665749748</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1088378450154722</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.08782934881384363</v>
+        <v>0.06778251887050105</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1089454537591507</v>
+        <v>0.1090825769311654</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03233294357729208</v>
+        <v>0.07955109284413892</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1106948792424956</v>
+        <v>0.1085549263916264</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03174780026926437</v>
+        <v>0.0287063339548463</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05540163855922082</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03204737602866874</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1114855569513706</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.05293219143748518</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1096152581941542</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.08658054324387982</v>
+        <v>0.06723242808114888</v>
       </c>
       <c r="M206" t="n">
-        <v>0.109723635571716</v>
+        <v>0.1098617381949594</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03174780026926437</v>
+        <v>0.07806191449550337</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1114855569513706</v>
+        <v>0.1093303187229951</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03105032281332397</v>
+        <v>0.02832526568397599</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05540137003075681</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03190198985053476</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1122762346602456</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.05295858645960924</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1103926713728361</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.08537112801593805</v>
+        <v>0.06667140575679173</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1105018173842814</v>
+        <v>0.1106408994587534</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03105032281332397</v>
+        <v>0.07697639821571789</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1122762346602456</v>
+        <v>0.1101057110543639</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03084436453180159</v>
+        <v>0.02795808729562407</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05540110150229278</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03155262259732007</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1130669123691205</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.05239392190888262</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1111700845515181</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.08450718563651444</v>
+        <v>0.06610027636007673</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1112799991968468</v>
+        <v>0.1114200607225475</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03084436453180159</v>
+        <v>0.07589700709542957</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1130669123691205</v>
+        <v>0.1108811033857326</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03013377874702798</v>
+        <v>0.02760525026228296</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05540083297382876</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03119985275540581</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1138575900779955</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.05213702797031822</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1119474977302</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.083594798612105</v>
+        <v>0.06501986435365092</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1120581810094121</v>
+        <v>0.1121992219863415</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03013377874702798</v>
+        <v>0.07452620422528533</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1138575900779955</v>
+        <v>0.1116564957171014</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02972241878133379</v>
+        <v>0.02726720605639686</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05540056444536475</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.03114425881117319</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1146482677868705</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.051386734828929</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1127249109088819</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.08114004944920566</v>
+        <v>0.06453099420016123</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1128363628219775</v>
+        <v>0.1129783832501356</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02972241878133379</v>
+        <v>0.07426645269593202</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1146482677868705</v>
+        <v>0.1124318880484702</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02941413795704982</v>
+        <v>0.02694440615042623</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05540029591690074</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.03068641925100342</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1154389454957454</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.05114187266972789</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1135023240875639</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.08104902065431252</v>
+        <v>0.06383449036225486</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1136145446345429</v>
+        <v>0.1137575445139296</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02941413795704982</v>
+        <v>0.07302021559801658</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1154389454957454</v>
+        <v>0.1132072803798389</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02851278959650677</v>
+        <v>0.02663730201681852</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05540002738843671</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.03062691256127763</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1162296232046204</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.05120127167772784</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1142797372662458</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.08002779473392146</v>
+        <v>0.06343117730257872</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1143927264471082</v>
+        <v>0.1145367057777236</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02851278959650677</v>
+        <v>0.07128995602218596</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1162296232046204</v>
+        <v>0.1139826727112077</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02842222702203534</v>
+        <v>0.026346345128061</v>
       </c>
       <c r="G213" t="n">
+        <v>0.0553997588599727</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.03036631722837706</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1170203009134954</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.05056376203794172</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1150571504449278</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.07848245419452843</v>
+        <v>0.0623218794837799</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1151709082596736</v>
+        <v>0.1153158670415177</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02842222702203534</v>
+        <v>0.07107813705908717</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1170203009134954</v>
+        <v>0.1147580650425764</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02784630355596628</v>
+        <v>0.0260719869566004</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05539949033150868</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.03000521173868288</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1178109786223703</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.05042817393538254</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1158345636236097</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.07851907567829652</v>
+        <v>0.06200742136850548</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1159490900722389</v>
+        <v>0.1160950283053117</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02784630355596628</v>
+        <v>0.06958722179936688</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1178109786223703</v>
+        <v>0.1155334573739452</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02718887252063031</v>
+        <v>0.0260719869566004</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05539949033150868</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02984417457857626</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1186016563312453</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.0495933375550632</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1166119768022917</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0770982513627349</v>
+        <v>0.06158862741940238</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1167272718848043</v>
+        <v>0.1168741895691058</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02718887252063031</v>
+        <v>0.06831967333367217</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1186016563312453</v>
+        <v>0.116308849705314</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02705378723835813</v>
+        <v>0.02542032377970758</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05531596404062117</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02948378423443844</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1193923340401203</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.04935808308199668</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1173893899809736</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.0773788827647211</v>
+        <v>0.06066632209911774</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1175054536973697</v>
+        <v>0.1176533508328998</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02705378723835813</v>
+        <v>0.06767795475264998</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1193923340401203</v>
+        <v>0.1170842420366827</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0262449010314805</v>
+        <v>0.02477573736691124</v>
       </c>
       <c r="G217" t="n">
+        <v>0.05523243774973367</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02942461919265055</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1201830117489952</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.04892124070119586</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1181668031596556</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.07686151037270017</v>
+        <v>0.06024132987029857</v>
       </c>
       <c r="M217" t="n">
-        <v>0.118283635509935</v>
+        <v>0.1184325120966938</v>
       </c>
       <c r="N217" t="n">
-        <v>0.0262449010314805</v>
+        <v>0.06746452914694728</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1201830117489952</v>
+        <v>0.1178596343680515</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02586606722232811</v>
+        <v>0.0241385220637638</v>
       </c>
       <c r="G218" t="n">
+        <v>0.05514891145884617</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02916725793959381</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1209736894578702</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.04908164059767364</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1189442163383375</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.07474667467511725</v>
+        <v>0.05931447519559191</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1190618173225004</v>
+        <v>0.1192116733604879</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02586606722232811</v>
+        <v>0.06688185960721088</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1209736894578702</v>
+        <v>0.1186350266994202</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0259211391332317</v>
+        <v>0.02350897221581763</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05506538516795866</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02891227896164941</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1217643671667452</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.04813811295644305</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1197216295170195</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.07433491616041749</v>
+        <v>0.05908658253764476</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1198399991350657</v>
+        <v>0.1199908346242819</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0259211391332317</v>
+        <v>0.06533240922408773</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1217643671667452</v>
+        <v>0.119410419030789</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02531397008652202</v>
+        <v>0.02288738216862538</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05498185887707115</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02856026074519852</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1225550448756202</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.04778948796251695</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1204990426957014</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.07412677531704587</v>
+        <v>0.05845847635910423</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1206181809476311</v>
+        <v>0.120769995888076</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02531397008652202</v>
+        <v>0.06431864108822477</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1225550448756202</v>
+        <v>0.1201858113621577</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02534841340452972</v>
+        <v>0.02227404626773961</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05489833258618365</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02811178177662237</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1233457225844951</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.04813459580090831</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1212764558743833</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.07362279263344756</v>
+        <v>0.05753098112261729</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1213963627601965</v>
+        <v>0.12154915715187</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02534841340452972</v>
+        <v>0.06424301829026885</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1233457225844951</v>
+        <v>0.1209612036935265</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02472832240958558</v>
+        <v>0.02166925885871276</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05481480629529616</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02786742054230208</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1241364002933701</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.04737226665663005</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1220538690530653</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.07262350859806782</v>
+        <v>0.05730492129083106</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1221745445727618</v>
+        <v>0.122328318415664</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02472832240958558</v>
+        <v>0.06360800392086702</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1241364002933701</v>
+        <v>0.1217365960248953</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02475755042402029</v>
+        <v>0.02107331428709723</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05473128000440865</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.0279277555286189</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1249270780022451</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0474013307146951</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1228312822317472</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0723294636993515</v>
+        <v>0.05678112132639246</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1229527263853272</v>
+        <v>0.1231074796794581</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02475755042402029</v>
+        <v>0.06181606107066601</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1249270780022451</v>
+        <v>0.122511988356264</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02473995077016462</v>
+        <v>0.02048650689844561</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05464775371352113</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02779336522195398</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.12571775571112</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.04632061816011637</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1236086954104292</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.07114119842574385</v>
+        <v>0.05606040569194867</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1237309081978926</v>
+        <v>0.1238866409432521</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02473995077016462</v>
+        <v>0.062169652830313</v>
       </c>
       <c r="O224" t="n">
-        <v>0.12571775571112</v>
+        <v>0.1232873806876328</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02476776655969869</v>
+        <v>0.01990913103831052</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05456422742263364</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02746482810868855</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.126508433419995</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.04583212573589179</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1243861085891111</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07055925326569013</v>
+        <v>0.05564359885014661</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1245090900104579</v>
+        <v>0.1246658022070461</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02476776655969869</v>
+        <v>0.06077124229045472</v>
       </c>
       <c r="O225" t="n">
-        <v>0.126508433419995</v>
+        <v>0.1240627730190016</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02460089313224791</v>
+        <v>0.01934148105224434</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05448070113174613</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02714272267520375</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.12729911112887</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.04544481891359545</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1251635217677931</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.06918416870763511</v>
+        <v>0.05443152526363335</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1252872718230233</v>
+        <v>0.1254449634708402</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02460089313224791</v>
+        <v>0.06082329254173807</v>
       </c>
       <c r="O226" t="n">
-        <v>0.12729911112887</v>
+        <v>0.1248381653503703</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02443556646689149</v>
+        <v>0.01878385128579953</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05439717484085863</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.0271276274078808</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1280897888377449</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.04575935789448446</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.125940934946475</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.06981648524002421</v>
+        <v>0.05422500939505598</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1260654536355887</v>
+        <v>0.1262241247346342</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02443556646689149</v>
+        <v>0.05982826667481023</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1280897888377449</v>
+        <v>0.1256135576817391</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02417179670875085</v>
+        <v>0.01823653608452865</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05431364854997112</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02652012079310088</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1288804665466199</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.04497577018468599</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1267183481251569</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.06885674335130232</v>
+        <v>0.05302487570706152</v>
       </c>
       <c r="M228" t="n">
-        <v>0.126843635448154</v>
+        <v>0.1270032859984283</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02417179670875085</v>
+        <v>0.05928862778031779</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1288804665466199</v>
+        <v>0.1263889500131078</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02440959400294744</v>
+        <v>0.0176998297939843</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05423012225908361</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02642078131724518</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1296711442554949</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.04449408329032709</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1274957613038389</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.06850548352991465</v>
+        <v>0.0533319486622969</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1276218172607194</v>
+        <v>0.1277824472622223</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02440959400294744</v>
+        <v>0.0590068389489079</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1296711442554949</v>
+        <v>0.1271643423444766</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02424896849460263</v>
+        <v>0.0171740267597189</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05414659596819612</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02613013874165733</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1304618219643698</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.04481432471753499</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1282731744825208</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.06786324626430623</v>
+        <v>0.05254699656195555</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1283999990732847</v>
+        <v>0.1285616085260163</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02424896849460263</v>
+        <v>0.05928497455519816</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1304618219643698</v>
+        <v>0.1279397346758454</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02398993032883795</v>
+        <v>0.01665942132728489</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05406306967730861</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.0259438691572188</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1312524996732448</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.04433652197243687</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1290505876612028</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.0665305720429224</v>
+        <v>0.0519642279996588</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1291781808858501</v>
+        <v>0.1293407697898104</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02398993032883795</v>
+        <v>0.05818927061857776</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1312524996732448</v>
+        <v>0.1287151270072141</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02393248965077473</v>
+        <v>0.01615630784223484</v>
       </c>
       <c r="G232" t="n">
+        <v>0.0539795433864211</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02615889933159886</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1320431773821198</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.04396070256115978</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1298280008398847</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.06640800135420794</v>
+        <v>0.05157936053205986</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1299563626984155</v>
+        <v>0.1301199310536044</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02393248965077473</v>
+        <v>0.05799699095364852</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1320431773821198</v>
+        <v>0.1294905193385829</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02387665660553447</v>
+        <v>0.01566498065012133</v>
       </c>
       <c r="G233" t="n">
+        <v>0.0538960170955336</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02597525009548739</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1328338550909947</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.04348689398983088</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1306054140185667</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0648960746866083</v>
+        <v>0.05019240894922658</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1307345445109808</v>
+        <v>0.1308990923173984</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02387665660553447</v>
+        <v>0.0574084680604135</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1328338550909947</v>
+        <v>0.1302659116699516</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02382244133823856</v>
+        <v>0.01518573409649679</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0538124908046461</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02579294227957421</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1336245327998697</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.04261512376457741</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1313828271972486</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.06519533252856824</v>
+        <v>0.05020338804122679</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1315127263235462</v>
+        <v>0.1316782535811925</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02382244133823856</v>
+        <v>0.05832403443887585</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1336245327998697</v>
+        <v>0.1310413040013204</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02386985399400844</v>
+        <v>0.01471886252691366</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05372896451375859</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02531199671454917</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1344152105087447</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.04224541939152637</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1321602403759305</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.06370631536853311</v>
+        <v>0.04971231259812844</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1322909081361115</v>
+        <v>0.1324574148449865</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02386985399400844</v>
+        <v>0.05704402258903835</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1344152105087447</v>
+        <v>0.1318166963326891</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02411890471796552</v>
+        <v>0.01426466028692452</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05364543822287108</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02513243423110213</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1352058882176197</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.04237780837680505</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1329376535546125</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.06322956369494798</v>
+        <v>0.04881919740999938</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1330690899486769</v>
+        <v>0.1332365761087806</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02411890471796552</v>
+        <v>0.05716876501090407</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1352058882176197</v>
+        <v>0.1325920886640579</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02396960365523124</v>
+        <v>0.01382342172208193</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05356191193198358</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.0248542756599229</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1359965659264946</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.04141231822654048</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1337150667332944</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.06256561799625787</v>
+        <v>0.04812405726690747</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1338472717612423</v>
+        <v>0.1340157373725746</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02396960365523124</v>
+        <v>0.05729859420447597</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1359965659264946</v>
+        <v>0.1333674809954267</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02382196095092706</v>
+        <v>0.01339544117793835</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05347838564109608</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02467754183170136</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1367872436353696</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.04094897644685991</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1344924799119764</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.06191501876090799</v>
+        <v>0.04762690695892061</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1346254535738076</v>
+        <v>0.1347948986363686</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02382196095092706</v>
+        <v>0.05603384266975714</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1367872436353696</v>
+        <v>0.1341428733267954</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02367598675017439</v>
+        <v>0.01298101300004619</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05339485935020857</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02480225357712731</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1375779213442445</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.04118781054389037</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1352698930906583</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.06197830647734348</v>
+        <v>0.04672776127610664</v>
       </c>
       <c r="M239" t="n">
-        <v>0.135403635386373</v>
+        <v>0.1355740599001627</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02367598675017439</v>
+        <v>0.05617484290675051</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1375779213442445</v>
+        <v>0.1349182656581642</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02393169119809463</v>
+        <v>0.01257922962295199</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05331133305932106</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02432843172689063</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1383685990531195</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.0404288480237591</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1360473062693403</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06155602163400925</v>
+        <v>0.04612663500853353</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1361818171989383</v>
+        <v>0.1363532211639567</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02393169119809463</v>
+        <v>0.05682192741545911</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1383685990531195</v>
+        <v>0.135693657989533</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02388908443980924</v>
+        <v>0.01218317392617189</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05322780676843356</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02415609711168115</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1391592767619945</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.04077211639259323</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1368247194480222</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.06124870471935057</v>
+        <v>0.04612354294626908</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1369599990115037</v>
+        <v>0.1371323824277507</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02388908443980924</v>
+        <v>0.0559754286958859</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1391592767619945</v>
+        <v>0.1364690503209017</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02354817662043965</v>
+        <v>0.01179193834425232</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05314428047754607</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02438527056218873</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1399499544708695</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.04011764315651986</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1376021326267041</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06025689622181257</v>
+        <v>0.04511849987938113</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1377381808240691</v>
+        <v>0.1379115436915448</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02354817662043965</v>
+        <v>0.05603567924803382</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1399499544708695</v>
+        <v>0.1372444426522705</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02380897788510725</v>
+        <v>0.0114058172227457</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05306075418665855</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02401597290910316</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1407406321797444</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.03936545582166615</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1383795458053861</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.06038113662984029</v>
+        <v>0.04471152059793762</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1385163626366344</v>
+        <v>0.1386907049553388</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02380897788510725</v>
+        <v>0.05550301157190607</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1407406321797444</v>
+        <v>0.1380198349836392</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02337149837893351</v>
+        <v>0.01102510490720459</v>
       </c>
       <c r="G244" t="n">
+        <v>0.05297722789577104</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02394822498311436</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1415313098886194</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.03901558189415927</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1391569589840681</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.0594219664318788</v>
+        <v>0.04420261989200641</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1392945444491998</v>
+        <v>0.1394698662191329</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02337149837893351</v>
+        <v>0.05457775816750543</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1415313098886194</v>
+        <v>0.138795227315008</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02373574824703983</v>
+        <v>0.01065009574318156</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05289370160488355</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.0238820476149121</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1423219875974944</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.03866804888012634</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.13993437216275</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.05847992611637332</v>
+        <v>0.04319181255165538</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1400727262617651</v>
+        <v>0.1402490274829269</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02373574824703983</v>
+        <v>0.05456025153483501</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1423219875974944</v>
+        <v>0.1395706196463767</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0234017376345477</v>
+        <v>0.01028108407622905</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05281017531399605</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02361746163518626</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1431126653063693</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.03812288428569449</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1407117853414319</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.0579555561717689</v>
+        <v>0.04317911336695238</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1408509080743305</v>
+        <v>0.1410281887467209</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0234017376345477</v>
+        <v>0.05405082417389767</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1431126653063693</v>
+        <v>0.1403460119777455</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02366947668657847</v>
+        <v>0.009918364251899542</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05272664902310854</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02355448787462669</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1439033430152443</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.03788011561699095</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1414891985201139</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.05814939708651068</v>
+        <v>0.04236453712796528</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1416290898868959</v>
+        <v>0.141807350010515</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02366947668657847</v>
+        <v>0.05494980858469656</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1439033430152443</v>
+        <v>0.1411214043091143</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02333897554825361</v>
+        <v>0.00956223061574555</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05264312273222103</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02329314716392322</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1446940207241193</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.03823977038014281</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1422666116987958</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.05796198934904373</v>
+        <v>0.04184809862476208</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1424072716994612</v>
+        <v>0.142586511274309</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02333897554825361</v>
+        <v>0.05415753726723466</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1446940207241193</v>
+        <v>0.141896796640483</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02351024436469452</v>
+        <v>0.009212977513319669</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05255959644133353</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02303346033376569</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1454846984329942</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.03730187608127719</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1430440248774778</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.05679387344781311</v>
+        <v>0.04112981264741047</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1431854535120266</v>
+        <v>0.1433656725381031</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02351024436469452</v>
+        <v>0.05487434272151498</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1454846984329942</v>
+        <v>0.1426721889718518</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02348329328102267</v>
+        <v>0.008870899290174303</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05247607015044602</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02297544821484396</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1462753761418692</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.03766646022652126</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1438214380561597</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.05724558987126405</v>
+        <v>0.04060969398597844</v>
       </c>
       <c r="M250" t="n">
-        <v>0.143963635324592</v>
+        <v>0.1441448338018971</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02348329328102267</v>
+        <v>0.05360055744754033</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1462753761418692</v>
+        <v>0.1434475813032206</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02315813244235948</v>
+        <v>0.008536290291861995</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05239254385955851</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02291913163784784</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1470660538507442</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.03673355032200218</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1445988512348417</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.05661767910784155</v>
+        <v>0.03928775743053387</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1447418171371573</v>
+        <v>0.1449239950656911</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02315813244235948</v>
+        <v>0.05383651394531391</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1470660538507442</v>
+        <v>0.1442229736345893</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02333477199382634</v>
+        <v>0.008209444863935246</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05230901756867101</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02256453143346719</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1478567315596192</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.03630317387384704</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1453762644135236</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.05601068164599093</v>
+        <v>0.03946401777114453</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1455199989497227</v>
+        <v>0.1457031563294852</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02333477199382634</v>
+        <v>0.05338254471483855</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1478567315596192</v>
+        <v>0.1449983659659581</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02351322208054472</v>
+        <v>0.007890657351946571</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05222549127778351</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02251166843239188</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1486474092684941</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.03617535838818303</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1461536775922055</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.05572513797415701</v>
+        <v>0.03823848979787842</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1462981807622881</v>
+        <v>0.1464823175932792</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02351322208054472</v>
+        <v>0.05303898225611742</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1486474092684941</v>
+        <v>0.1457737582973268</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02339349284763603</v>
+        <v>0.007580222101448458</v>
       </c>
       <c r="G254" t="n">
+        <v>0.052141964986896</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02236056346531175</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1494380869773691</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.03635013137113732</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1469310907708875</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.056261588580785</v>
+        <v>0.03771118830080336</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1470763625748534</v>
+        <v>0.1472614788570732</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02339349284763603</v>
+        <v>0.05330615906915342</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1494380869773691</v>
+        <v>0.1465491506286956</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02347559444022171</v>
+        <v>0.007278433457993422</v>
       </c>
       <c r="G255" t="n">
+        <v>0.0520584386960085</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02231123736291658</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.150228764686244</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.03582752032883701</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1477085039495694</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.0564205739543201</v>
+        <v>0.03688212806998722</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1478545443874188</v>
+        <v>0.1480406401208673</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02347559444022171</v>
+        <v>0.05318440765394949</v>
       </c>
       <c r="O255" t="n">
-        <v>0.150228764686244</v>
+        <v>0.1473245429600643</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0230595370034232</v>
+        <v>0.006985585767133977</v>
       </c>
       <c r="G256" t="n">
+        <v>0.051974912405121</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02196371095589629</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.151019442395119</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.03520755276740928</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1484859171282514</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.05580263458320733</v>
+        <v>0.03645132389549793</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1486327261999842</v>
+        <v>0.1488198013846613</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0230595370034232</v>
+        <v>0.05307406051050884</v>
       </c>
       <c r="O256" t="n">
-        <v>0.151019442395119</v>
+        <v>0.1480999352914331</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02324533068236188</v>
+        <v>0.006701973374422611</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05189138611423349</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02161800507494066</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.151810120103994</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.03489025619298125</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1492633303069333</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.05540831095589188</v>
+        <v>0.03571879056740332</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1494109080125495</v>
+        <v>0.1495989626484554</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02324533068236188</v>
+        <v>0.05297545013883415</v>
       </c>
       <c r="O257" t="n">
-        <v>0.151810120103994</v>
+        <v>0.1488753276228019</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02323298562215921</v>
+        <v>0.006427890625411846</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05180785982334599</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02167414055073959</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1526007978128689</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.03507565811168004</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1500407434856153</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.05583814356081873</v>
+        <v>0.03568454287577125</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1501890898251149</v>
+        <v>0.1503781239122494</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02323298562215921</v>
+        <v>0.0536889090389287</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1526007978128689</v>
+        <v>0.1496507199541706</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02322251196793663</v>
+        <v>0.006163631865654176</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05172433353245848</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02143213821398288</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1533914755217439</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.03446378602963285</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1508181566642972</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.05509267288643316</v>
+        <v>0.03444859561066968</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1509672716376802</v>
+        <v>0.1511572851760434</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02322251196793663</v>
+        <v>0.05301476971079533</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1533914755217439</v>
+        <v>0.1504261122855394</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02341391986481556</v>
+        <v>0.00590949144070211</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05164080724157098</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02149201889536037</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1541821532306189</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.03405466745296681</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1515955698429792</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.05507243942118012</v>
+        <v>0.03401096356216632</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1517454534502456</v>
+        <v>0.1519364464398375</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02341391986481556</v>
+        <v>0.05325336465443697</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1541821532306189</v>
+        <v>0.1512015046169081</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02330721945791743</v>
+        <v>0.005665763696108148</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05155728095068347</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02135380342556197</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1549728309394939</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.03364832988780903</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1523729830216611</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.05457798365350475</v>
+        <v>0.03297166152032921</v>
       </c>
       <c r="M261" t="n">
-        <v>0.152523635262811</v>
+        <v>0.1527156077036315</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02330721945791743</v>
+        <v>0.05310502636985681</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1549728309394939</v>
+        <v>0.1519768969482769</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02320242089236367</v>
+        <v>0.005432742977424812</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05147375465979596</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02111751263527743</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1557635086483689</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.03364480084028673</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1531503962003431</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.05410984607185221</v>
+        <v>0.03263070427522616</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1533018170753763</v>
+        <v>0.1534947689674256</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02320242089236367</v>
+        <v>0.05287008735705778</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1557635086483689</v>
+        <v>0.1527522892796457</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02339953431327568</v>
+        <v>0.00521072363020459</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05139022836890846</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02108316735519666</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1565541863572438</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.03274410781652698</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.153927809379025</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.05406856716466762</v>
+        <v>0.03198810661692503</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1540799988879417</v>
+        <v>0.1542739302312196</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02339953431327568</v>
+        <v>0.05274888011604284</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1565541863572438</v>
+        <v>0.1535276816110144</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02319856986577493</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05130670207802096</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02095078841600949</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1573448640661188</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.03294627832265695</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1547052225577069</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.05415468742039614</v>
+        <v>0.03144388333549375</v>
       </c>
       <c r="M264" t="n">
-        <v>0.154858180700507</v>
+        <v>0.1550530914950136</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02319856986577493</v>
+        <v>0.05214173714681497</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1573448640661188</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1543030739423832</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05129354418328411</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005688044899037868</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05129381271174813</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006372430165723447</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05129408124021215</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007053116532195737</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05129434976867617</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007730064730653144</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05129461829714019</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008403235493235003</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.0512948868256042</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009072589552139389</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05129515535406822</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009738087639505955</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05129542388253223</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01039969048753246</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05129569241099625</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01105735882835887</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05129596093946027</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01171105339418261</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05129622946792429</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01236073491714402</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0512964979963883</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01300636412944015</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05129676652485232</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01364790176321169</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05129703505331634</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01428530855065534</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05129730358178036</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01491854522391216</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05129757211024438</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01554757251517849</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0512978406387084</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01617235115659572</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05129810916717241</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01679284188034638</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05129837769563642</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01740900541861264</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05129864622410044</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01802080250353643</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05129891475256446</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01862819386731319</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05129918328102848</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01923114024208526</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05129945180949249</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01982960236004767</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05129972033795651</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02042354095334316</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05129998886642053</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02101307709781049</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05130025739488455</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02159913358745755</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05130052592334856</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02218183149812276</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05130079445181258</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02276113156194954</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.0513010629802766</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02333699451113187</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05130133150874062</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0239093810778135</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05130160003720463</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02447825199418811</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05130186856566865</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02504356799239973</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05130213709413266</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02560528980462957</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05130240562259668</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02616337816305851</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0513026741510607</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02671779379983105</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05130294267952471</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02726849744714012</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05130321120798873</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02781544983713052</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05130347973645275</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02835861170199484</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05130374826491677</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02889794377387822</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05130401679338079</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02943340678497294</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05130428532184481</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02996496146742447</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05130455385030882</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03049256855342473</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05130482237877284</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03101618877511955</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05130509090723685</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03153578286470045</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05130535943570087</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03205131155431369</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05130562796416489</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03256273557615044</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05130589649262891</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03307001566235723</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05130616502109292</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03357311254512492</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05130643354955694</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03407198695660041</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05130670207802096</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03407198695660041</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05129354418328411</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0346159497143726</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05137760753109966</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03515515064532683</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0514616708789152</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03568947579478413</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05154573422673073</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03621881120806557</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05162979757454628</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03674304293049217</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05171386092236181</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03726205700738502</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05179792427017735</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03777573948406519</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05188198761799289</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03828397640585367</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05196605096580843</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03878665381807157</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05205011431362397</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03928365776603991</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05213417766143951</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03977487429507975</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05221824100925505</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04026018945051216</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05230230435707059</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.04073948927765814</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05238636770488612</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04121265982183882</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05247043105270166</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04167958712837519</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0525544944005172</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04214015724258838</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05263855774833275</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04259425620979934</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05272262109614828</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04304177007532919</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05280668444396382</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04348258488449896</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05289074779177936</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04391658668262972</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0529748111395949</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0443436615150425</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05305887448741044</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04476369542705834</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05314293783522598</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04517657446399835</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05322700118304152</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04558218467118354</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05331106453085706</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04598087740887399</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0533951278786726</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04637533061202495</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05347919122648812</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04676589564089659</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05356325457430366</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04715245854080989</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05364731792211921</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0475349053570859</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05373138126993474</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04791312213504571</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05381544461775029</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04828699492001037</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05389950796556582</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04865640975730089</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05398357131338136</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04902125269223837</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0540676346611969</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04938140977014382</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05415169800901244</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04973676703633835</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05423576135682798</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05008721053614294</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05431982470464352</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0504326263148787</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05440388805245906</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05077290041786667</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0544879514002746</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.0511079188904279</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05457201474809013</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05143756777788343</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05465607809590568</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05176173312555431</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05474014144372121</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05208030097876162</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05482420479153675</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05239315738282639</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05490826813935229</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05270018838306968</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05499233148716783</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05300128002481255</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05507639483498337</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05329631835337605</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05516045818279891</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05358518941408122</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05524452153061445</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05386777925224913</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05532858487842999</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05414397391320083</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05541264822624553</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04976264927546721</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05541264822624553</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05425114322511204</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05698945214352052</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05435036840260216</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05856625606079552</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05444195536695727</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06014305997807051</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05452621003946354</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06171986389534549</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05460343834140705</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06329666781262049</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05467394619407391</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06487347172989548</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05473803951875025</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06645027564717047</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05479602423672218</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06802707956444547</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05484820626927581</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06960388348172046</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05489489153769729</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07118068739899545</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0549363859632727</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07275749131627045</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05497299546728818</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07433429523354544</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05500502597102984</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07591109915082044</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05503278339578377</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07748790306809542</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05505657366283612</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07906470698537041</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05507670269347299</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0806415109026454</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05509347640898052</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.0822183148199204</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05510720073064482</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08379511873719539</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05511818157975197</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08537192265447037</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0551267248775881</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08694872657174536</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05513313654543937</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08852553048902036</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05513772250459184</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09010233440629535</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05514078867633167</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09167913832357034</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05514264098194496</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09325594224084534</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05514358534271781</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09483274615812033</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05514392767993637</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09640955007539533</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05514392800267588</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09798635399267032</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05509764823627082</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09956315790994531</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05496883226280655</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1011399618272203</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05476393606748145</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1027167657444953</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05448941563549385</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1042935696617703</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05415172695204215</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1058703735790453</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05375732600232469</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1074471774963203</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05331266877153981</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1090239814135953</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05282421124488591</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1106007853308703</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05229840940756131</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1121775892481453</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.05174171924476439</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1137543931654202</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.05116059674169351</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1153311970826952</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.05056149788354702</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1169080009999702</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04995087865552329</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1184848049172452</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04933519504282066</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1200616088345202</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04872090303063752</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1216384127517952</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04811445860417218</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1232152166690702</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04752231774862306</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1247920205863452</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04695093644918849</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1263688245036202</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04640677069106681</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1279456284208952</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04589627645945642</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1295224323381702</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04542590973955564</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1310992362554451</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04500212651656285</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1326760401727201</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0446313827756764</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1342528440899951</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04431373701185656</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1358296480072701</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04401357637766715</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1374064519245451</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04372381904449867</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1389832558418201</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04344382986459153</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1405600597590951</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04317297369018619</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1421368636763701</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04291061537352306</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1437136675936451</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04265611976684257</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1452904715109201</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04240885172238515</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1468672754281951</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04216817609239122</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1484440793454701</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04193345772910125</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04170406148475561</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1515976871800201</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.04147935221159475</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1531744910972951</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04125869476185909</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1547512950145701</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04104145398778906</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.156328098931845</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04082699474162511</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.15790490284912</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.04061468187560766</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.159481706766395</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04040388024197711</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.16105851068367</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04019395469297392</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.162635314600945</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0399842700808385</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.16421211851822</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03977419125781129</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.165788922435495</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03956308307613267</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.16736572635277</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03935031038804314</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.168942530270045</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03913523804578309</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1705193341873199</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03891723090159295</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1720961381045949</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03869565380771316</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1736729420218699</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03846987161638411</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1752497459391449</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03824201824986749</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1768265498564199</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03801472690004834</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1784033537736949</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03778799732303234</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1799801576909699</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03756182913957538</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1815569616082449</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03733622197043336</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1831337655255199</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03711117543636216</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1847105694427949</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03688668915811767</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1862873733600699</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03666276275645576</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1878641772773449</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03643939585213234</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1894409811946199</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.0362165880659033</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1910177851118948</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03599433901852453</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1925945890291698</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03577264833075192</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1941713929464448</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03555151562334133</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1957481968637198</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03533094051704867</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1973250007809948</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03511092263262985</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1989018046982698</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03489146159084072</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2004786086155448</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03467255701243718</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2020554125328198</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03445420851817514</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2036322164500948</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03423641572881049</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2052090203673698</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03401917826509908</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2067858242846448</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03380249574779683</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2083626282019198</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0335863677976596</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2099394321191948</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03337079403544332</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2115162360364698</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08676264927546722</v>
+        <v>0.06247539086962028</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03676264927546721</v>
+        <v>0.01247539086962028</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01544264822624553</v>
+        <v>0.007742878463644761</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001205061672245433</v>
+        <v>0.004041237200455863</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005597237194570256</v>
+        <v>0.001621131090356258</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002133901322623637</v>
+        <v>0.003691037102716975</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007906777088749688</v>
+        <v>0.001631344121891361</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003999999999999976</v>
+        <v>0.01164604794575957</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0005792753623188371</v>
+        <v>0.001632863358031723</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.009521710696486885</v>
+        <v>0.01901395351833141</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007753923313687597</v>
+        <v>0.001634479566691681</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002421430657478942</v>
+        <v>0.0059406623188668</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001119447438914051</v>
+        <v>0.002580959487881587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004286687101696357</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001581355417749938</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009273583193342899</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001558322527588077</v>
+        <v>0.0033591999103541</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02100000000000002</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001721431501230519</v>
+        <v>0.003466408418131358</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003648785770815746</v>
+        <v>0.00841988867237934</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001679171158371077</v>
+        <v>0.004863393271068773</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.006135909391923038</v>
+        <v>0.01101408588358362</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002372033126624906</v>
+        <v>0.004894032365674083</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01429720675919721</v>
+        <v>0.02947432702787531</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002337483791382115</v>
+        <v>0.004898590074095168</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02591704062980138</v>
+        <v>0.04645794886165105</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002326176994106279</v>
+        <v>0.004903438700075043</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.00488680582737111</v>
+        <v>0.01035105055620177</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002238894877828102</v>
+        <v>0.006484524361425031</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008159120248008529</v>
+        <v>0.01533825583635036</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003162710835499875</v>
+        <v>0.006525376487565445</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01832109276244612</v>
+        <v>0.03636307437115796</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003116645055176153</v>
+        <v>0.00653145343212689</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03424042053863846</v>
+        <v>0.05669238445476449</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003101569325475039</v>
+        <v>0.006537918266766724</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01032383795152635</v>
+        <v>0.002580959487881587</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02376264927546722</v>
+        <v>0.0059406623188668</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006135169642260241</v>
+        <v>0.01247539086962028</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002798618597285128</v>
+        <v>0.007742878463644761</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009933871724657706</v>
+        <v>0.01886694664628936</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003953388544374843</v>
+        <v>0.008156720609456807</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02261149769481099</v>
+        <v>0.04219688599430121</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003895806318970192</v>
+        <v>0.008164316790158613</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04119477732565546</v>
+        <v>0.06467284910244608</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003876961656843798</v>
+        <v>0.008172397833458406</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007393556030598381</v>
+        <v>0.01391063317728307</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003358342316742153</v>
+        <v>0.009726786542137546</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01153771587657545</v>
+        <v>0.02176855477620425</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004744066253249813</v>
+        <v>0.009775271739130427</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02703467804801332</v>
+        <v>0.04801710413712201</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00467496758276423</v>
+        <v>0.0100775997310623</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04718784274184096</v>
+        <v>0.07426565349803976</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004652353988212558</v>
+        <v>0.01039922525439408</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.00866164380750075</v>
+        <v>0.01500331678034787</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003918066036199179</v>
+        <v>0.0113479176324938</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01274820475846661</v>
+        <v>0.02352764697994235</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005534743962124781</v>
+        <v>0.01141940885323953</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03055689031377437</v>
+        <v>0.05087904375636912</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005454128846558269</v>
+        <v>0.01143004350622206</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05392734853818282</v>
+        <v>0.07714394405313074</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005427746319581318</v>
+        <v>0.01144135696684177</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009939111788082607</v>
+        <v>0.01402420476629016</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004477789755656205</v>
+        <v>0.01296904872285006</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.014</v>
+        <v>0.0253524098686496</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006082391304347826</v>
+        <v>0.01305075297513089</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03414439098381566</v>
+        <v>0.05482394814246119</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006233290110352307</v>
+        <v>0.01306290686425378</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05982102646566945</v>
+        <v>0.08406374014321866</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006203138650950077</v>
+        <v>0.01307583653353345</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01122563878745917</v>
+        <v>0.01497353296955872</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00503751347511323</v>
+        <v>0.01459017981320632</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0150147555983927</v>
+        <v>0.02725848995934187</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007116099379874718</v>
+        <v>0.01468209709702225</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03766343654985854</v>
+        <v>0.0590058047697288</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007012451374146345</v>
+        <v>0.0146957702222855</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06477660827528919</v>
+        <v>0.09010590551764008</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006978530982318838</v>
+        <v>0.01471031610022513</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01252090362074568</v>
+        <v>0.01685153722460232</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005597237194570256</v>
+        <v>0.01621131090356258</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01628669655597446</v>
+        <v>0.02924505213214232</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007906777088749687</v>
+        <v>0.01631344121891361</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04118028350362438</v>
+        <v>0.06280813247988998</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007791612637940384</v>
+        <v>0.01632863358031723</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06900182571803026</v>
+        <v>0.09493475688269631</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007753923313687597</v>
+        <v>0.01634479566691681</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01382458510305736</v>
+        <v>0.01865845336586973</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006156960914027281</v>
+        <v>0.01783244199391883</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01697823743667295</v>
+        <v>0.03081126126717407</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008697454797624656</v>
+        <v>0.01794478534080497</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04346118833683463</v>
+        <v>0.06651445011466267</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008570773901734422</v>
+        <v>0.01796149693834895</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07426565349803976</v>
+        <v>0.1005146109446886</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00869681873408136</v>
+        <v>0.01797927523360849</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01513636204950945</v>
+        <v>0.01839451722780973</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006716684633484306</v>
+        <v>0.01945357308427509</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01770309139388354</v>
+        <v>0.03195628224456032</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009488132506499625</v>
+        <v>0.01957612946269633</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04627240754121068</v>
+        <v>0.06960827651576482</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009349935165528461</v>
+        <v>0.01959436029638067</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07627372475435579</v>
+        <v>0.1058097844099182</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009304707976425117</v>
+        <v>0.01961375480030017</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01645591327521717</v>
+        <v>0.0200599646448711</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007276408352941333</v>
+        <v>0.02107470417463135</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01877497158100172</v>
+        <v>0.03337927994442413</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01027881021537459</v>
+        <v>0.0212074735845877</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04801710413712201</v>
+        <v>0.07257313052491443</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009933973355904591</v>
+        <v>0.0212272236544124</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07897930054736146</v>
+        <v>0.1103845939846868</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01008010030779388</v>
+        <v>0.02124823436699185</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01778291759529578</v>
+        <v>0.0206550314515026</v>
       </c>
       <c r="G79" t="n">
-        <v>0.007836132072398357</v>
+        <v>0.02269583526498761</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01960759115142292</v>
+        <v>0.03477941924688871</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01106948792424956</v>
+        <v>0.02283881770647906</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0501801054204534</v>
+        <v>0.07549253098382946</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01090825769311654</v>
+        <v>0.02286008701244412</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08174074438351675</v>
+        <v>0.1155033563752954</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01085549263916264</v>
+        <v>0.02288271393368354</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01911705382486049</v>
+        <v>0.01917995348215302</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008395855791855384</v>
+        <v>0.02431696635534386</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02031466325854257</v>
+        <v>0.0358558650320772</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01186016563312453</v>
+        <v>0.02447016182837042</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05214466529136935</v>
+        <v>0.07744999673422792</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01168741895691058</v>
+        <v>0.02449295037047584</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08375698869059595</v>
+        <v>0.1198303882880454</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01163088497053139</v>
+        <v>0.02451719350037522</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02045800077902655</v>
+        <v>0.01963496657127113</v>
       </c>
       <c r="G81" t="n">
-        <v>0.008955579511312409</v>
+        <v>0.02593809744570012</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02080990105575611</v>
+        <v>0.03650778218011273</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0126508433419995</v>
+        <v>0.02610150595026178</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05378566544450433</v>
+        <v>0.08042904661782771</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01246658022070461</v>
+        <v>0.02612581372850756</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08772696589637363</v>
+        <v>0.1234300064292384</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01240627730190015</v>
+        <v>0.0261516730670669</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02180543727290919</v>
+        <v>0.0210203065533057</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009515303230769434</v>
+        <v>0.02755922853605638</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02176855477620425</v>
+        <v>0.03743433557111844</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01351070084479633</v>
+        <v>0.02773285007215314</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05540202790333271</v>
+        <v>0.08211319947634685</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01324574148449865</v>
+        <v>0.02775867708653928</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08984960842862411</v>
+        <v>0.1264665275051755</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01318166963326891</v>
+        <v>0.02778615263375858</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02376264927546722</v>
+        <v>0.02133817373846404</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01032383795152635</v>
+        <v>0.02918035962641264</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02221777768516645</v>
+        <v>0.03823469008521749</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01423219875974944</v>
+        <v>0.0293641941940445</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05679267469132906</v>
+        <v>0.08388597415150334</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01402490274829269</v>
+        <v>0.02939154044457101</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09292384871512205</v>
+        <v>0.128904268222158</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01395706196463768</v>
+        <v>0.02942063220045026</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02454022102450899</v>
+        <v>0.02263131170814632</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01063475066968349</v>
+        <v>0.0308014907167689</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02304367707478089</v>
+        <v>0.03870878969559803</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01502287646862441</v>
+        <v>0.03099553831593586</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05945652783196789</v>
+        <v>0.08503088948501503</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01480406401208673</v>
+        <v>0.03102440380260273</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09494861918364172</v>
+        <v>0.1316075452864873</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01473245429600643</v>
+        <v>0.03105511176714194</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02603526345713701</v>
+        <v>0.02191561169872708</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01119447438914051</v>
+        <v>0.03242262180712516</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02378284214776616</v>
+        <v>0.03932529681805075</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01581355417749937</v>
+        <v>0.03262688243782723</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06089250934872364</v>
+        <v>0.08677657095144556</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01558322527588077</v>
+        <v>0.03265726716063445</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0975228522619575</v>
+        <v>0.1333024671698849</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01550784662737519</v>
+        <v>0.03268959133383362</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0276132065295282</v>
+        <v>0.0221891782148541</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01175419810859754</v>
+        <v>0.03404375289748141</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02433339721237321</v>
+        <v>0.03972661512479569</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01660423188637434</v>
+        <v>0.03425822655971859</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0623995412650708</v>
+        <v>0.08718949897766892</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0163623865396748</v>
+        <v>0.03429013051866617</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09984548037784396</v>
+        <v>0.1350351612831451</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01628323895874395</v>
+        <v>0.03432407090052531</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02922765574255712</v>
+        <v>0.02145011576117513</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01231392182805456</v>
+        <v>0.03566488398783767</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02529346657685304</v>
+        <v>0.04020937422315907</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01739490959524931</v>
+        <v>0.03588957068160994</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06417654560448394</v>
+        <v>0.08856264747706138</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01714154780346884</v>
+        <v>0.0359229938766979</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1028154359590756</v>
+        <v>0.1373082440715925</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01705863129011271</v>
+        <v>0.03595855046721699</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0308322165970983</v>
+        <v>0.02269652884233792</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01287364554751159</v>
+        <v>0.03728601507819393</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02616117454945666</v>
+        <v>0.04077020372046705</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01818558730412428</v>
+        <v>0.03752091480350131</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06592244439043746</v>
+        <v>0.08948856124354473</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01792070906726288</v>
+        <v>0.03755585723472962</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1049316514334265</v>
+        <v>0.1382101506679829</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01783402362148147</v>
+        <v>0.03759303003390866</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03238049459402628</v>
+        <v>0.02192652196299026</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01343336926696861</v>
+        <v>0.03890714616855018</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02663464543843504</v>
+        <v>0.0409057332240458</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01897626501299925</v>
+        <v>0.03915225892539267</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06743615964640592</v>
+        <v>0.09005978507104068</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01869987033105692</v>
+        <v>0.03918872059276134</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1077930592286714</v>
+        <v>0.1396293162050724</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01860941595285023</v>
+        <v>0.03922750960060034</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03382609523421563</v>
+        <v>0.02213819962777991</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01399309298642564</v>
+        <v>0.04052827725890644</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02731200355203915</v>
+        <v>0.04171259234122146</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01976694272187422</v>
+        <v>0.04078360304728403</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06881661339586376</v>
+        <v>0.09166886375347091</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01947903159485096</v>
+        <v>0.04082158395079307</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1092985917725849</v>
+        <v>0.1412541758156168</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01938480828421899</v>
+        <v>0.04086198916729202</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03512262401854091</v>
+        <v>0.02432966634135461</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01455281670588267</v>
+        <v>0.0421494083492627</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02819137319852001</v>
+        <v>0.04208741067932022</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02055762043074918</v>
+        <v>0.0424149471691754</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07006272766228555</v>
+        <v>0.09180834208475722</v>
       </c>
       <c r="M91" t="n">
-        <v>0.020258192858645</v>
+        <v>0.04245444730882479</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1126471814929411</v>
+        <v>0.1430731646323722</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02016020061558775</v>
+        <v>0.0424964687339837</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03622368644787659</v>
+        <v>0.02249902660836216</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01511254042533969</v>
+        <v>0.04377053943961896</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02887087868612859</v>
+        <v>0.04212681784566823</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02134829813962416</v>
+        <v>0.04404629129106676</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0717734244691457</v>
+        <v>0.0927707648588213</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02103735412243904</v>
+        <v>0.04408731066685651</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1136377608175145</v>
+        <v>0.1429747177880948</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02093559294695651</v>
+        <v>0.04413094830067539</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03676264927546721</v>
+        <v>0.02264438493345028</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01544264822624553</v>
+        <v>0.04539167052997521</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0297486443231159</v>
+        <v>0.04262744344759167</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02213897584849912</v>
+        <v>0.04567763541295811</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07304762583991872</v>
+        <v>0.09384867686958495</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02181651538623307</v>
+        <v>0.04572017402488823</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1158692621740796</v>
+        <v>0.1448472704155404</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02171098527832527</v>
+        <v>0.04576542786736707</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03791512203209457</v>
+        <v>0.0227638458212668</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01623198786425374</v>
+        <v>0.04701280162033147</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0305227944177329</v>
+        <v>0.04258591709241671</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0229296535573741</v>
+        <v>0.04730897953484948</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07488425379807914</v>
+        <v>0.09403462291096978</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02259567665002711</v>
+        <v>0.04735303738291995</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1187406179904109</v>
+        <v>0.1453792576474649</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02248637760969403</v>
+        <v>0.04739990743405875</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03869815703338063</v>
+        <v>0.02385551377645941</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01679171158371077</v>
+        <v>0.04863393271068773</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03149145327823059</v>
+        <v>0.04309886838746953</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02372033126624906</v>
+        <v>0.04894032365674084</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07678223036710144</v>
+        <v>0.09492114777689764</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02337483791382115</v>
+        <v>0.04898590074095168</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1211507606942827</v>
+        <v>0.1459591146166244</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02326176994106279</v>
+        <v>0.04903438700075043</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03945267780396938</v>
+        <v>0.0229174933036759</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01735143530316779</v>
+        <v>0.05025506380104399</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03215274521285998</v>
+        <v>0.04316292694007627</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02451100897512403</v>
+        <v>0.0505716677786322</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0772404775704601</v>
+        <v>0.09490079626129022</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02415399917761519</v>
+        <v>0.0506187640989834</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1227986227134695</v>
+        <v>0.1465752764557748</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02403716227243155</v>
+        <v>0.05066886656744211</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04017855648537831</v>
+        <v>0.02495078173924056</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01791115902262482</v>
+        <v>0.05187619489140025</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03280479452987203</v>
+        <v>0.04307472235756311</v>
       </c>
       <c r="K97" t="n">
-        <v>0.025301686683999</v>
+        <v>0.05220301190052356</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07865791743162967</v>
+        <v>0.09516611315806928</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02493316044140923</v>
+        <v>0.05225162745701512</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1247831364757458</v>
+        <v>0.1480161782976723</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02481255460380031</v>
+        <v>0.05230334613413379</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04087566521912475</v>
+        <v>0.02494791754956037</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01847088274208184</v>
+        <v>0.0534973259817565</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03344572553751772</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02609236439287397</v>
+        <v>0.05383435602241492</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08043347197408454</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02571232170520327</v>
+        <v>0.05388449081504685</v>
       </c>
       <c r="N98" t="n">
-        <v>0.126603234408886</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02558794693516907</v>
+        <v>0.05393782570082548</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04154387614672614</v>
+        <v>0.0229302880962013</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01903060646153887</v>
+        <v>0.05511845707211276</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03447366254404807</v>
+        <v>0.04333275763263386</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02688304210174894</v>
+        <v>0.05546570014430627</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08156606322129922</v>
+        <v>0.09572924651480941</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02649148296899731</v>
+        <v>0.05551735417307856</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1283578489406645</v>
+        <v>0.1477287006274581</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02636333926653783</v>
+        <v>0.05557230526751716</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04218306140969991</v>
+        <v>0.02289745193377628</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01959033018099589</v>
+        <v>0.05673958816246902</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03488672985771406</v>
+        <v>0.04330280615850815</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02767371981062391</v>
+        <v>0.05709704426619764</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08295461319674835</v>
+        <v>0.09567257281408245</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02727064423279135</v>
+        <v>0.05715021753111029</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1300459124988557</v>
+        <v>0.1484566880200281</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02713873159790659</v>
+        <v>0.05720678483420884</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04279309314956346</v>
+        <v>0.02485040804299897</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02015005390045292</v>
+        <v>0.05836071925282528</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03558305178676666</v>
+        <v>0.04304592622730756</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02846439751949887</v>
+        <v>0.058728388388089</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08379804392390625</v>
+        <v>0.09565579007200797</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02804980549658538</v>
+        <v>0.05878308088914201</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1308663575112342</v>
+        <v>0.1482905352253955</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02791412392927535</v>
+        <v>0.05884126440090052</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04337384350783421</v>
+        <v>0.02479015540458307</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02070977761990995</v>
+        <v>0.05998185034318154</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03646075263945688</v>
+        <v>0.04306389413316793</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02925507522837384</v>
+        <v>0.06035973250998036</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08469527742624752</v>
+        <v>0.09528282739718541</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02882896676037942</v>
+        <v>0.06041594424717374</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1328181164055743</v>
+        <v>0.1470363372621101</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02868951626064411</v>
+        <v>0.0604757439675922</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04392518462602957</v>
+        <v>0.02471769299924226</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02126950133936697</v>
+        <v>0.06160298143353779</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03711795672403569</v>
+        <v>0.0428584861702251</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03004575293724881</v>
+        <v>0.06199107663187173</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0857452357272466</v>
+        <v>0.09475761389821427</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02960812802417346</v>
+        <v>0.06204880760520546</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1347001216096504</v>
+        <v>0.1466001891487218</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02946490859201287</v>
+        <v>0.06211022353428388</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04444698864566694</v>
+        <v>0.02363401980769023</v>
       </c>
       <c r="G104" t="n">
-        <v>0.021829225058824</v>
+        <v>0.06322411252389404</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03775278834875412</v>
+        <v>0.04293147863261491</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03083643064612378</v>
+        <v>0.06362242075376309</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08694684085037799</v>
+        <v>0.09488407868369403</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0303872892879675</v>
+        <v>0.06368167096323718</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1358113055512372</v>
+        <v>0.1458881859037804</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03024030092338163</v>
+        <v>0.06374470310097556</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04493912770826375</v>
+        <v>0.02354013481064064</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02238894877828103</v>
+        <v>0.06484524361425031</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03816337182186308</v>
+        <v>0.04298464781447324</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03162710835499875</v>
+        <v>0.06525376487565446</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08809901481911617</v>
+        <v>0.09406615086222411</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03116645055176153</v>
+        <v>0.06531453432126891</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1364506006581087</v>
+        <v>0.145506422545836</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03101569325475039</v>
+        <v>0.06537918266766725</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04540147395533742</v>
+        <v>0.0244370369888072</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02294867249773805</v>
+        <v>0.06646637470460656</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03894783145161364</v>
+        <v>0.04241977000993591</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03241778606387372</v>
+        <v>0.06688510899754581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08850067965693567</v>
+        <v>0.09450775954240401</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03194561181555557</v>
+        <v>0.06694739767930064</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1378169393580397</v>
+        <v>0.1449609940934382</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03179108558611915</v>
+        <v>0.06701366223435892</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04583389952840532</v>
+        <v>0.02332572532290358</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02350839621719507</v>
+        <v>0.06808750579496282</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03950429154625673</v>
+        <v>0.04223862151313877</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03320846377274869</v>
+        <v>0.06851645311943717</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08985075738731096</v>
+        <v>0.09401283383283324</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03272477307934961</v>
+        <v>0.06858026103733235</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1388092540788045</v>
+        <v>0.1454579955651371</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03256647791748791</v>
+        <v>0.06864814180105061</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04623627656898491</v>
+        <v>0.0232071987936435</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0240681199366521</v>
+        <v>0.06970863688531907</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04023087641404341</v>
+        <v>0.04244297861821765</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03399914148162366</v>
+        <v>0.07014779724132854</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09034817003371656</v>
+        <v>0.09288530284211119</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03350393434314365</v>
+        <v>0.07021312439536406</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1411264772481776</v>
+        <v>0.1441035219794823</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03334187024885667</v>
+        <v>0.07028262136774228</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0466084772185936</v>
+        <v>0.02208245638174058</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02462784365610913</v>
+        <v>0.07132976797567533</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04052571036322457</v>
+        <v>0.04193461761930843</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03478981919049862</v>
+        <v>0.07177914136321989</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09079183961962689</v>
+        <v>0.09252909567883733</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03428309560693769</v>
+        <v>0.07184598775339579</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1423675412939334</v>
+        <v>0.1443036683550239</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03411726258022543</v>
+        <v>0.07191710093443397</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04695037361874876</v>
+        <v>0.02395249706790856</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02518756737556615</v>
+        <v>0.07295089906603158</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04118691770205128</v>
+        <v>0.04181531481054691</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03558049689937359</v>
+        <v>0.07341048548511125</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09168068816851652</v>
+        <v>0.09224814145161123</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03506225687073173</v>
+        <v>0.07347885111142752</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1421313786438462</v>
+        <v>0.1429645297103118</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03489265491159418</v>
+        <v>0.07355158050112565</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04726183791096784</v>
+        <v>0.02381831983286109</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02574729109502318</v>
+        <v>0.07457203015638786</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04131262273877448</v>
+        <v>0.041486846486069</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03637117460824856</v>
+        <v>0.07504182960700262</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09211363770386</v>
+        <v>0.09134636926903225</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03584141813452577</v>
+        <v>0.07511171446945925</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1436169217256907</v>
+        <v>0.1413922010638957</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03566804724296294</v>
+        <v>0.07518606006781732</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04754274223676823</v>
+        <v>0.02368092365731185</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0263070148144802</v>
+        <v>0.07619316124674411</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04200094978164519</v>
+        <v>0.04135098894001046</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03716185231712353</v>
+        <v>0.07667317372889397</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09278961024913168</v>
+        <v>0.09092770823969995</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03662057939831981</v>
+        <v>0.07674457782749096</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1440231029672412</v>
+        <v>0.1415927774343255</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0364434395743317</v>
+        <v>0.07682053963450901</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04779689699124196</v>
+        <v>0.02354130752197456</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02686673853393723</v>
+        <v>0.07781429233710037</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04215002313891435</v>
+        <v>0.04130951846650721</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0379525300259985</v>
+        <v>0.07830451785078534</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09380752782780613</v>
+        <v>0.09099608747221369</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03739974066211384</v>
+        <v>0.07837744118552269</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1454488547962722</v>
+        <v>0.1398723538401512</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03721883190570047</v>
+        <v>0.07845501920120068</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04804528902659841</v>
+        <v>0.02240047040756288</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02742646225339426</v>
+        <v>0.07943542342745662</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04255796711883303</v>
+        <v>0.04066421135969508</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03874320773487347</v>
+        <v>0.0799358619726767</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09456631246335778</v>
+        <v>0.09045543607517303</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03817890192590788</v>
+        <v>0.0800103045435544</v>
       </c>
       <c r="N114" t="n">
-        <v>0.145793109640558</v>
+        <v>0.1403370252999227</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03799422423706923</v>
+        <v>0.08008949876789237</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04829095442731449</v>
+        <v>0.02325941129479049</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02798618597285128</v>
+        <v>0.08105655451781288</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04282290602965214</v>
+        <v>0.04061684391370989</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03953388544374844</v>
+        <v>0.08156720609456806</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09456488617926123</v>
+        <v>0.08930968315717744</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03895806318970192</v>
+        <v>0.08164316790158614</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1462547999278732</v>
+        <v>0.1381928868321897</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03876961656843798</v>
+        <v>0.08172397833458404</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04853380462399215</v>
+        <v>0.02111912916437107</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0285459096923083</v>
+        <v>0.08267768560816914</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04274296417962273</v>
+        <v>0.04026919242268751</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0403245631526234</v>
+        <v>0.08319855021645943</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09490217099899087</v>
+        <v>0.08946275782682636</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03973722445349596</v>
+        <v>0.08327603125961786</v>
       </c>
       <c r="N116" t="n">
-        <v>0.146032858085992</v>
+        <v>0.1374460334555022</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03954500889980674</v>
+        <v>0.08335845790127573</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04877375104723332</v>
+        <v>0.02198023024694627</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02910563341176533</v>
+        <v>0.0842988166985254</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04331626587699572</v>
+        <v>0.04032303318076376</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04111524086149837</v>
+        <v>0.08482989433835079</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09547708894602133</v>
+        <v>0.0883185891927192</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04051638571729</v>
+        <v>0.08490889461764958</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1474262165426891</v>
+        <v>0.1364025601884099</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04032040123117551</v>
+        <v>0.08499293746796741</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0490107051276399</v>
+        <v>0.02082761830378805</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02966535713122236</v>
+        <v>0.08591994778888165</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04314093543002219</v>
+        <v>0.03997868578392469</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04190591857037335</v>
+        <v>0.08646123846024215</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09518856204382697</v>
+        <v>0.08758041532156588</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04129554698108404</v>
+        <v>0.0865417579756813</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1478338077257388</v>
+        <v>0.1356685620494629</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04109579356254426</v>
+        <v>0.08662741703465909</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04924457829581384</v>
+        <v>0.02065550264344832</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03022508085067938</v>
+        <v>0.08754107887923791</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04353710955240848</v>
+        <v>0.03950764245833541</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04269659627924832</v>
+        <v>0.08809258258213351</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09553551231588228</v>
+        <v>0.08759313605323038</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04207470824487808</v>
+        <v>0.08817462133371301</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1474545640629157</v>
+        <v>0.1349780432821396</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04187118589391302</v>
+        <v>0.08826189660135078</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04947528198235711</v>
+        <v>0.02246713806450564</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03078480457013641</v>
+        <v>0.08916220996959416</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04313703169858714</v>
+        <v>0.03920263408069308</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04348727398812328</v>
+        <v>0.08972392670402488</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09603420827424403</v>
+        <v>0.08662906997610029</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04285386950867211</v>
+        <v>0.08980748469174475</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1485313069960795</v>
+        <v>0.1339657388483837</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04264657822528178</v>
+        <v>0.08989637616804246</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0497027276178716</v>
+        <v>0.02126577936553858</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03134452828959343</v>
+        <v>0.09078334105995042</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04332652074331242</v>
+        <v>0.03906944802962201</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04427795169699825</v>
+        <v>0.09135527082591623</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09533227898090305</v>
+        <v>0.0863010185956595</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04363303077246615</v>
+        <v>0.09144034804977647</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1478313032672152</v>
+        <v>0.1332514479128835</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04342197055665054</v>
+        <v>0.09153085573473414</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04992682663295925</v>
+        <v>0.02105468134512572</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03190425200905046</v>
+        <v>0.09240447215030669</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04349887473779353</v>
+        <v>0.03871387168374653</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04506862940587322</v>
+        <v>0.09298661494780759</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09569483113974744</v>
+        <v>0.08512178341739204</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04441219203626019</v>
+        <v>0.09307321140780819</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1473980182848523</v>
+        <v>0.1319550287746437</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0441973628880193</v>
+        <v>0.09316533530142582</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.050147490458222</v>
+        <v>0.01983709880184561</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03246397572850748</v>
+        <v>0.09402560324066295</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04325490546515114</v>
+        <v>0.03804169242169091</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04585930711474819</v>
+        <v>0.09461795906969896</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09591134564348958</v>
+        <v>0.0844041659467818</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04519135330005423</v>
+        <v>0.09470607476583991</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1478012283414444</v>
+        <v>0.1312963397326695</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04497275521938806</v>
+        <v>0.0947998148681175</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05036463052426178</v>
+        <v>0.01961628653427682</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03302369944796451</v>
+        <v>0.0956467343310192</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04339542470850599</v>
+        <v>0.03765869762207948</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04664998482362315</v>
+        <v>0.09624930319159032</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09508407083583087</v>
+        <v>0.08376096768931277</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04597051456384826</v>
+        <v>0.09633893812387163</v>
       </c>
       <c r="N124" t="n">
-        <v>0.147743426108868</v>
+        <v>0.1301952390859656</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04574814755075682</v>
+        <v>0.09643429443480918</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05057815826168052</v>
+        <v>0.01939549934099791</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03358342316742154</v>
+        <v>0.09726786542137546</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04302124425097879</v>
+        <v>0.03747067466353653</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04744066253249812</v>
+        <v>0.09788064731348167</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09511525506047269</v>
+        <v>0.08320499015046887</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04674967582764231</v>
+        <v>0.09797180148190336</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1476271042589997</v>
+        <v>0.1275715851335369</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04652353988212558</v>
+        <v>0.09806877400150087</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05078798510108015</v>
+        <v>0.02117799202058746</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03414314688687856</v>
+        <v>0.09888899651173171</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04283317587569024</v>
+        <v>0.03728341092468639</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04823134024137309</v>
+        <v>0.09951199143537304</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09450714666111645</v>
+        <v>0.08194903483573407</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04752883709143634</v>
+        <v>0.09960466483993509</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1472547554637159</v>
+        <v>0.1274452361743885</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04729893221349434</v>
+        <v>0.09970325356819254</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05099402247306259</v>
+        <v>0.01996701937162403</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03470287060633558</v>
+        <v>0.100510127602088</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04273203136576108</v>
+        <v>0.0369026937841533</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04902201795024806</v>
+        <v>0.1011433355572644</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09516199398146355</v>
+        <v>0.0814059032505923</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04830799835523038</v>
+        <v>0.1012375281979668</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1468288723948931</v>
+        <v>0.1262360505075251</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0480743245448631</v>
+        <v>0.1013377331348842</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05119618180822982</v>
+        <v>0.02076583595988679</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03526259432579262</v>
+        <v>0.1021312586924442</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04301862250431199</v>
+        <v>0.03613431062056162</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04981269565912303</v>
+        <v>0.1027746796791558</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09408204536521539</v>
+        <v>0.0804883969005275</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04908715961902441</v>
+        <v>0.1028703915559985</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1461519477244078</v>
+        <v>0.1242638864319516</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04884971687623186</v>
+        <v>0.1029722127015759</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05139437453718373</v>
+        <v>0.01855966653380241</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03582231804524964</v>
+        <v>0.1037523897828005</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0426937610744637</v>
+        <v>0.036083308555185</v>
       </c>
       <c r="K129" t="n">
-        <v>0.050603373367998</v>
+        <v>0.1044060238010471</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09416954915607334</v>
+        <v>0.07930926800330004</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04986632088281846</v>
+        <v>0.1045032549140302</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1462264741241366</v>
+        <v>0.1223486022466729</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04962510920760062</v>
+        <v>0.1046066922682676</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05158851209052626</v>
+        <v>0.02033493134653947</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03638204176470666</v>
+        <v>0.1053735208731567</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04265825885933693</v>
+        <v>0.03561579162341863</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05139405107687297</v>
+        <v>0.1060373679229385</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09372675369773883</v>
+        <v>0.07880785174747665</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0506454821466125</v>
+        <v>0.106136118272062</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1458549442659558</v>
+        <v>0.1220235743978878</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05040050153896938</v>
+        <v>0.1062411718349593</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05177850589885935</v>
+        <v>0.01909628964321664</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03694176548416369</v>
+        <v>0.106994651963513</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04251292764205238</v>
+        <v>0.03521675219089167</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05218472878574793</v>
+        <v>0.1076687120448298</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09375590733391326</v>
+        <v>0.07753448883482061</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05142464341040653</v>
+        <v>0.1077689816300937</v>
       </c>
       <c r="N131" t="n">
-        <v>0.144739850821742</v>
+        <v>0.1211845446512566</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05117589387033814</v>
+        <v>0.107875651401651</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05196426739278492</v>
+        <v>0.01884840066895265</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03750148920362071</v>
+        <v>0.1086157830538692</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04205857920573078</v>
+        <v>0.03459447489180024</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0529754064946229</v>
+        <v>0.1093000561667212</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09305925840829796</v>
+        <v>0.07720750462418247</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05220380467420058</v>
+        <v>0.1094018449881254</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1445836864633717</v>
+        <v>0.1193586787197026</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0519512862017069</v>
+        <v>0.1095101309683426</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05214570800290493</v>
+        <v>0.01859592366886621</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03806121292307774</v>
+        <v>0.1102369141442255</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04189602533349282</v>
+        <v>0.03445724436034044</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05376608420349788</v>
+        <v>0.1109314002886125</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09273905526459442</v>
+        <v>0.07544522447441263</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05298296593799461</v>
+        <v>0.1110347083461571</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1442889438627214</v>
+        <v>0.117574403764069</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05272667853307566</v>
+        <v>0.1111446105350343</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05232273915982126</v>
+        <v>0.01934351788807604</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03862093664253476</v>
+        <v>0.1118580452345818</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04192607780845921</v>
+        <v>0.03411334523070837</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05455676191237285</v>
+        <v>0.1125627444105039</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09259754624650396</v>
+        <v>0.07486597374436169</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05376212720178866</v>
+        <v>0.1126675717041889</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1430581156916676</v>
+        <v>0.1160601469451988</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05350207086444442</v>
+        <v>0.112779090101726</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05249527229413589</v>
+        <v>0.01709584257170085</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03918066036199179</v>
+        <v>0.113479176324938</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04154954841375071</v>
+        <v>0.03337106213710016</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05534743962124782</v>
+        <v>0.1141940885323953</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09173697969772801</v>
+        <v>0.07408807779288007</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05454128846558269</v>
+        <v>0.1143004350622206</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1427936946220867</v>
+        <v>0.1150443354239349</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05427746319581318</v>
+        <v>0.1144135696684177</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05266321883645074</v>
+        <v>0.01785755696485935</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03974038408144882</v>
+        <v>0.1151003074152943</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04156724893248796</v>
+        <v>0.0330386797137119</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05613811733012278</v>
+        <v>0.1158254326542866</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09085960396196802</v>
+        <v>0.07312986197881827</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05532044972937672</v>
+        <v>0.1159332984202523</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1412981733258553</v>
+        <v>0.1132553963611204</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05505285552718193</v>
+        <v>0.1160480492351094</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05282649021736777</v>
+        <v>0.01663332031267026</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04030010780090584</v>
+        <v>0.1167214385056506</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04147999114779174</v>
+        <v>0.03262448259473968</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05692879503899775</v>
+        <v>0.117456776776178</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09066766738292528</v>
+        <v>0.07210965166102676</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05609961099317076</v>
+        <v>0.117566161778284</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1412740444748498</v>
+        <v>0.1117217569175984</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0558282478585507</v>
+        <v>0.117682528801801</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05298499786748885</v>
+        <v>0.0164277918602523</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04085983152036286</v>
+        <v>0.1183425695960068</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04118858684278273</v>
+        <v>0.03203675541437968</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05771947274787272</v>
+        <v>0.1190881208980694</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08996341830430124</v>
+        <v>0.07164577219835611</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0568787722569648</v>
+        <v>0.1191990251363158</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1407238007409467</v>
+        <v>0.1107718442542119</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05660364018991946</v>
+        <v>0.1193170083684927</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05313865321741595</v>
+        <v>0.01824563085272417</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0414195552398199</v>
+        <v>0.1199637006863631</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04079384780058166</v>
+        <v>0.03208378280682794</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05851015045674769</v>
+        <v>0.1207194650199607</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08934910506979732</v>
+        <v>0.07075654894965672</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05765793352075885</v>
+        <v>0.1208318884943475</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1391499347960226</v>
+        <v>0.1093340855318037</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05737903252128821</v>
+        <v>0.1209514879351844</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05328736769775098</v>
+        <v>0.01609149653520459</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04197927895927692</v>
+        <v>0.1215848317767193</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04059658580430923</v>
+        <v>0.03167384940628061</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05930082816562265</v>
+        <v>0.1223508091418521</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08882697602311487</v>
+        <v>0.06946030727377911</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05843709478455288</v>
+        <v>0.1224647518523792</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1383549393119539</v>
+        <v>0.1080369079112172</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05815442485265698</v>
+        <v>0.1225859675018761</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05343105273909592</v>
+        <v>0.01697004815281226</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04253900267873394</v>
+        <v>0.1232059628670756</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04079761263708616</v>
+        <v>0.03151523984693377</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06009150587449762</v>
+        <v>0.1239821532637435</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08909927950795535</v>
+        <v>0.06887537252957376</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05921625604834692</v>
+        <v>0.1240976152104109</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1379413069606171</v>
+        <v>0.1070087385532952</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05892981718402573</v>
+        <v>0.1242204470685678</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05356961977205266</v>
+        <v>0.01788594495066592</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04309872639819097</v>
+        <v>0.1248270939574318</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04029774008203314</v>
+        <v>0.03091623876298355</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06088218358337259</v>
+        <v>0.1256134973856348</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08846826386802009</v>
+        <v>0.06892007007589118</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05999541731214095</v>
+        <v>0.1257304785684426</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1365115304138887</v>
+        <v>0.1063780046188807</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0597052095153945</v>
+        <v>0.1258549266352595</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05370298022722315</v>
+        <v>0.01684384617388428</v>
       </c>
       <c r="G143" t="n">
-        <v>0.043658450117648</v>
+        <v>0.1264482250477881</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04009777992227093</v>
+        <v>0.03078513078862606</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06167286129224756</v>
+        <v>0.1272448415075262</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08793617744701052</v>
+        <v>0.06801272527158186</v>
       </c>
       <c r="M143" t="n">
-        <v>0.060774578575935</v>
+        <v>0.1273633419264744</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1360681023436452</v>
+        <v>0.1056731332688167</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06048060184676325</v>
+        <v>0.1274894062019511</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0538310455352093</v>
+        <v>0.01584102839768931</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04421817383710502</v>
+        <v>0.1280693561381444</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04019854394092018</v>
+        <v>0.03093020055805738</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06246353900112254</v>
+        <v>0.1288761856294175</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08750526858862803</v>
+        <v>0.06777166347549624</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06155373983972903</v>
+        <v>0.1289962052845061</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1360135154217632</v>
+        <v>0.1059225516639464</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06125599417813202</v>
+        <v>0.1291238857686428</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05395372712661309</v>
+        <v>0.01684852882394404</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04477789755656205</v>
+        <v>0.1296904872285006</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03960084392110166</v>
+        <v>0.03093333383579107</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06325421670999749</v>
+        <v>0.1305075297513089</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08647778563657402</v>
+        <v>0.06867160612767545</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06233290110352307</v>
+        <v>0.1306290686425378</v>
       </c>
       <c r="N145" t="n">
-        <v>0.134050262320119</v>
+        <v>0.1059076459545932</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06203138650950078</v>
+        <v>0.1307583653353345</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05407093643203641</v>
+        <v>0.01586256834114632</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04533762127601907</v>
+        <v>0.1313116183188569</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03960549164593606</v>
+        <v>0.0311494706961685</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06404489441887247</v>
+        <v>0.1321388738732003</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08595597693454987</v>
+        <v>0.0685043741082344</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0631120623673171</v>
+        <v>0.1322619320005695</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1330808357105892</v>
+        <v>0.1060536386806031</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06280677884086953</v>
+        <v>0.1323928449020262</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05418258488208118</v>
+        <v>0.01788280458966206</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0458973449954761</v>
+        <v>0.1329327494092131</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03931329889854411</v>
+        <v>0.03077700673283053</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06483557212774743</v>
+        <v>0.1337702179950916</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08594209082625701</v>
+        <v>0.06856248109489219</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06389122363111115</v>
+        <v>0.1338947953586013</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1323077282650503</v>
+        <v>0.1053391433253424</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0635821711722383</v>
+        <v>0.1340273244687178</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05428858390734939</v>
+        <v>0.01690889520985714</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04645706871493312</v>
+        <v>0.1345538804995694</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03902507746204648</v>
+        <v>0.03121533319387425</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06562624983662241</v>
+        <v>0.135401562116983</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08503837565539679</v>
+        <v>0.06874458054695584</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06467038489490519</v>
+        <v>0.135527658716633</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1323334326553787</v>
+        <v>0.1064620710713876</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06435756350360705</v>
+        <v>0.1356618040354095</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05438884493844294</v>
+        <v>0.01694049784209745</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04701679243439014</v>
+        <v>0.1361750115899256</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03904163911956393</v>
+        <v>0.03116384132739677</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06641692754549737</v>
+        <v>0.1370329062388743</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08404707976567066</v>
+        <v>0.06894932592373229</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06544954615869922</v>
+        <v>0.1371605220746647</v>
       </c>
       <c r="N149" t="n">
-        <v>0.130660441553451</v>
+        <v>0.1053203331013149</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06513295583497582</v>
+        <v>0.1372962836021012</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05448327940596373</v>
+        <v>0.01697727012674889</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04757651615384718</v>
+        <v>0.1377961426802819</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03886379565421713</v>
+        <v>0.0309219223814952</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06720760525437235</v>
+        <v>0.1386642503607657</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08367045150078001</v>
+        <v>0.06817537068452861</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06622870742249326</v>
+        <v>0.1387933854326964</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1295912476311436</v>
+        <v>0.1058118405977008</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06590834816634457</v>
+        <v>0.1389307631687929</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05457179874051375</v>
+        <v>0.01801886970417735</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0481362398733042</v>
+        <v>0.1394172737706381</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03869235884912685</v>
+        <v>0.0313889676042666</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06799828296324732</v>
+        <v>0.1402955944826571</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0832107392044262</v>
+        <v>0.06862136828865184</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0670078686862873</v>
+        <v>0.1404262487907281</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1294283435603331</v>
+        <v>0.1056345047431215</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06668374049771333</v>
+        <v>0.1405652427354846</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0546543143726949</v>
+        <v>0.01606495421474871</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04869596359276122</v>
+        <v>0.1410384048609944</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03842814048741376</v>
+        <v>0.03126436824380809</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06878896067212227</v>
+        <v>0.1419269386045484</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08347019122031063</v>
+        <v>0.06908597219540893</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06778702995008135</v>
+        <v>0.1420591121487599</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1282742220128959</v>
+        <v>0.1066862367201536</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06745913282908209</v>
+        <v>0.1421997223021763</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05473073773310913</v>
+        <v>0.01611518129882888</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04925568731221825</v>
+        <v>0.1426595359513507</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03847195235219857</v>
+        <v>0.03114751554821678</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06957963838099725</v>
+        <v>0.1435582827264398</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08295105589213472</v>
+        <v>0.06876783586410687</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06856619121387537</v>
+        <v>0.1436919755067916</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1274313756607086</v>
+        <v>0.1061649477113732</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06823452516045085</v>
+        <v>0.1438342018688679</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05480098025235834</v>
+        <v>0.01616920859678373</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04981541103167528</v>
+        <v>0.1442806670417069</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03832460622660201</v>
+        <v>0.03163780076558974</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07037031608987221</v>
+        <v>0.1451896268483312</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08205558156359988</v>
+        <v>0.06956561275405274</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06934535247766942</v>
+        <v>0.1453248388648233</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1275022971756475</v>
+        <v>0.1072685488993569</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06900991749181962</v>
+        <v>0.1454686814355596</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05486495336104452</v>
+        <v>0.01822669374897916</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0503751347511323</v>
+        <v>0.1459017981320632</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0380869138937448</v>
+        <v>0.0314346151440241</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07116099379874719</v>
+        <v>0.1468209709702225</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08198601657840748</v>
+        <v>0.0694779563245535</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07012451374146346</v>
+        <v>0.146957702222855</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1266894792295893</v>
+        <v>0.1069949514666809</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06978530982318837</v>
+        <v>0.1471031610022513</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05492256848976954</v>
+        <v>0.01829368787265106</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05093485847058933</v>
+        <v>0.1475229292224195</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03785968713674764</v>
+        <v>0.03183734993161691</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07195167150762216</v>
+        <v>0.1484523150921139</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08204460928025892</v>
+        <v>0.06930352003491616</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0709036750052575</v>
+        <v>0.1485905655808868</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1249954144944104</v>
+        <v>0.1076420665959216</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07056070215455713</v>
+        <v>0.148737640568943</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05497373706913536</v>
+        <v>0.01741129539364392</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05149458219004635</v>
+        <v>0.1491440603127757</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03774373773873124</v>
+        <v>0.03197730536443941</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07274234921649712</v>
+        <v>0.1500836592140052</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08083360801285561</v>
+        <v>0.07049485353608015</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07168283626905153</v>
+        <v>0.1502234289389185</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1242225956419872</v>
+        <v>0.1089676361161062</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07133609448592589</v>
+        <v>0.1503721201356346</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05501837052974391</v>
+        <v>0.01857839309638522</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05205430590950338</v>
+        <v>0.150765191403132</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03753703806572516</v>
+        <v>0.03211440272739284</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0735330269253721</v>
+        <v>0.1517150033358966</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08054738444276358</v>
+        <v>0.07049829479398839</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07246199753284557</v>
+        <v>0.1518562922969502</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1238579181572954</v>
+        <v>0.1095133775256368</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07211148681729465</v>
+        <v>0.1520065997023263</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05505638030219714</v>
+        <v>0.01878464596983566</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0526140296289604</v>
+        <v>0.1523863224934882</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03783489713892574</v>
+        <v>0.03223288133890155</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07432370463424706</v>
+        <v>0.1533463474577879</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08097290309632879</v>
+        <v>0.07078559034869911</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07324115879663962</v>
+        <v>0.1534891556549819</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1223769149661928</v>
+        <v>0.1102506496327965</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0728868791486634</v>
+        <v>0.153641079269018</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05508767781709693</v>
+        <v>0.01901971900295593</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05317375334841743</v>
+        <v>0.1540074535838445</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0374369397303165</v>
+        <v>0.03291436444829197</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07511438234312202</v>
+        <v>0.1549776915796793</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08010918814131951</v>
+        <v>0.07251609138668291</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07402032006043364</v>
+        <v>0.1551220190130136</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1224799572539682</v>
+        <v>0.1114163960811063</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07366227148003217</v>
+        <v>0.1552755588357097</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0551121745050453</v>
+        <v>0.01727327718470672</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05373347706787445</v>
+        <v>0.1556285846742007</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03754286998863601</v>
+        <v>0.03294047530489062</v>
       </c>
       <c r="K161" t="n">
-        <v>0.075905060051997</v>
+        <v>0.1566090357015707</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08065548905113729</v>
+        <v>0.07334914909441015</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07479948132422769</v>
+        <v>0.1567548823710454</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1219678086717052</v>
+        <v>0.1121475605140871</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07443766381140093</v>
+        <v>0.1569100384024014</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05512978179664409</v>
+        <v>0.01753498550404872</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05429320078733148</v>
+        <v>0.157249715764557</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03745239206262291</v>
+        <v>0.03369283715802394</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07669573776087196</v>
+        <v>0.158240379823462</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08031105529918375</v>
+        <v>0.07434411465835128</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07557864258802172</v>
+        <v>0.1583877457290771</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1202412328704874</v>
+        <v>0.11378108657526</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07521305614276969</v>
+        <v>0.1585445179690931</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05514041112249531</v>
+        <v>0.01879450894994263</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05485292450678851</v>
+        <v>0.1588708468549132</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03726521010101579</v>
+        <v>0.03405307325701845</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07748641546974694</v>
+        <v>0.1598717239453534</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07937513635886048</v>
+        <v>0.07516033926497681</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07635780385181576</v>
+        <v>0.1600206090871088</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1191009935013984</v>
+        <v>0.1154539179081459</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07598844847413845</v>
+        <v>0.1601789975357847</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05514397391320082</v>
+        <v>0.01804151251134914</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05541264822624553</v>
+        <v>0.1604919779452695</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03708102825255329</v>
+        <v>0.03430280685120062</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0782770931786219</v>
+        <v>0.1615030680672448</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07974698170356903</v>
+        <v>0.07645717410075709</v>
       </c>
       <c r="M164" t="n">
-        <v>0.0771369651156098</v>
+        <v>0.1616534724451405</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1192478542155216</v>
+        <v>0.1171029981562656</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0767638408055072</v>
+        <v>0.1618134771024764</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05514397391320082</v>
+        <v>0.01826566117722895</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05541264822624553</v>
+        <v>0.1621131090356258</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03699955066597399</v>
+        <v>0.0350236611898969</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07906777088749688</v>
+        <v>0.1631344121891361</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07952584080671102</v>
+        <v>0.07739397035216267</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07791612637940384</v>
+        <v>0.1632863358031723</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1172825786639408</v>
+        <v>0.1192652709631403</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07753923313687597</v>
+        <v>0.1634479566691681</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05422818383788601</v>
+        <v>0.01845897225379158</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05541237969778151</v>
+        <v>0.163734240125982</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03722048149001653</v>
+        <v>0.0351972595224338</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07985844859637185</v>
+        <v>0.1647657563110275</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07921096314168805</v>
+        <v>0.07743007920566392</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07869528764319787</v>
+        <v>0.164919199161204</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1172059304977395</v>
+        <v>0.1208776799722909</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07831462546824472</v>
+        <v>0.1650824362358598</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05332252137460124</v>
+        <v>0.02064085869935171</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0554121111693175</v>
+        <v>0.1653553712163383</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03674352487341953</v>
+        <v>0.03572364469205846</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0806491263052468</v>
+        <v>0.1663971004329189</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07920159818190167</v>
+        <v>0.07885595212564847</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07947444890699192</v>
+        <v>0.1665520625192357</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1156186733680013</v>
+        <v>0.1215118549527324</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07909001779961349</v>
+        <v>0.1667169158025515</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05242743799576828</v>
+        <v>0.01881832980612753</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05541184264085347</v>
+        <v>0.1669765023066946</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03696838496492157</v>
+        <v>0.03573991349351491</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08143980401412178</v>
+        <v>0.1680284445548102</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07909699540075354</v>
+        <v>0.07895579361916394</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08025361017078596</v>
+        <v>0.1681849258772674</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1158215709258097</v>
+        <v>0.1225979325506784</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07986541013098225</v>
+        <v>0.1683513953692432</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0515433851739255</v>
+        <v>0.02099171343177536</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05541157411238946</v>
+        <v>0.1685976333970508</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0368947659132613</v>
+        <v>0.03644860945204938</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08223048172299674</v>
+        <v>0.1696597886767016</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07799640427164517</v>
+        <v>0.0803387846218781</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08103277143458</v>
+        <v>0.1698177892352992</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1141153868222485</v>
+        <v>0.1229577068339596</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08064080246235102</v>
+        <v>0.1699858749359348</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05067081438149422</v>
+        <v>0.02016133743395153</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05541130558392544</v>
+        <v>0.1702187644874071</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03692237186717731</v>
+        <v>0.03675031553350327</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08302115943187172</v>
+        <v>0.1712911327985929</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07829907426797819</v>
+        <v>0.08100621463650018</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08181193269837403</v>
+        <v>0.1714506525933309</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1135008847084009</v>
+        <v>0.1248931781399893</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08141619479371977</v>
+        <v>0.1716203545026265</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0498101770909349</v>
+        <v>0.02032752967031232</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05541103705546143</v>
+        <v>0.1718398955777633</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03645090697540823</v>
+        <v>0.03674561470371804</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08381183714074669</v>
+        <v>0.1729224769204843</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07770425486315419</v>
+        <v>0.08165937316573946</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08259109396216807</v>
+        <v>0.1730835159513626</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1117788282353508</v>
+        <v>0.1255063468061813</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08219158712508852</v>
+        <v>0.1732548340693182</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04896192477467137</v>
+        <v>0.01949061799851407</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0554107685269974</v>
+        <v>0.1734610266681196</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03658007538669265</v>
+        <v>0.03693508992853502</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08460251484962165</v>
+        <v>0.1745538210423757</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07821119553057479</v>
+        <v>0.08219954971230528</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08337025522596211</v>
+        <v>0.1747163793093943</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1114499810541816</v>
+        <v>0.1257992131699489</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08296697945645728</v>
+        <v>0.1748893136360099</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04812650890523795</v>
+        <v>0.0196509302762131</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05541049999853339</v>
+        <v>0.1750821577584758</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03660958124976924</v>
+        <v>0.0373193241737957</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08539319255849663</v>
+        <v>0.176185165164267</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07741914574364148</v>
+        <v>0.08272803377890692</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08414941648975616</v>
+        <v>0.176349242667426</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1110151068159771</v>
+        <v>0.1271737775687057</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08374237178782604</v>
+        <v>0.1765237932027016</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04730438095505797</v>
+        <v>0.02180879436106569</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05541023147006938</v>
+        <v>0.1767032888488321</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03653912871337654</v>
+        <v>0.03759890040534142</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08618387026737159</v>
+        <v>0.1778165092861584</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07702735497575594</v>
+        <v>0.08264611486825363</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08492857775355019</v>
+        <v>0.1779821060254577</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1099749691718206</v>
+        <v>0.1282320403398651</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0845177641191948</v>
+        <v>0.1781582727693932</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04649599239659187</v>
+        <v>0.01996453811072819</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05540996294160536</v>
+        <v>0.1783244199391883</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0365684219262532</v>
+        <v>0.03817440158901361</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08697454797624656</v>
+        <v>0.1794478534080498</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07723507270031973</v>
+        <v>0.08395508248305472</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08570773901734423</v>
+        <v>0.1796149693834895</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1085303317727959</v>
+        <v>0.1295760018208408</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08529315645056357</v>
+        <v>0.1797927523360849</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04570179470226585</v>
+        <v>0.0201184893828569</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05540969441314134</v>
+        <v>0.1799455510295446</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03639716503713784</v>
+        <v>0.03814641069065372</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08776522568512153</v>
+        <v>0.1810791975299411</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07724154839073444</v>
+        <v>0.08385622612601956</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08648690028113826</v>
+        <v>0.1812478327415212</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1083819582699864</v>
+        <v>0.1300076623490461</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08606854878193233</v>
+        <v>0.1814272319027766</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04492223934460957</v>
+        <v>0.02127097603510812</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05540942588467732</v>
+        <v>0.1815666821199008</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03642506219476907</v>
+        <v>0.03841551067610309</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08855590339399649</v>
+        <v>0.1827105416518325</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07724603152040163</v>
+        <v>0.08475083529985736</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0872660615449323</v>
+        <v>0.1828806960995529</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1075306123144759</v>
+        <v>0.1314290222618946</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08684394111330108</v>
+        <v>0.1830617114694683</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04415777779604864</v>
+        <v>0.02242852662126026</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0554091573562133</v>
+        <v>0.1831878132102571</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03635181754788548</v>
+        <v>0.03888464675712816</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08934658110287147</v>
+        <v>0.1843418857737238</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07624777156272294</v>
+        <v>0.08554372031117777</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08804522280872634</v>
+        <v>0.1845135594575847</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1063770575573477</v>
+        <v>0.1324452838587762</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08761933344466984</v>
+        <v>0.1846961910361599</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04340886152904348</v>
+        <v>0.0205941955401502</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05540888882774929</v>
+        <v>0.1848089443006134</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03627713524522572</v>
+        <v>0.03886909000116372</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09013725881174643</v>
+        <v>0.1859732298956152</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07654601799109989</v>
+        <v>0.08626906796591713</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08882438407252037</v>
+        <v>0.1861464228156164</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1047220576496856</v>
+        <v>0.1327088127304656</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0883947257760386</v>
+        <v>0.1863306706028516</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04267594201602309</v>
+        <v>0.02276235292602574</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05540862029928526</v>
+        <v>0.1864300753909696</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03590071943552839</v>
+        <v>0.03926325935218622</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09092793652062141</v>
+        <v>0.1876045740175065</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07644002027893418</v>
+        <v>0.08631766129977847</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08960354533631441</v>
+        <v>0.1877792861736481</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1032663762425731</v>
+        <v>0.1340112538821133</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08917011810740735</v>
+        <v>0.1879651501695433</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04195947072951171</v>
+        <v>0.02092736676260319</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05540835177082125</v>
+        <v>0.1880512064813259</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03592227426753206</v>
+        <v>0.03945714048523358</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09171861422949638</v>
+        <v>0.1892359181393979</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07582902789962731</v>
+        <v>0.08786734893054862</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09038270660010846</v>
+        <v>0.1894121495316798</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1033107769870938</v>
+        <v>0.1358182450450069</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08994551043877612</v>
+        <v>0.189599629736235</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04125989914193759</v>
+        <v>0.02308360503359892</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05540808324235724</v>
+        <v>0.1896723375716821</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03604150388997543</v>
+        <v>0.03974071907534382</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09250929193837133</v>
+        <v>0.1908672622612892</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07561229032658084</v>
+        <v>0.0883959794760143</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0911618678639025</v>
+        <v>0.1910450128897115</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1024560235343313</v>
+        <v>0.1359954239504341</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09072090277014488</v>
+        <v>0.1912341093029267</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04057767872576118</v>
+        <v>0.02322543572272928</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05540781471389322</v>
+        <v>0.1912934686620384</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03585811245159704</v>
+        <v>0.04030398079755489</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09329996964724631</v>
+        <v>0.1924986063831806</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07538905703319648</v>
+        <v>0.08858140155396232</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09194102912769653</v>
+        <v>0.1926778762477433</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1012028795353691</v>
+        <v>0.1374084283296826</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09149629510151365</v>
+        <v>0.1928685888696184</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03991326095341446</v>
+        <v>0.02134722681371061</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05540754618542919</v>
+        <v>0.1929145997523947</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03587180410113555</v>
+        <v>0.04043691132690475</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09409064735612127</v>
+        <v>0.194129950505072</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07585857749287575</v>
+        <v>0.08890146378217947</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09272019039149057</v>
+        <v>0.194310739605775</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1004521086412908</v>
+        <v>0.13842289591404</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0922716874328824</v>
+        <v>0.19450306843631</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03926709729741575</v>
+        <v>0.02344334629025926</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05540727765696518</v>
+        <v>0.1945357308427509</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03578228298732955</v>
+        <v>0.04042949633843138</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09488132506499625</v>
+        <v>0.1957612946269633</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07562010117902021</v>
+        <v>0.08943401477845256</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09349935165528461</v>
+        <v>0.1959436029638067</v>
       </c>
       <c r="N185" t="n">
-        <v>0.09960447450318</v>
+        <v>0.138904464434794</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09304707976425115</v>
+        <v>0.1961375480030017</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0386396392301962</v>
+        <v>0.02351093289862714</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05540700912850117</v>
+        <v>0.1961568619331072</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03568925325891766</v>
+        <v>0.04087172150717271</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09567200277387122</v>
+        <v>0.1973926387488547</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07447287756503146</v>
+        <v>0.08975690316056834</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09427851291907866</v>
+        <v>0.1975764663218385</v>
       </c>
       <c r="N186" t="n">
-        <v>0.09806074077212035</v>
+        <v>0.1383187716232323</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09382247209561992</v>
+        <v>0.1977720275696934</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03803133822421631</v>
+        <v>0.02257147100710344</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05540674060003715</v>
+        <v>0.1977779930234634</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03539241906463848</v>
+        <v>0.04077936581391016</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09646268048274619</v>
+        <v>0.1990239828707461</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07451615612431117</v>
+        <v>0.08979609235957259</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09505767418287268</v>
+        <v>0.1992093296798702</v>
       </c>
       <c r="N187" t="n">
-        <v>0.09782167109919537</v>
+        <v>0.1397927223891776</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09459786442698867</v>
+        <v>0.1994065071363851</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03744264575191135</v>
+        <v>0.02163068957855864</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05540647207157313</v>
+        <v>0.1993991241138197</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03519148455323068</v>
+        <v>0.04118446963472618</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09725335819162116</v>
+        <v>0.2006553269926374</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0743491863302608</v>
+        <v>0.0900285130347982</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09583683544666673</v>
+        <v>0.2008421930379019</v>
       </c>
       <c r="N188" t="n">
-        <v>0.09628802913548856</v>
+        <v>0.1403531547779538</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09537325675835744</v>
+        <v>0.2010409867030768</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03687401328579307</v>
+        <v>0.02368856788641074</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05540620354310911</v>
+        <v>0.201020255204176</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03498615387343279</v>
+        <v>0.04098722277876332</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09804403590049612</v>
+        <v>0.2022866711145288</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07377121765628206</v>
+        <v>0.09025574468667821</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09661599671046077</v>
+        <v>0.2024750563959336</v>
       </c>
       <c r="N189" t="n">
-        <v>0.09536057853208368</v>
+        <v>0.140005555171847</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0961486490897262</v>
+        <v>0.2026754662697685</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03632404878574874</v>
+        <v>0.02274508520407771</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0554059350146451</v>
+        <v>0.2026413862945322</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03497613117398347</v>
+        <v>0.04118758839195062</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09883471360937109</v>
+        <v>0.2039180152364202</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07338149957577642</v>
+        <v>0.09097770579512862</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0973951579742548</v>
+        <v>0.2041079197539653</v>
       </c>
       <c r="N190" t="n">
-        <v>0.09474008294006409</v>
+        <v>0.1409497971130587</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09692404142109497</v>
+        <v>0.2043099458364601</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03578214264895713</v>
+        <v>0.02180022080497748</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05540566648618108</v>
+        <v>0.2042625173848885</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03506112060362132</v>
+        <v>0.04108552962021712</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09962539131824606</v>
+        <v>0.2055493593583115</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07337928156214557</v>
+        <v>0.09109431484006544</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09817431923804883</v>
+        <v>0.2057407831119971</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09312730601051356</v>
+        <v>0.1414857541437901</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09769943375246372</v>
+        <v>0.2059444254031518</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03524690283530876</v>
+        <v>0.02285395396252808</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05540539795771706</v>
+        <v>0.2058836484752447</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03464082631108498</v>
+        <v>0.04148100960949183</v>
       </c>
       <c r="K192" t="n">
-        <v>0.100416069027121</v>
+        <v>0.2071807034802029</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07306381308879106</v>
+        <v>0.09090549030140468</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09895348050184287</v>
+        <v>0.2073736464700288</v>
       </c>
       <c r="N192" t="n">
-        <v>0.09342301139451553</v>
+        <v>0.1406132998062425</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09847482608383248</v>
+        <v>0.2075789049698435</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0347187808173107</v>
+        <v>0.02190626395014741</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05540512942925304</v>
+        <v>0.207504779565601</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03461190720862206</v>
+        <v>0.04157399150570379</v>
       </c>
       <c r="K193" t="n">
-        <v>0.101206746735996</v>
+        <v>0.2088120476020942</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07313084420882185</v>
+        <v>0.0914111506590623</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09973264176563691</v>
+        <v>0.2090065098280605</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09191030940260236</v>
+        <v>0.1412323076426173</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09925021841520124</v>
+        <v>0.2092133845365352</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03419822806739999</v>
+        <v>0.02195713004125352</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05540486090078903</v>
+        <v>0.2091259106559572</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03457091726722586</v>
+        <v>0.04146443845478205</v>
       </c>
       <c r="K194" t="n">
-        <v>0.101997424444871</v>
+        <v>0.2104433917239856</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07207623992599765</v>
+        <v>0.0919112143929543</v>
       </c>
       <c r="M194" t="n">
-        <v>0.100511803029431</v>
+        <v>0.2106393731860922</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09056930729822427</v>
+        <v>0.1413426511951159</v>
       </c>
       <c r="O194" t="n">
-        <v>0.10002561074657</v>
+        <v>0.2108478641032269</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03368569605803708</v>
+        <v>0.02300653150926431</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05540459237232501</v>
+        <v>0.2107470417463135</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03431842592779351</v>
+        <v>0.04145231360265562</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1027881021537459</v>
+        <v>0.2120747358458769</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0719008105564041</v>
+        <v>0.09210559998299672</v>
       </c>
       <c r="M195" t="n">
-        <v>0.101290964293225</v>
+        <v>0.2122722365441239</v>
       </c>
       <c r="N195" t="n">
-        <v>0.09030241017493323</v>
+        <v>0.1413442040059395</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1008010030779388</v>
+        <v>0.2124823436699185</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03318163626166075</v>
+        <v>0.02305444762759778</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05540432384386099</v>
+        <v>0.2123681728366698</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03445501167670614</v>
+        <v>0.04183758009525354</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1035787798626209</v>
+        <v>0.2137060799677684</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0721053805626882</v>
+        <v>0.0921942259091055</v>
       </c>
       <c r="M196" t="n">
-        <v>0.102070125557019</v>
+        <v>0.2139050999021557</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08861208112337632</v>
+        <v>0.1416368396172896</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1015763954093075</v>
+        <v>0.2141168232366102</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03268650015077532</v>
+        <v>0.02210085766967188</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05540405531539697</v>
+        <v>0.213989303927026</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03398125300034494</v>
+        <v>0.04172020107850484</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1043694575714959</v>
+        <v>0.2153374240896597</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07109077440749698</v>
+        <v>0.09257701065119667</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1028492868208131</v>
+        <v>0.2155379632601874</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08740078323420042</v>
+        <v>0.1419204315713674</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1023517877406763</v>
+        <v>0.2157513028033019</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03220073919781914</v>
+        <v>0.0241457409089046</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05540378678693296</v>
+        <v>0.2156104350173823</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03409772838509112</v>
+        <v>0.04180013969833855</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1051601352803708</v>
+        <v>0.2169687682115511</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07105781655347751</v>
+        <v>0.09265387268918621</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1036284480846071</v>
+        <v>0.2171708266182191</v>
       </c>
       <c r="N198" t="n">
-        <v>0.08707097959805238</v>
+        <v>0.1425948534103744</v>
       </c>
       <c r="O198" t="n">
-        <v>0.103127180072045</v>
+        <v>0.2173857823699936</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03172480487525271</v>
+        <v>0.0241890766187139</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05540351825846895</v>
+        <v>0.2172315661077385</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03380501631732588</v>
+        <v>0.0417773591006837</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1059508129892458</v>
+        <v>0.2186001123334424</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07020733146327679</v>
+        <v>0.09302473050299009</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1044076093484012</v>
+        <v>0.2188036899762509</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0855251333055792</v>
+        <v>0.1425599786765117</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1039025724034138</v>
+        <v>0.2190202619366853</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03125914865551645</v>
+        <v>0.02423084407251774</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05540324973000492</v>
+        <v>0.2188526971980948</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03360369528343038</v>
+        <v>0.0421518224314693</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1067414906981208</v>
+        <v>0.2202314564553338</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07024014359954195</v>
+        <v>0.09228950257252438</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1051867706121952</v>
+        <v>0.2204365533342826</v>
       </c>
       <c r="N200" t="n">
-        <v>0.0840657074474277</v>
+        <v>0.1438156809119809</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1046779647347826</v>
+        <v>0.2206547415033769</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03080422201111137</v>
+        <v>0.0242710225437341</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05540298120154091</v>
+        <v>0.220473828288451</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03309434376978582</v>
+        <v>0.04192349283662442</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1075321684069958</v>
+        <v>0.2218628005772251</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06925707742491991</v>
+        <v>0.09294810737770501</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1059659318759892</v>
+        <v>0.2220694166923143</v>
       </c>
       <c r="N201" t="n">
-        <v>0.08429516511424495</v>
+        <v>0.1430618336589831</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1054533570661513</v>
+        <v>0.2222892210700687</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03036047641447748</v>
+        <v>0.02230959130578095</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05540271267307689</v>
+        <v>0.2220949593788073</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03327754026277339</v>
+        <v>0.04219233346207807</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1083228461158707</v>
+        <v>0.2234941446991165</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06875895740205776</v>
+        <v>0.09290046339844807</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1067450931397833</v>
+        <v>0.223702280050346</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08191596939667778</v>
+        <v>0.1443983104597199</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1062287493975201</v>
+        <v>0.2239237006367603</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02992836333807526</v>
+        <v>0.02334652963207623</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05540244414461287</v>
+        <v>0.2237160904691635</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03305386324877427</v>
+        <v>0.04215830745375929</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1091135238247457</v>
+        <v>0.2251254888210079</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06804660799360251</v>
+        <v>0.0927464891146694</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1075242544035773</v>
+        <v>0.2253351434083777</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08093058338537307</v>
+        <v>0.1439249848563923</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1070041417288888</v>
+        <v>0.225558180203452</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02950833425434714</v>
+        <v>0.02438181679603796</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05540217561614885</v>
+        <v>0.2253372215595198</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03242389121416968</v>
+        <v>0.0422213779575971</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1099042015336207</v>
+        <v>0.2267568329428992</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06802085366220129</v>
+        <v>0.09368610300628513</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1083034156673713</v>
+        <v>0.2269680067664094</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08004147017097785</v>
+        <v>0.1439417303912019</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1077795340602576</v>
+        <v>0.2271926597701437</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02910084063579017</v>
+        <v>0.02341543207108404</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05540190708768483</v>
+        <v>0.2269583526498761</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03248820264534076</v>
+        <v>0.04238150811952053</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1106948792424956</v>
+        <v>0.2283881770647906</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06778251887050105</v>
+        <v>0.0931192235532112</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1090825769311654</v>
+        <v>0.2286008701244412</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07955109284413892</v>
+        <v>0.1451484206063501</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1085549263916264</v>
+        <v>0.2288271393368354</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0287063339548463</v>
+        <v>0.02344735473063252</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05540163855922082</v>
+        <v>0.2285794837402323</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03204737602866874</v>
+        <v>0.04263866108545863</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1114855569513706</v>
+        <v>0.2300195211866819</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06723242808114888</v>
+        <v>0.0937457692353636</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1098617381949594</v>
+        <v>0.2302337334824729</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07806191449550337</v>
+        <v>0.1454449290440379</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1093303187229951</v>
+        <v>0.230461618903527</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02832526568397599</v>
+        <v>0.02447756404810129</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05540137003075681</v>
+        <v>0.2302006148305886</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03190198985053476</v>
+        <v>0.04239280000134042</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1122762346602456</v>
+        <v>0.2316508653085733</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06667140575679173</v>
+        <v>0.09376565853265836</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1106408994587534</v>
+        <v>0.2318665968405046</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07697639821571789</v>
+        <v>0.145631129246467</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1101057110543639</v>
+        <v>0.2320960984702187</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02795808729562407</v>
+        <v>0.02450603929690838</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05540110150229278</v>
+        <v>0.2318217459209448</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03155262259732007</v>
+        <v>0.04274388801309492</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1130669123691205</v>
+        <v>0.2332822094304647</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06610027636007673</v>
+        <v>0.09407880992501144</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1114200607225475</v>
+        <v>0.2334994601985363</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07589700709542957</v>
+        <v>0.1450068947558386</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1108811033857326</v>
+        <v>0.2337305780369104</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02760525026228296</v>
+        <v>0.02353275975047171</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05540083297382876</v>
+        <v>0.2334428770113011</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03119985275540581</v>
+        <v>0.04269188826665118</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1138575900779955</v>
+        <v>0.234913553552356</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06501986435365092</v>
+        <v>0.0938851418923389</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1121992219863415</v>
+        <v>0.235132323556568</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07452620422528533</v>
+        <v>0.1459720991143539</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1116564957171014</v>
+        <v>0.2353650576036021</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02726720605639686</v>
+        <v>0.02255770468220929</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05540056444536475</v>
+        <v>0.2350640081016574</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03114425881117319</v>
+        <v>0.0426367639079382</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1146482677868705</v>
+        <v>0.2365448976742474</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06453099420016123</v>
+        <v>0.09408457291455666</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1129783832501356</v>
+        <v>0.2367651869145998</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07426645269593202</v>
+        <v>0.1449266158642145</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1124318880484702</v>
+        <v>0.2369995371702938</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02694440615042623</v>
+        <v>0.02458085336553907</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05540029591690074</v>
+        <v>0.2366851391920136</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03068641925100342</v>
+        <v>0.04257847808288506</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1154389454957454</v>
+        <v>0.2381762417961387</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06383449036225486</v>
+        <v>0.09367702147158075</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1137575445139296</v>
+        <v>0.2383980502726315</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07302021559801658</v>
+        <v>0.1454703185476215</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1132072803798389</v>
+        <v>0.2386340167369854</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02663730201681852</v>
+        <v>0.02460218507387901</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05540002738843671</v>
+        <v>0.2383062702823699</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03062691256127763</v>
+        <v>0.04281699393742075</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1162296232046204</v>
+        <v>0.2398075859180301</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06343117730257872</v>
+        <v>0.09396240604332717</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1145367057777236</v>
+        <v>0.2400309136306632</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07128995602218596</v>
+        <v>0.1461030807067764</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1139826727112077</v>
+        <v>0.2402684963036771</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.026346345128061</v>
+        <v>0.02462167908064708</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0553997588599727</v>
+        <v>0.2399274013727261</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03036631722837706</v>
+        <v>0.04265227461747433</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1170203009134954</v>
+        <v>0.2414389300399215</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0623218794837799</v>
+        <v>0.09474064510971189</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1153158670415177</v>
+        <v>0.241663776988695</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07107813705908717</v>
+        <v>0.1459247758838805</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1147580650425764</v>
+        <v>0.2419029758703688</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.0260719869566004</v>
+        <v>0.02263931465926128</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05539949033150868</v>
+        <v>0.2415485324630824</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03000521173868288</v>
+        <v>0.04288428326897478</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1178109786223703</v>
+        <v>0.2430702741618128</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06200742136850548</v>
+        <v>0.09411165715065095</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1160950283053117</v>
+        <v>0.2432966403467267</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06958722179936688</v>
+        <v>0.146335277621135</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1155334573739452</v>
+        <v>0.2435374554370605</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0260719869566004</v>
+        <v>0.02265507108313954</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05539949033150868</v>
+        <v>0.2431696635534386</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02984417457857626</v>
+        <v>0.0429129830378512</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1186016563312453</v>
+        <v>0.2447016182837042</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06158862741940238</v>
+        <v>0.09477536064606035</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1168741895691058</v>
+        <v>0.2449295037047584</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06831967333367217</v>
+        <v>0.1454344594607414</v>
       </c>
       <c r="O215" t="n">
-        <v>0.116308849705314</v>
+        <v>0.2451719350037521</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02542032377970758</v>
+        <v>0.02466892762569983</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05531596404062117</v>
+        <v>0.2447907946437949</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02948378423443844</v>
+        <v>0.04283833707003258</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1193923340401203</v>
+        <v>0.2463329624055955</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06066632209911774</v>
+        <v>0.09493167407585601</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1176533508328998</v>
+        <v>0.2465623670627901</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06767795475264998</v>
+        <v>0.145522194944901</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1170842420366827</v>
+        <v>0.2468064145704438</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02477573736691124</v>
+        <v>0.02368086356036013</v>
       </c>
       <c r="G217" t="n">
-        <v>0.05523243774973367</v>
+        <v>0.2464119257341512</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02942461919265055</v>
+        <v>0.04266030851144796</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1201830117489952</v>
+        <v>0.2479643065274869</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06024132987029857</v>
+        <v>0.09438051591995397</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1184325120966938</v>
+        <v>0.2481952304208218</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06746452914694728</v>
+        <v>0.1456983576158152</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1178596343680515</v>
+        <v>0.2484408941371355</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0241385220637638</v>
+        <v>0.02269085816053844</v>
       </c>
       <c r="G218" t="n">
-        <v>0.05514891145884617</v>
+        <v>0.2480330568245074</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02916725793959381</v>
+        <v>0.04287886050802635</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1209736894578702</v>
+        <v>0.2495956506493782</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05931447519559191</v>
+        <v>0.09412180465827022</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1192116733604879</v>
+        <v>0.2498280937788536</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06688185960721088</v>
+        <v>0.1466628210156852</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1186350266994202</v>
+        <v>0.2500753737038272</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02350897221581763</v>
+        <v>0.02269889069965267</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05506538516795866</v>
+        <v>0.2496541879148637</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02891227896164941</v>
+        <v>0.04299395620569682</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1217643671667452</v>
+        <v>0.2512269947712696</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05908658253764476</v>
+        <v>0.09455545877072086</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1199908346242819</v>
+        <v>0.2514609571368853</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06533240922408773</v>
+        <v>0.1459154586867125</v>
       </c>
       <c r="O219" t="n">
-        <v>0.119410419030789</v>
+        <v>0.2517098532705189</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02288738216862538</v>
+        <v>0.02370494045112083</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05498185887707115</v>
+        <v>0.2512753190052199</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02856026074519852</v>
+        <v>0.0428055587503884</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1225550448756202</v>
+        <v>0.252858338893161</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05845847635910423</v>
+        <v>0.09508139673722171</v>
       </c>
       <c r="M220" t="n">
-        <v>0.120769995888076</v>
+        <v>0.253093820494917</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06431864108822477</v>
+        <v>0.1468561441710983</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1201858113621577</v>
+        <v>0.2533443328372106</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02227404626773961</v>
+        <v>0.02470898668836088</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05489833258618365</v>
+        <v>0.2528964500955762</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02811178177662237</v>
+        <v>0.04311363128803006</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1233457225844951</v>
+        <v>0.2544896830150524</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05753098112261729</v>
+        <v>0.09489953703768886</v>
       </c>
       <c r="M221" t="n">
-        <v>0.12154915715187</v>
+        <v>0.2547266838529487</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06424301829026885</v>
+        <v>0.1459847510110439</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1209612036935265</v>
+        <v>0.2549788124039022</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02166925885871276</v>
+        <v>0.02371100868479076</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05481480629529616</v>
+        <v>0.2545175811859324</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02786742054230208</v>
+        <v>0.04311813696455091</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1241364002933701</v>
+        <v>0.2561210271369437</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05730492129083106</v>
+        <v>0.0945097981520383</v>
       </c>
       <c r="M222" t="n">
-        <v>0.122328318415664</v>
+        <v>0.2563595472109805</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06360800392086702</v>
+        <v>0.1465011527487509</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1217365960248953</v>
+        <v>0.256613291970594</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02107331428709723</v>
+        <v>0.0247029150243461</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05473128000440865</v>
+        <v>0.2561387122762887</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0279277555286189</v>
+        <v>0.04301556724610642</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1249270780022451</v>
+        <v>0.257752371258835</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05678112132639246</v>
+        <v>0.09430658699142996</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1231074796794581</v>
+        <v>0.2579924105690122</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06181606107066601</v>
+        <v>0.1462996355946148</v>
       </c>
       <c r="O223" t="n">
-        <v>0.122511988356264</v>
+        <v>0.2582477715372856</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02048650689844561</v>
+        <v>0.02364075195472912</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05464775371352113</v>
+        <v>0.2577598433666449</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02779336522195398</v>
+        <v>0.04263299969177144</v>
       </c>
       <c r="K224" t="n">
-        <v>0.12571775571112</v>
+        <v>0.2593837153807264</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05606040569194867</v>
+        <v>0.09403316050639526</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1238866409432521</v>
+        <v>0.2596252739270439</v>
       </c>
       <c r="N224" t="n">
-        <v>0.062169652830313</v>
+        <v>0.1456458114721482</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1232873806876328</v>
+        <v>0.2598822511039773</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01990913103831052</v>
+        <v>0.02252331713569149</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05456422742263364</v>
+        <v>0.2593809744570013</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02746482810868855</v>
+        <v>0.0424498912756721</v>
       </c>
       <c r="K225" t="n">
-        <v>0.126508433419995</v>
+        <v>0.2610150595026178</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05564359885014661</v>
+        <v>0.09453660181513851</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1246658022070461</v>
+        <v>0.2612581372850756</v>
       </c>
       <c r="N225" t="n">
-        <v>0.06077124229045472</v>
+        <v>0.1453446371447436</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1240627730190016</v>
+        <v>0.261516730670669</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01934148105224434</v>
+        <v>0.02235707194202352</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05448070113174613</v>
+        <v>0.2610021055473575</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02714272267520375</v>
+        <v>0.04237773101055142</v>
       </c>
       <c r="K226" t="n">
-        <v>0.12729911112887</v>
+        <v>0.2626464036245092</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05443152526363335</v>
+        <v>0.09374232426438928</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1254449634708402</v>
+        <v>0.2628910006431073</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06082329254173807</v>
+        <v>0.1443355349943002</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1248381653503703</v>
+        <v>0.2631512102373607</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01878385128579953</v>
+        <v>0.02414847774851557</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05439717484085863</v>
+        <v>0.2626232366377138</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0271276274078808</v>
+        <v>0.04222800790915245</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1280897888377449</v>
+        <v>0.2642777477464005</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05422500939505598</v>
+        <v>0.09267574120087718</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1262241247346342</v>
+        <v>0.2645238640011391</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05982826667481023</v>
+        <v>0.143257927402717</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1256135576817391</v>
+        <v>0.2647856898040524</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01823653608452865</v>
+        <v>0.02290399592995791</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05431364854997112</v>
+        <v>0.26424436772807</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02652012079310088</v>
+        <v>0.04141221098421817</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1288804665466199</v>
+        <v>0.2659090918682919</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05302487570706152</v>
+        <v>0.09216226597133181</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1270032859984283</v>
+        <v>0.2661567273591708</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05928862778031779</v>
+        <v>0.1413512367518933</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1263889500131078</v>
+        <v>0.266420169370744</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0176998297939843</v>
+        <v>0.02363008786114089</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05423012225908361</v>
+        <v>0.2658654988184262</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02642078131724518</v>
+        <v>0.04134182924849161</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1296711442554949</v>
+        <v>0.2675404359901832</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0533319486622969</v>
+        <v>0.09042731192248274</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1277824472622223</v>
+        <v>0.2677895907172025</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0590068389489079</v>
+        <v>0.140354885423728</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1271643423444766</v>
+        <v>0.2680546489374357</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0171740267597189</v>
+        <v>0.0223332149168548</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05414659596819612</v>
+        <v>0.2674866299087825</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02613013874165733</v>
+        <v>0.04062835171471579</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1304618219643698</v>
+        <v>0.2691717801120746</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05254699656195555</v>
+        <v>0.09009629240105965</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1285616085260163</v>
+        <v>0.2694224540752342</v>
       </c>
       <c r="N230" t="n">
-        <v>0.05928497455519816</v>
+        <v>0.1381082958001202</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1279397346758454</v>
+        <v>0.2696891285041274</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01665942132728489</v>
+        <v>0.02201983847189</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05406306967730861</v>
+        <v>0.2691077609991388</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0259438691572188</v>
+        <v>0.04028326739563372</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1312524996732448</v>
+        <v>0.270803124233966</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0519642279996588</v>
+        <v>0.0885946207537921</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1293407697898104</v>
+        <v>0.2710553174332659</v>
       </c>
       <c r="N231" t="n">
-        <v>0.05818927061857776</v>
+        <v>0.1372508902629692</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1287151270072141</v>
+        <v>0.2713236080708191</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01615630784223484</v>
+        <v>0.02169641990103676</v>
       </c>
       <c r="G232" t="n">
-        <v>0.0539795433864211</v>
+        <v>0.270728892089495</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02615889933159886</v>
+        <v>0.03931806530398844</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1320431773821198</v>
+        <v>0.2724344683558573</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05157936053205986</v>
+        <v>0.08734771032740965</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1301199310536044</v>
+        <v>0.2726881807912977</v>
       </c>
       <c r="N232" t="n">
-        <v>0.05799699095364852</v>
+        <v>0.1348220911941738</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1294905193385829</v>
+        <v>0.2729580876375108</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01566498065012133</v>
+        <v>0.02036942057908542</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0538960170955336</v>
+        <v>0.2723500231798513</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02597525009548739</v>
+        <v>0.03894423445252294</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1328338550909947</v>
+        <v>0.2740658124777487</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05019240894922658</v>
+        <v>0.08578097446864197</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1308990923173984</v>
+        <v>0.2743210441493294</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0574084680604135</v>
+        <v>0.1325613209756334</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1302659116699516</v>
+        <v>0.2745925672042024</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01518573409649679</v>
+        <v>0.02004530188082632</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0538124908046461</v>
+        <v>0.2739711542702075</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02579294227957421</v>
+        <v>0.03837326385398027</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1336245327998697</v>
+        <v>0.2756971565996401</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05020338804122679</v>
+        <v>0.08461982652421862</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1316782535811925</v>
+        <v>0.2759539075073611</v>
       </c>
       <c r="N234" t="n">
-        <v>0.05832403443887585</v>
+        <v>0.1316080019892469</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1310413040013204</v>
+        <v>0.2762270467708941</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01471886252691366</v>
+        <v>0.01973052518104974</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05372896451375859</v>
+        <v>0.2755922853605638</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02531199671454917</v>
+        <v>0.03791664252110341</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1344152105087447</v>
+        <v>0.2773285007215314</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04971231259812844</v>
+        <v>0.08328967984086924</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1324574148449865</v>
+        <v>0.2775867708653929</v>
       </c>
       <c r="N235" t="n">
-        <v>0.05704402258903835</v>
+        <v>0.1292015566169134</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1318166963326891</v>
+        <v>0.2778615263375858</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01426466028692452</v>
+        <v>0.02043155185454602</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05364543822287108</v>
+        <v>0.2772134164509201</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02513243423110213</v>
+        <v>0.03708585946663542</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1352058882176197</v>
+        <v>0.2789598448434227</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04881919740999938</v>
+        <v>0.08181594776532336</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1332365761087806</v>
+        <v>0.2792196342234246</v>
       </c>
       <c r="N236" t="n">
-        <v>0.05716876501090407</v>
+        <v>0.127381407240532</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1325920886640579</v>
+        <v>0.2794960059042775</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01382342172208193</v>
+        <v>0.02015484327610548</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05356191193198358</v>
+        <v>0.2788345475412763</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0248542756599229</v>
+        <v>0.03699240370331927</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1359965659264946</v>
+        <v>0.2805911889653142</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04812405726690747</v>
+        <v>0.08152404364431071</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1340157373725746</v>
+        <v>0.2808524975814563</v>
       </c>
       <c r="N237" t="n">
-        <v>0.05729859420447597</v>
+        <v>0.125186976242002</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1333674809954267</v>
+        <v>0.2811304854709691</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01339544117793835</v>
+        <v>0.02089751447626333</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05347838564109608</v>
+        <v>0.2804556786316326</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02467754183170136</v>
+        <v>0.03613788003136856</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1367872436353696</v>
+        <v>0.2822225330872055</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04762690695892061</v>
+        <v>0.0806193739980911</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1347948986363686</v>
+        <v>0.282485360939488</v>
       </c>
       <c r="N238" t="n">
-        <v>0.05603384266975714</v>
+        <v>0.1237295616782174</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1341428733267954</v>
+        <v>0.2827649650376609</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01298101300004619</v>
+        <v>0.01864015858266708</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05339485935020857</v>
+        <v>0.2820768097219888</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02480225357712731</v>
+        <v>0.03578625758703069</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1375779213442445</v>
+        <v>0.2838538772090969</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04672776127610664</v>
+        <v>0.07932234614226832</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1355740599001627</v>
+        <v>0.2841182242975197</v>
       </c>
       <c r="N239" t="n">
-        <v>0.05617484290675051</v>
+        <v>0.1231861290905134</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1349182656581642</v>
+        <v>0.2843994446043525</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01257922962295199</v>
+        <v>0.01838182950911871</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05331133305932106</v>
+        <v>0.2836979408123451</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02432843172689063</v>
+        <v>0.03563291981828294</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1383685990531195</v>
+        <v>0.2854852213309882</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04612663500853353</v>
+        <v>0.07822152897162846</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1363532211639567</v>
+        <v>0.2857510876555515</v>
       </c>
       <c r="N240" t="n">
-        <v>0.05682192741545911</v>
+        <v>0.1204368264601498</v>
       </c>
       <c r="O240" t="n">
-        <v>0.135693657989533</v>
+        <v>0.2860339241710442</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01218317392617189</v>
+        <v>0.01912251194838174</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05322780676843356</v>
+        <v>0.2853190719027013</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02415609711168115</v>
+        <v>0.03487783950722806</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1391592767619945</v>
+        <v>0.2871165654528796</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04612354294626908</v>
+        <v>0.07711686228101078</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1371323824277507</v>
+        <v>0.2873839510135832</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0559754286958859</v>
+        <v>0.1196815603940422</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1364690503209017</v>
+        <v>0.2876684037377359</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01179193834425232</v>
+        <v>0.01786219059321966</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05314428047754607</v>
+        <v>0.2869402029930576</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02438527056218873</v>
+        <v>0.0347209894359688</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1399499544708695</v>
+        <v>0.2887479095747709</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04511849987938113</v>
+        <v>0.07590828586525442</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1379115436915448</v>
+        <v>0.2890168143716149</v>
       </c>
       <c r="N242" t="n">
-        <v>0.05603567924803382</v>
+        <v>0.1181202374991057</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1372444426522705</v>
+        <v>0.2893028833044275</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0114058172227457</v>
+        <v>0.01960085013639601</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05306075418665855</v>
+        <v>0.2885613340834138</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02401597290910316</v>
+        <v>0.03396234238660789</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1407406321797444</v>
+        <v>0.2903792536966623</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04471152059793762</v>
+        <v>0.07479573951919855</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1386907049553388</v>
+        <v>0.2906496777296466</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05550301157190607</v>
+        <v>0.1161527643822559</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1380198349836392</v>
+        <v>0.2909373628711192</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01102510490720459</v>
+        <v>0.01833847527067429</v>
       </c>
       <c r="G244" t="n">
-        <v>0.05297722789577104</v>
+        <v>0.2901824651737701</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02394822498311436</v>
+        <v>0.03350187114124814</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1415313098886194</v>
+        <v>0.2920105978185537</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04420261989200641</v>
+        <v>0.07427916303768234</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1394698662191329</v>
+        <v>0.2922825410876784</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05457775816750543</v>
+        <v>0.1153790476504081</v>
       </c>
       <c r="O244" t="n">
-        <v>0.138795227315008</v>
+        <v>0.2925718424378109</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01065009574318156</v>
+        <v>0.01707505068881799</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05289370160488355</v>
+        <v>0.2918035962641263</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0238820476149121</v>
+        <v>0.03333954848199229</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1423219875974944</v>
+        <v>0.293641941940445</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04319181255165538</v>
+        <v>0.07265849621554502</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1402490274829269</v>
+        <v>0.2939154044457101</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05456025153483501</v>
+        <v>0.1126989939104776</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1395706196463767</v>
+        <v>0.2942063220045026</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01028108407622905</v>
+        <v>0.01881056108359066</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05281017531399605</v>
+        <v>0.2934247273544826</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02361746163518626</v>
+        <v>0.0327753471909431</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1431126653063693</v>
+        <v>0.2952732860623364</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04317911336695238</v>
+        <v>0.07163367884762573</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1410281887467209</v>
+        <v>0.2955482678037418</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05405082417389767</v>
+        <v>0.1115125097693799</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1403460119777455</v>
+        <v>0.2958408015711942</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009918364251899542</v>
+        <v>0.01654499114775578</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05272664902310854</v>
+        <v>0.2950458584448389</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02355448787462669</v>
+        <v>0.03220924005020334</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1439033430152443</v>
+        <v>0.2969046301842277</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04236453712796528</v>
+        <v>0.07110465072876371</v>
       </c>
       <c r="M247" t="n">
-        <v>0.141807350010515</v>
+        <v>0.2971811311617735</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05494980858469656</v>
+        <v>0.1096195018340301</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1411214043091143</v>
+        <v>0.297475281137886</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.00956223061574555</v>
+        <v>0.01627832557407689</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05264312273222103</v>
+        <v>0.2966669895351952</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02329314716392322</v>
+        <v>0.03164119984187576</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1446940207241193</v>
+        <v>0.2985359743061191</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04184809862476208</v>
+        <v>0.06967135165379812</v>
       </c>
       <c r="M248" t="n">
-        <v>0.142586511274309</v>
+        <v>0.2988139945198052</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05415753726723466</v>
+        <v>0.1081198767113438</v>
       </c>
       <c r="O248" t="n">
-        <v>0.141896796640483</v>
+        <v>0.2991097607045776</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009212977513319669</v>
+        <v>0.01801054905531748</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05255959644133353</v>
+        <v>0.2982881206255514</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02303346033376569</v>
+        <v>0.03107119934806309</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1454846984329942</v>
+        <v>0.3001673184280105</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04112981264741047</v>
+        <v>0.06853372141756803</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1433656725381031</v>
+        <v>0.300446857877837</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05487434272151498</v>
+        <v>0.1067135410082363</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1426721889718518</v>
+        <v>0.3007442402712693</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008870899290174303</v>
+        <v>0.01774164628424107</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05247607015044602</v>
+        <v>0.2999092517159077</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02297544821484396</v>
+        <v>0.03069921135086814</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1462753761418692</v>
+        <v>0.3017986625499018</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04060969398597844</v>
+        <v>0.06829169981491282</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1441448338018971</v>
+        <v>0.3020797212358687</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05360055744754033</v>
+        <v>0.1045004013316229</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1434475813032206</v>
+        <v>0.302378719837961</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008536290291861995</v>
+        <v>0.01647160195361116</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05239254385955851</v>
+        <v>0.3015303828062639</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02291913163784784</v>
+        <v>0.03052520863239364</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1470660538507442</v>
+        <v>0.3034300066717932</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03928775743053387</v>
+        <v>0.0668452266406715</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1449239950656911</v>
+        <v>0.3037125845939004</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05383651394531391</v>
+        <v>0.103680364288419</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1442229736345893</v>
+        <v>0.3040131994046527</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.008209444863935246</v>
+        <v>0.01620040075619128</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05230901756867101</v>
+        <v>0.3031515138966202</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02256453143346719</v>
+        <v>0.02974916397474235</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1478567315596192</v>
+        <v>0.3050613507936846</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03946401777114453</v>
+        <v>0.06569424168968335</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1457031563294852</v>
+        <v>0.3053454479519321</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05338254471483855</v>
+        <v>0.1012533364855401</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1449983659659581</v>
+        <v>0.3056476789713443</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007890657351946571</v>
+        <v>0.01592802738474493</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05222549127778351</v>
+        <v>0.3047726449869764</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02251166843239188</v>
+        <v>0.02927105016001703</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1486474092684941</v>
+        <v>0.3066926949155759</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03823848979787842</v>
+        <v>0.06463868475678752</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1464823175932792</v>
+        <v>0.3069783113099638</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05303898225611742</v>
+        <v>0.1005192245299013</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1457737582973268</v>
+        <v>0.307282158538036</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007580222101448458</v>
+        <v>0.01465446653203561</v>
       </c>
       <c r="G254" t="n">
-        <v>0.052141964986896</v>
+        <v>0.3063937760773327</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02236056346531175</v>
+        <v>0.02889083997032045</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1494380869773691</v>
+        <v>0.3083240390374672</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03771118830080336</v>
+        <v>0.0637784956368232</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1472614788570732</v>
+        <v>0.3086111746679956</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05330615906915342</v>
+        <v>0.0986779350284181</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1465491506286956</v>
+        <v>0.3089166381047277</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007278433457993422</v>
+        <v>0.01437970289082686</v>
       </c>
       <c r="G255" t="n">
-        <v>0.0520584386960085</v>
+        <v>0.308014907167689</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02231123736291658</v>
+        <v>0.02830850618775535</v>
       </c>
       <c r="K255" t="n">
-        <v>0.150228764686244</v>
+        <v>0.3099553831593587</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03688212806998722</v>
+        <v>0.06251361412462958</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1480406401208673</v>
+        <v>0.3102440380260273</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05318440765394949</v>
+        <v>0.09702937458800592</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1473245429600643</v>
+        <v>0.3105511176714194</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006985585767133977</v>
+        <v>0.01410372115388218</v>
       </c>
       <c r="G256" t="n">
-        <v>0.051974912405121</v>
+        <v>0.3096360382580452</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02196371095589629</v>
+        <v>0.02782402159442453</v>
       </c>
       <c r="K256" t="n">
-        <v>0.151019442395119</v>
+        <v>0.31158672728125</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03645132389549793</v>
+        <v>0.0615439800150458</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1488198013846613</v>
+        <v>0.311876901384059</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05307406051050884</v>
+        <v>0.09477344981558006</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1480999352914331</v>
+        <v>0.3121855972381111</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006701973374422611</v>
+        <v>0.01382650601396507</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05189138611423349</v>
+        <v>0.3112571693484015</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02161800507494066</v>
+        <v>0.02753735897243069</v>
       </c>
       <c r="K257" t="n">
-        <v>0.151810120103994</v>
+        <v>0.3132180714031413</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03571879056740332</v>
+        <v>0.06036953310291107</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1495989626484554</v>
+        <v>0.3135097647420907</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05297545013883415</v>
+        <v>0.09341006731805579</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1488753276228019</v>
+        <v>0.3138200768048027</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006427890625411846</v>
+        <v>0.01454804216383906</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05180785982334599</v>
+        <v>0.3128783004387577</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02167414055073959</v>
+        <v>0.02704849110387664</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1526007978128689</v>
+        <v>0.3148494155250327</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03568454287577125</v>
+        <v>0.05929021318306463</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1503781239122494</v>
+        <v>0.3151426281001224</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0536889090389287</v>
+        <v>0.09243913370234863</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1496507199541706</v>
+        <v>0.3154545563714944</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006163631865654176</v>
+        <v>0.01326831429626762</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05172433353245848</v>
+        <v>0.314499431529114</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02143213821398288</v>
+        <v>0.02645739077086509</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1533914755217439</v>
+        <v>0.3164807596469241</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03444859561066968</v>
+        <v>0.05860596005034555</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1511572851760434</v>
+        <v>0.3167754914581541</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05301476971079533</v>
+        <v>0.08966055557537383</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1504261122855394</v>
+        <v>0.3170890359381861</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.00590949144070211</v>
+        <v>0.01298730710401432</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05164080724157098</v>
+        <v>0.3161205626194702</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02149201889536037</v>
+        <v>0.02616403075549885</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1541821532306189</v>
+        <v>0.3181121037688155</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03401096356216632</v>
+        <v>0.05711671349959307</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1519364464398375</v>
+        <v>0.3184083548161859</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05325336465443697</v>
+        <v>0.08907423954404692</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1512015046169081</v>
+        <v>0.3187235155048778</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005665763696108148</v>
+        <v>0.01270500527984264</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05155728095068347</v>
+        <v>0.3177416937098265</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02135380342556197</v>
+        <v>0.02526838383988066</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1549728309394939</v>
+        <v>0.3197434478907068</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03297166152032921</v>
+        <v>0.05612241332564638</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1527156077036315</v>
+        <v>0.3200412181742176</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05310502636985681</v>
+        <v>0.08748009221528297</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1519768969482769</v>
+        <v>0.3203579950715695</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005432742977424812</v>
+        <v>0.01442139351651608</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05147375465979596</v>
+        <v>0.3193628248001827</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02111751263527743</v>
+        <v>0.02477042280611326</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1557635086483689</v>
+        <v>0.3213747920125982</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03263070427522616</v>
+        <v>0.05532299932334464</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1534947689674256</v>
+        <v>0.3216740815322494</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05287008735705778</v>
+        <v>0.08547802019599754</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1527522892796457</v>
+        <v>0.3219924746382611</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.00521072363020459</v>
+        <v>0.01213645650679818</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05139022836890846</v>
+        <v>0.320983955890539</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02108316735519666</v>
+        <v>0.02457012043629944</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1565541863572438</v>
+        <v>0.3230061361344895</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03198810661692503</v>
+        <v>0.05371841128752708</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1542739302312196</v>
+        <v>0.3233069448902811</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05274888011604284</v>
+        <v>0.082867930093106</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1535276816110144</v>
+        <v>0.3236269542049529</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01385017894345245</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05130670207802096</v>
+        <v>0.3226050869808952</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02095078841600949</v>
+        <v>0.02376744951254195</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1573448640661188</v>
+        <v>0.3246374802563809</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03144388333549375</v>
+        <v>0.05320858901303288</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1550530914950136</v>
+        <v>0.3249398082483128</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05214173714681497</v>
+        <v>0.08234972851352373</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1543030739423832</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05129354418328411</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005688044899037868</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05129381271174813</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006372430165723447</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05129408124021215</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007053116532195737</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05129434976867617</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007730064730653144</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05129461829714019</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008403235493235003</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.0512948868256042</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009072589552139389</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05129515535406822</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009738087639505955</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05129542388253223</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01039969048753246</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05129569241099625</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01105735882835887</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05129596093946027</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01171105339418261</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05129622946792429</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01236073491714402</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.0512964979963883</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01300636412944015</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05129676652485232</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01364790176321169</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05129703505331634</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01428530855065534</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05129730358178036</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01491854522391216</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05129757211024438</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01554757251517849</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0512978406387084</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01617235115659572</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05129810916717241</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01679284188034638</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05129837769563642</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01740900541861264</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05129864622410044</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01802080250353643</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05129891475256446</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01862819386731319</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05129918328102848</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01923114024208526</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05129945180949249</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01982960236004767</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05129972033795651</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02042354095334316</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05129998886642053</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02101307709781049</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05130025739488455</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02159913358745755</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05130052592334856</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02218183149812276</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05130079445181258</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02276113156194954</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.0513010629802766</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02333699451113187</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05130133150874062</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.0239093810778135</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05130160003720463</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02447825199418811</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05130186856566865</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02504356799239973</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05130213709413266</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02560528980462957</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05130240562259668</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02616337816305851</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.0513026741510607</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02671779379983105</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05130294267952471</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02726849744714012</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05130321120798873</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02781544983713052</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05130347973645275</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02835861170199484</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05130374826491677</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02889794377387822</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05130401679338079</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02943340678497294</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05130428532184481</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02996496146742447</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05130455385030882</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03049256855342473</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05130482237877284</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03101618877511955</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05130509090723685</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03153578286470045</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05130535943570087</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03205131155431369</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05130562796416489</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03256273557615044</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05130589649262891</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03307001566235723</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05130616502109292</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03357311254512492</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05130643354955694</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03407198695660041</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05130670207802096</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03407198695660041</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05129354418328411</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0346159497143726</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05137760753109966</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03515515064532683</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.0514616708789152</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03568947579478413</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05154573422673073</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03621881120806557</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05162979757454628</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03674304293049217</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05171386092236181</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03726205700738502</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05179792427017735</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03777573948406519</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05188198761799289</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03828397640585367</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05196605096580843</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03878665381807157</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05205011431362397</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03928365776603991</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05213417766143951</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03977487429507975</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05221824100925505</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04026018945051216</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05230230435707059</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.04073948927765814</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05238636770488612</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04121265982183882</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05247043105270166</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04167958712837519</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.0525544944005172</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04214015724258838</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05263855774833275</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04259425620979934</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05272262109614828</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04304177007532919</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05280668444396382</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04348258488449896</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05289074779177936</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04391658668262972</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.0529748111395949</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.0443436615150425</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05305887448741044</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04476369542705834</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05314293783522598</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04517657446399835</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05322700118304152</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04558218467118354</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05331106453085706</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04598087740887399</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.0533951278786726</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04637533061202495</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05347919122648812</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04676589564089659</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05356325457430366</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04715245854080989</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05364731792211921</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0475349053570859</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05373138126993474</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04791312213504571</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05381544461775029</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04828699492001037</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05389950796556582</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04865640975730089</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05398357131338136</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04902125269223837</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.0540676346611969</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04938140977014382</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05415169800901244</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04973676703633835</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05423576135682798</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05008721053614294</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05431982470464352</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.0504326263148787</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05440388805245906</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05077290041786667</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.0544879514002746</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.0511079188904279</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05457201474809013</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05143756777788343</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05465607809590568</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05176173312555431</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05474014144372121</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05208030097876162</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05482420479153675</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05239315738282639</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05490826813935229</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05270018838306968</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05499233148716783</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05300128002481255</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05507639483498337</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05329631835337605</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05516045818279891</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05358518941408122</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05524452153061445</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05386777925224913</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05532858487842999</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05414397391320083</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05541264822624553</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04976264927546721</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05541264822624553</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05425114322511204</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05698945214352052</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05435036840260216</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.05856625606079552</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05444195536695727</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06014305997807051</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05452621003946354</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06171986389534549</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05460343834140705</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06329666781262049</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05467394619407391</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06487347172989548</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05473803951875025</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06645027564717047</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05479602423672218</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.06802707956444547</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05484820626927581</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.06960388348172046</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05489489153769729</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07118068739899545</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0549363859632727</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07275749131627045</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05497299546728818</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07433429523354544</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05500502597102984</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07591109915082044</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05503278339578377</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07748790306809542</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05505657366283612</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.07906470698537041</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05507670269347299</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.0806415109026454</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05509347640898052</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.0822183148199204</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05510720073064482</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08379511873719539</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05511818157975197</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08537192265447037</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.0551267248775881</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.08694872657174536</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05513313654543937</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.08852553048902036</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05513772250459184</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09010233440629535</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05514078867633167</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09167913832357034</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05514264098194496</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09325594224084534</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05514358534271781</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09483274615812033</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05514392767993637</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09640955007539533</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05514392800267588</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.09798635399267032</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05509764823627082</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.09956315790994531</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05496883226280655</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1011399618272203</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05476393606748145</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1027167657444953</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05448941563549385</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1042935696617703</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05415172695204215</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1058703735790453</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05375732600232469</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1074471774963203</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05331266877153981</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1090239814135953</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05282421124488591</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1106007853308703</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05229840940756131</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1121775892481453</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.05174171924476439</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1137543931654202</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.05116059674169351</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1153311970826952</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.05056149788354702</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1169080009999702</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04995087865552329</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1184848049172452</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04933519504282066</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1200616088345202</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04872090303063752</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1216384127517952</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04811445860417218</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1232152166690702</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04752231774862306</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1247920205863452</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04695093644918849</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1263688245036202</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04640677069106681</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1279456284208952</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04589627645945642</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1295224323381702</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04542590973955564</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1310992362554451</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04500212651656285</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1326760401727201</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.0446313827756764</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1342528440899951</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04431373701185656</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1358296480072701</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04401357637766715</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1374064519245451</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04372381904449867</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1389832558418201</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04344382986459153</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1405600597590951</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04317297369018619</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1421368636763701</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04291061537352306</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1437136675936451</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04265611976684257</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1452904715109201</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04240885172238515</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1468672754281951</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04216817609239122</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1484440793454701</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04193345772910125</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04170406148475561</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1515976871800201</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.04147935221159475</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1531744910972951</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04125869476185909</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1547512950145701</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04104145398778906</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.156328098931845</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04082699474162511</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.15790490284912</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.04061468187560766</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.159481706766395</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04040388024197711</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.16105851068367</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04019395469297392</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.162635314600945</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.0399842700808385</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.16421211851822</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03977419125781129</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.165788922435495</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03956308307613267</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.16736572635277</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03935031038804314</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.168942530270045</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03913523804578309</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1705193341873199</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03891723090159295</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1720961381045949</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03869565380771316</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1736729420218699</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03846987161638411</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1752497459391449</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03824201824986749</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1768265498564199</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03801472690004834</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1784033537736949</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03778799732303234</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1799801576909699</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03756182913957538</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1815569616082449</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03733622197043336</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1831337655255199</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03711117543636216</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1847105694427949</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03688668915811767</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1862873733600699</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03666276275645576</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1878641772773449</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03643939585213234</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1894409811946199</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.0362165880659033</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1910177851118948</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03599433901852453</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1925945890291698</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03577264833075192</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1941713929464448</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03555151562334133</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1957481968637198</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03533094051704867</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1973250007809948</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03511092263262985</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.1989018046982698</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03489146159084072</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2004786086155448</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03467255701243718</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2020554125328198</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03445420851817514</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2036322164500948</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03423641572881049</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2052090203673698</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03401917826509908</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2067858242846448</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03380249574779683</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2083626282019198</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0335863677976596</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2099394321191948</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03337079403544332</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2115162360364698</v>
-      </c>
-    </row>
+        <v>0.3252614337716445</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1084.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004041237200455863</v>
+        <v>0.001524798570759371</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001621131090356258</v>
+        <v>0.0005828826107438865</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003691037102716975</v>
+        <v>0.002151384192658895</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001631344121891361</v>
+        <v>0.0008550894797352701</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01164604794575957</v>
+        <v>0.006118694988142354</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001632863358031723</v>
+        <v>0.0008356620097921778</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01901395351833141</v>
+        <v>0.009975703233582767</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001634479566691681</v>
+        <v>0.0008339892006721661</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0059406623188668</v>
+        <v>0.002981497827568007</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002580959487881587</v>
+        <v>0.001165765221487773</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004230109908864702</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003258423913043476</v>
+        <v>0.00171017895947054</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01235359676502273</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.0033591999103541</v>
+        <v>0.001671324019584356</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.02099658903053347</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003466408418131358</v>
+        <v>0.001667978401344332</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00841988867237934</v>
+        <v>0.00432219808722438</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004863393271068773</v>
+        <v>0.001748647832231659</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01101408588358362</v>
+        <v>0.005840565320879808</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004894032365674083</v>
+        <v>0.00256526843920581</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02947432702787531</v>
+        <v>0.01821444727597119</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004898590074095168</v>
+        <v>0.002506986029376533</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04645794886165105</v>
+        <v>0.02893488941919825</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004903438700075043</v>
+        <v>0.002501967602016499</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01035105055620177</v>
+        <v>0.0059406623188668</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006484524361425031</v>
+        <v>0.002580959487881587</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01533825583635036</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006525376487565445</v>
+        <v>0.003258423913043476</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03636307437115796</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00653145343212689</v>
+        <v>0.003163518362178133</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05669238445476449</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006537918266766724</v>
+        <v>0.003291337285902501</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.0059406623188668</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01247539086962028</v>
+        <v>0.006505536583996142</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007742878463644761</v>
+        <v>0.002914413053719433</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01886694664628936</v>
+        <v>0.008978737188628926</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008156720609456807</v>
+        <v>0.004275447398676351</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04219688599430121</v>
+        <v>0.02695814282546374</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008164316790158613</v>
+        <v>0.004178310048960888</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06467284910244608</v>
+        <v>0.04315616908718817</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008172397833458406</v>
+        <v>0.004169946003360831</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01391063317728307</v>
+        <v>0.007492549661384885</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009726786542137546</v>
+        <v>0.003497295664463319</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02176855477620425</v>
+        <v>0.01038229238725646</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009775271739130427</v>
+        <v>0.005130536878411621</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04801710413712201</v>
+        <v>0.03065924582861465</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.0100775997310623</v>
+        <v>0.005013972058753067</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07426565349803976</v>
+        <v>0.04997641469269343</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.01039922525439408</v>
+        <v>0.005003935204032997</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01500331678034787</v>
+        <v>0.00845796362415515</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.0113479176324938</v>
+        <v>0.004080178275207205</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02352764697994235</v>
+        <v>0.01171076923244239</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01141940885323953</v>
+        <v>0.005985626358146891</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05087904375636912</v>
+        <v>0.03446700651862961</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01143004350622206</v>
+        <v>0.005849634068545245</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07714394405313074</v>
+        <v>0.05439128539276583</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01144135696684177</v>
+        <v>0.005837924404705163</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01402420476629016</v>
+        <v>0.009377174837896678</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01296904872285006</v>
+        <v>0.004663060885951092</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0253524098686496</v>
+        <v>0.01317256947994029</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01305075297513089</v>
+        <v>0.006840715837882161</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05482394814246119</v>
+        <v>0.03771463851739196</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01306290686425378</v>
+        <v>0.006685296078337423</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08406374014321866</v>
+        <v>0.05936665655601592</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01307583653353345</v>
+        <v>0.006671913605377329</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01497353296955872</v>
+        <v>0.01022557966819919</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01459017981320632</v>
+        <v>0.005245943496694978</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02725848995934187</v>
+        <v>0.01407609488550371</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01468209709702225</v>
+        <v>0.007695805317617432</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0590058047697288</v>
+        <v>0.04023535544678511</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.0146957702222855</v>
+        <v>0.0075209580881296</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.09010590551764008</v>
+        <v>0.06476840355105407</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01471031610022513</v>
+        <v>0.007505902806049495</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01685153722460232</v>
+        <v>0.0109785744806524</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01621131090356258</v>
+        <v>0.005828826107438866</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02924505213214232</v>
+        <v>0.01562974720488622</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01631344121891361</v>
+        <v>0.008550894797352701</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06280813247988998</v>
+        <v>0.04336237092869244</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01632863358031723</v>
+        <v>0.008356620097921777</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09493475688269631</v>
+        <v>0.06846240174649088</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01634479566691681</v>
+        <v>0.008339892006721661</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01865845336586973</v>
+        <v>0.01161155564084607</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01783244199391883</v>
+        <v>0.006411708718182751</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03081126126717407</v>
+        <v>0.01674192819384139</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01794478534080497</v>
+        <v>0.009405984277087972</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06651445011466267</v>
+        <v>0.04612889858499725</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01796149693834895</v>
+        <v>0.009192282107713957</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1005146109446886</v>
+        <v>0.07426565349803976</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01797927523360849</v>
+        <v>0.009311745311238625</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01839451722780973</v>
+        <v>0.01209991951436991</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01945357308427509</v>
+        <v>0.006994591328926637</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03195628224456032</v>
+        <v>0.01782103960812277</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01957612946269633</v>
+        <v>0.01026107375682324</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06960827651576482</v>
+        <v>0.04801710413712201</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01959436029638067</v>
+        <v>0.009644634326120961</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1058097844099182</v>
+        <v>0.07636705883813338</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01961375480030017</v>
+        <v>0.01000787040806599</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0200599646448711</v>
+        <v>0.01247539086962028</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02107470417463135</v>
+        <v>0.007742878463644761</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03337927994442413</v>
+        <v>0.01877548320348395</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0212074735845877</v>
+        <v>0.01111616323655851</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07257313052491443</v>
+        <v>0.05166143484605865</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0212272236544124</v>
+        <v>0.01086360612729831</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1103845939846868</v>
+        <v>0.08027847366111218</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02124823436699185</v>
+        <v>0.01084185960873816</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0206550314515026</v>
+        <v>0.01259666179688399</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02269583526498761</v>
+        <v>0.008160356550414411</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03477941924688871</v>
+        <v>0.01951366073567849</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02283881770647906</v>
+        <v>0.01197125271629378</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07549253098382946</v>
+        <v>0.0536727535294631</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02286008701244412</v>
+        <v>0.01169926813709049</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1155033563752954</v>
+        <v>0.08513366291008007</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02288271393368354</v>
+        <v>0.01167584880941033</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01917995348215302</v>
+        <v>0.01276354427252622</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02431696635534386</v>
+        <v>0.008743239161158298</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0358558650320772</v>
+        <v>0.02094397396045992</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02447016182837042</v>
+        <v>0.01282634219602905</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07744999673422792</v>
+        <v>0.05630622487612469</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02449295037047584</v>
+        <v>0.01253493014688267</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1198303882880454</v>
+        <v>0.08901413751840642</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02451719350037522</v>
+        <v>0.01250983801008249</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01963496657127113</v>
+        <v>0.01292760640962139</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02593809744570012</v>
+        <v>0.009326121771902184</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03650778218011273</v>
+        <v>0.02176855477620425</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02610150595026178</v>
+        <v>0.01351070084479633</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08042904661782771</v>
+        <v>0.05944973287197963</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02612581372850756</v>
+        <v>0.01337059215667485</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1234300064292384</v>
+        <v>0.09330140841946089</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0261516730670669</v>
+        <v>0.01334382721075466</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0210203065533057</v>
+        <v>0.01308886845746271</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02755922853605638</v>
+        <v>0.00990900438264607</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03743433557111844</v>
+        <v>0.02273932478898255</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02773285007215314</v>
+        <v>0.01453652115549959</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08211319947634685</v>
+        <v>0.06209116150296418</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02775867708653928</v>
+        <v>0.01420625416646702</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1264665275051755</v>
+        <v>0.09727698654661299</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02778615263375858</v>
+        <v>0.01417781641142682</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02133817373846404</v>
+        <v>0.0132473506653434</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02918035962641264</v>
+        <v>0.01049188699338996</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03823469008521749</v>
+        <v>0.02394215788076726</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0293641941940445</v>
+        <v>0.01539161063523486</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08388597415150334</v>
+        <v>0.06491839475501457</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02939154044457101</v>
+        <v>0.0150419161762592</v>
       </c>
       <c r="N83" t="n">
-        <v>0.128904268222158</v>
+        <v>0.1016223828332324</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02942063220045026</v>
+        <v>0.01501180561209899</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02263131170814632</v>
+        <v>0.01340307328255669</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0308014907167689</v>
+        <v>0.01107476960413384</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03870878969559803</v>
+        <v>0.02517681225727157</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03099553831593586</v>
+        <v>0.01624670011497013</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08503088948501503</v>
+        <v>0.066919316614067</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03102440380260273</v>
+        <v>0.01587757818605138</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1316075452864873</v>
+        <v>0.1055191082126888</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03105511176714194</v>
+        <v>0.01584579481277116</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02191561169872708</v>
+        <v>0.0135560565583958</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03242262180712516</v>
+        <v>0.01165765221487773</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03932529681805075</v>
+        <v>0.02603598745938164</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03262688243782723</v>
+        <v>0.0171017895947054</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08677657095144556</v>
+        <v>0.06968181106605773</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03265726716063445</v>
+        <v>0.01671324019584355</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1333024671698849</v>
+        <v>0.1095486736183517</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03268959133383362</v>
+        <v>0.01667978401344332</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0221891782148541</v>
+        <v>0.01370632074215392</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03404375289748141</v>
+        <v>0.01224053482562162</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03972661512479569</v>
+        <v>0.0273123830279836</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03425822655971859</v>
+        <v>0.01795687907444067</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08718949897766892</v>
+        <v>0.07229376209692301</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03429013051866617</v>
+        <v>0.01754890220563574</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1350351612831451</v>
+        <v>0.1135925899835907</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03432407090052531</v>
+        <v>0.01751377321411549</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02145011576117513</v>
+        <v>0.01385388608312428</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03566488398783767</v>
+        <v>0.0128234174363655</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04020937422315907</v>
+        <v>0.02849869850396358</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03588957068160994</v>
+        <v>0.01881196855417594</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08856264747706138</v>
+        <v>0.07424305369259912</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0359229938766979</v>
+        <v>0.01838456421542791</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1373082440715925</v>
+        <v>0.1166323682417754</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03595855046721699</v>
+        <v>0.01834776241478765</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02269652884233792</v>
+        <v>0.0139987728306001</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03728601507819393</v>
+        <v>0.01340630004710939</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04077020372046705</v>
+        <v>0.02988763342820773</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03752091480350131</v>
+        <v>0.01966705803391121</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08948856124354473</v>
+        <v>0.07661756983902213</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03755585723472962</v>
+        <v>0.01922022622522009</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1382101506679829</v>
+        <v>0.1207495193262753</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03759303003390866</v>
+        <v>0.01918175161545982</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02192652196299026</v>
+        <v>0.01414100123387458</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03890714616855018</v>
+        <v>0.01398918265785327</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0409057332240458</v>
+        <v>0.03117188734160226</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03915225892539267</v>
+        <v>0.02052214751364648</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09005978507104068</v>
+        <v>0.07890519452212846</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03918872059276134</v>
+        <v>0.02005588823501227</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1396293162050724</v>
+        <v>0.1239255541704602</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03922750960060034</v>
+        <v>0.02001574081613199</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02213819962777991</v>
+        <v>0.01428059154224096</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04052827725890644</v>
+        <v>0.01457206526859716</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04171259234122146</v>
+        <v>0.03224415978503324</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04078360304728403</v>
+        <v>0.02137723699338176</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09166886375347091</v>
+        <v>0.08159381172785424</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04082158395079307</v>
+        <v>0.02089155024480445</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1412541758156168</v>
+        <v>0.1278419837076995</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04086198916729202</v>
+        <v>0.02084973001680415</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02432966634135461</v>
+        <v>0.01441756400499243</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0421494083492627</v>
+        <v>0.01515494787934105</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04208741067932022</v>
+        <v>0.03349715029938689</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0424149471691754</v>
+        <v>0.02223232647311702</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09180834208475722</v>
+        <v>0.08337130544213575</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04245444730882479</v>
+        <v>0.02172721225459662</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1430731646323722</v>
+        <v>0.1297803188713629</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0424964687339837</v>
+        <v>0.02168371921747632</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02249902660836216</v>
+        <v>0.01455193887142223</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04377053943961896</v>
+        <v>0.01573783049008494</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04212681784566823</v>
+        <v>0.03442355842554931</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04404629129106676</v>
+        <v>0.02308741595285229</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0927707648588213</v>
+        <v>0.08512555965090918</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04408731066685651</v>
+        <v>0.0225628742643888</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1429747177880948</v>
+        <v>0.1327220705948199</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04413094830067539</v>
+        <v>0.02251770841814849</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02264438493345028</v>
+        <v>0.01468373639082356</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04539167052997521</v>
+        <v>0.01632071310082882</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04262744344759167</v>
+        <v>0.03561608370440666</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04567763541295811</v>
+        <v>0.02394250543258757</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09384867686958495</v>
+        <v>0.08714445834011081</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04572017402488823</v>
+        <v>0.02339853627418098</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1448472704155404</v>
+        <v>0.1363487498114402</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04576542786736707</v>
+        <v>0.02335169761882065</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0227638458212668</v>
+        <v>0.01481297681248965</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04701280162033147</v>
+        <v>0.01690359571157271</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04258591709241671</v>
+        <v>0.03666742567684511</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04730897953484948</v>
+        <v>0.02479759491232283</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09403462291096978</v>
+        <v>0.08941588549567686</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04735303738291995</v>
+        <v>0.02423419828397316</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1453792576474649</v>
+        <v>0.1383418674545934</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04739990743405875</v>
+        <v>0.02418568681949282</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02385551377645941</v>
+        <v>0.0149396803857137</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04863393271068773</v>
+        <v>0.0174864783223166</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04309886838746953</v>
+        <v>0.03737028388375077</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04894032365674084</v>
+        <v>0.0256526843920581</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09492114777689764</v>
+        <v>0.09042772510354358</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04898590074095168</v>
+        <v>0.02506986029376533</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1459591146166244</v>
+        <v>0.139982934457649</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04903438700075043</v>
+        <v>0.02501967602016498</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0229174933036759</v>
+        <v>0.01506386735978894</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05025506380104399</v>
+        <v>0.01806936093306048</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04316292694007627</v>
+        <v>0.03851735786600982</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0505716677786322</v>
+        <v>0.02650777387179338</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09490079626129022</v>
+        <v>0.09196786114964722</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0506187640989834</v>
+        <v>0.02590552230355751</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1465752764557748</v>
+        <v>0.1419534617539767</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05066886656744211</v>
+        <v>0.02585366522083715</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02495078173924056</v>
+        <v>0.01518555798400857</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05187619489140025</v>
+        <v>0.01865224354380437</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04307472235756311</v>
+        <v>0.03940134716450838</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05220301190052356</v>
+        <v>0.02736286335152864</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09516611315806928</v>
+        <v>0.09332417761992395</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05225162745701512</v>
+        <v>0.02674118431334969</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1480161782976723</v>
+        <v>0.144734960276946</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05230334613413379</v>
+        <v>0.02668765442150932</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02494791754956037</v>
+        <v>0.01530477250766583</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0534973259817565</v>
+        <v>0.01923512615454825</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04353710955240848</v>
+        <v>0.04011495132013264</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05383435602241492</v>
+        <v>0.02821795283126391</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09603420827424403</v>
+        <v>0.09348455850031001</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05388449081504685</v>
+        <v>0.02757684632314187</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1485313069960795</v>
+        <v>0.1453089409599266</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05393782570082548</v>
+        <v>0.02752164362218148</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0229302880962013</v>
+        <v>0.01542153118005391</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05511845707211276</v>
+        <v>0.01981800876529214</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04333275763263386</v>
+        <v>0.04085086987376869</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05546570014430627</v>
+        <v>0.02907304231099919</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09572924651480941</v>
+        <v>0.09503688777674171</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05551735417307856</v>
+        <v>0.02841250833293405</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1477287006274581</v>
+        <v>0.147256914736288</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05557230526751716</v>
+        <v>0.02835563282285365</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02289745193377628</v>
+        <v>0.01553585425046604</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05673958816246902</v>
+        <v>0.02040089137603603</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04330280615850815</v>
+        <v>0.04180180236630275</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05709704426619764</v>
+        <v>0.02992813179073446</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09567257281408245</v>
+        <v>0.09486904943515526</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05715021753111029</v>
+        <v>0.02924817034272622</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1484566880200281</v>
+        <v>0.1475603925393999</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05720678483420884</v>
+        <v>0.02918962202352581</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02485040804299897</v>
+        <v>0.01564776196819544</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05836071925282528</v>
+        <v>0.02098377398677991</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04304592622730756</v>
+        <v>0.0422604483386209</v>
       </c>
       <c r="K101" t="n">
-        <v>0.058728388388089</v>
+        <v>0.03078322127046973</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09565579007200797</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05878308088914201</v>
+        <v>0.0300838323525184</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1482905352253955</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05884126440090052</v>
+        <v>0.03002361122419798</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02479015540458307</v>
+        <v>0.01575727458253531</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05998185034318154</v>
+        <v>0.0215666565975238</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04306389413316793</v>
+        <v>0.04241950733160935</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06035973250998036</v>
+        <v>0.031638310750205</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09528282739718541</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06041594424717374</v>
+        <v>0.03091949436231058</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1470363372621101</v>
+        <v>0.1480313069960795</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0604757439675922</v>
+        <v>0.03085760042487014</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02471769299924226</v>
+        <v>0.0158644123427789</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06160298143353779</v>
+        <v>0.02214953920826769</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0428584861702251</v>
+        <v>0.0431716788861542</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06199107663187173</v>
+        <v>0.03249340022994027</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09475761389821427</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06204880760520546</v>
+        <v>0.03175515637210276</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1466001891487218</v>
+        <v>0.1483313069960795</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06211022353428388</v>
+        <v>0.03169158962554231</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02363401980769023</v>
+        <v>0.01596919549821938</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06322411252389404</v>
+        <v>0.02273242181901157</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04293147863261491</v>
+        <v>0.04300966254314162</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06362242075376309</v>
+        <v>0.03334848970967554</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09488407868369403</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06368167096323718</v>
+        <v>0.03259081838189494</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1458881859037804</v>
+        <v>0.1473313069960795</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06374470310097556</v>
+        <v>0.03252557882621448</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02354013481064064</v>
+        <v>0.01607164429814999</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06484524361425031</v>
+        <v>0.02331530442975546</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04298464781447324</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06525376487565446</v>
+        <v>0.0342035791894108</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09406615086222411</v>
+        <v>0.09533420827424402</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06531453432126891</v>
+        <v>0.03342648039168711</v>
       </c>
       <c r="N105" t="n">
-        <v>0.145506422545836</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06537918266766725</v>
+        <v>0.03335956802688664</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0244370369888072</v>
+        <v>0.01617177899186395</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06646637470460656</v>
+        <v>0.02389818704049935</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04241977000993591</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06688510899754581</v>
+        <v>0.03505866866914607</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09450775954240401</v>
+        <v>0.09533420827424402</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06694739767930064</v>
+        <v>0.03426214240147929</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1449609940934382</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06701366223435892</v>
+        <v>0.03419355722755881</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02332572532290358</v>
+        <v>0.01626961982865448</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06808750579496282</v>
+        <v>0.02448106965124323</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04223862151313877</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06851645311943717</v>
+        <v>0.03591375814888135</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09401283383283324</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06858026103733235</v>
+        <v>0.03509780441127147</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1454579955651371</v>
+        <v>0.1481313069960795</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06864814180105061</v>
+        <v>0.03502754642823097</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0232071987936435</v>
+        <v>0.01636518705781477</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06970863688531907</v>
+        <v>0.02506395226198712</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04244297861821765</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07014779724132854</v>
+        <v>0.03676884762861662</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09288530284211119</v>
+        <v>0.09553420827424403</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07021312439536406</v>
+        <v>0.03593346642106365</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1441035219794823</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07028262136774228</v>
+        <v>0.03586153562890314</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02208245638174058</v>
+        <v>0.01645850092863806</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07132976797567533</v>
+        <v>0.02564683487273101</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04193461761930843</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07177914136321989</v>
+        <v>0.03762393710835189</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09252909567883733</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07184598775339579</v>
+        <v>0.03676912843085583</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1443036683550239</v>
+        <v>0.1471313069960795</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07191710093443397</v>
+        <v>0.0366955248295753</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02395249706790856</v>
+        <v>0.01654958169041756</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07295089906603158</v>
+        <v>0.02622971748347489</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04181531481054691</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07341048548511125</v>
+        <v>0.03847902658808716</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09224814145161123</v>
+        <v>0.09583420827424402</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07347885111142752</v>
+        <v>0.037604790440648</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1429645297103118</v>
+        <v>0.1471313069960795</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07355158050112565</v>
+        <v>0.03752951403024747</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02381831983286109</v>
+        <v>0.01663844959244648</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07457203015638786</v>
+        <v>0.02681260009421878</v>
       </c>
       <c r="J111" t="n">
-        <v>0.041486846486069</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07504182960700262</v>
+        <v>0.03933411606782242</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09134636926903225</v>
+        <v>0.09543420827424404</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07511171446945925</v>
+        <v>0.03844045245044018</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1413922010638957</v>
+        <v>0.1471313069960795</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07518606006781732</v>
+        <v>0.03836350323091964</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02368092365731185</v>
+        <v>0.01672512488401805</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07619316124674411</v>
+        <v>0.02739548270496267</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04135098894001046</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07667317372889397</v>
+        <v>0.0401892055475577</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09092770823969995</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07674457782749096</v>
+        <v>0.03927611446023236</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1415927774343255</v>
+        <v>0.1476313069960795</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07682053963450901</v>
+        <v>0.0391974924315918</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02354130752197456</v>
+        <v>0.01680962781442547</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07781429233710037</v>
+        <v>0.02797836531570655</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04130951846650721</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07830451785078534</v>
+        <v>0.04104429502729297</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09099608747221369</v>
+        <v>0.09533420827424402</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07837744118552269</v>
+        <v>0.04011177647002453</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1398723538401512</v>
+        <v>0.1471313069960795</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07845501920120068</v>
+        <v>0.04003148163226398</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02240047040756288</v>
+        <v>0.01689197863296196</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07943542342745662</v>
+        <v>0.02856124792645044</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04066421135969508</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0799358619726767</v>
+        <v>0.04189938450702824</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09045543607517303</v>
+        <v>0.09543420827424404</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0800103045435544</v>
+        <v>0.04094743847981672</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1403370252999227</v>
+        <v>0.1473313069960795</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08008949876789237</v>
+        <v>0.04086547083293614</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02325941129479049</v>
+        <v>0.01697219758892075</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08105655451781288</v>
+        <v>0.02914413053719432</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04061684391370989</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08156720609456806</v>
+        <v>0.04275447398676351</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08930968315717744</v>
+        <v>0.09543420827424404</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08164316790158614</v>
+        <v>0.04178310048960889</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1381928868321897</v>
+        <v>0.1481313069960795</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08172397833458404</v>
+        <v>0.0416994600336083</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02111912916437107</v>
+        <v>0.01705030493159504</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08267768560816914</v>
+        <v>0.02972701314793821</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04026919242268751</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08319855021645943</v>
+        <v>0.04360956346649878</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08946275782682636</v>
+        <v>0.09523420827424403</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08327603125961786</v>
+        <v>0.04261876249940107</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1374460334555022</v>
+        <v>0.1475313069960795</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08335845790127573</v>
+        <v>0.04253344923428047</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02198023024694627</v>
+        <v>0.01712632091027804</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0842988166985254</v>
+        <v>0.0303098957586821</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04032303318076376</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08482989433835079</v>
+        <v>0.04446465294623405</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0883185891927192</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08490889461764958</v>
+        <v>0.04345442450919325</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1364025601884099</v>
+        <v>0.1475313069960795</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08499293746796741</v>
+        <v>0.04336743843495264</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02082761830378805</v>
+        <v>0.01720026577426299</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08591994778888165</v>
+        <v>0.03089277836942599</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03997868578392469</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08646123846024215</v>
+        <v>0.04531974242596932</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08758041532156588</v>
+        <v>0.09513420827424401</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0865417579756813</v>
+        <v>0.04429008651898542</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1356685620494629</v>
+        <v>0.1482313069960795</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08662741703465909</v>
+        <v>0.0442014276356248</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02065550264344832</v>
+        <v>0.0172721597728431</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08754107887923791</v>
+        <v>0.03147566098016987</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03950764245833541</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08809258258213351</v>
+        <v>0.04617483190570459</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08759313605323038</v>
+        <v>0.09553420827424403</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08817462133371301</v>
+        <v>0.04512574852877761</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1349780432821396</v>
+        <v>0.1476313069960795</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08826189660135078</v>
+        <v>0.04503541683629697</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02246713806450564</v>
+        <v>0.01734202315531157</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08916220996959416</v>
+        <v>0.03205854359091376</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03920263408069308</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08972392670402488</v>
+        <v>0.04702992138543986</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08662906997610029</v>
+        <v>0.09583420827424402</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08980748469174475</v>
+        <v>0.04596141053856978</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1339657388483837</v>
+        <v>0.1471313069960795</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08989637616804246</v>
+        <v>0.04586940603696914</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02126577936553858</v>
+        <v>0.01740987617096163</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09078334105995042</v>
+        <v>0.03264142620165764</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03906944802962201</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09135527082591623</v>
+        <v>0.04788501086517513</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0863010185956595</v>
+        <v>0.09593420827424404</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09144034804977647</v>
+        <v>0.04679707254836196</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1332514479128835</v>
+        <v>0.1482313069960795</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09153085573473414</v>
+        <v>0.0467033952376413</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02105468134512572</v>
+        <v>0.01747573906908649</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09240447215030669</v>
+        <v>0.03322430881240153</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03871387168374653</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09298661494780759</v>
+        <v>0.0487401003449104</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08512178341739204</v>
+        <v>0.09533420827424402</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09307321140780819</v>
+        <v>0.04763273455815414</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1319550287746437</v>
+        <v>0.1482313069960795</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09316533530142582</v>
+        <v>0.04753738443831347</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01983709880184561</v>
+        <v>0.01753963209897937</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09402560324066295</v>
+        <v>0.03380719142314542</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03804169242169091</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09461795906969896</v>
+        <v>0.04959518982464567</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0844041659467818</v>
+        <v>0.09513420827424401</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09470607476583991</v>
+        <v>0.04846839656794631</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1312963397326695</v>
+        <v>0.1471313069960795</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0947998148681175</v>
+        <v>0.04837137363898564</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01961628653427682</v>
+        <v>0.01760157550993348</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0956467343310192</v>
+        <v>0.0343900740338893</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03765869762207948</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09624930319159032</v>
+        <v>0.05045027930438094</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08376096768931277</v>
+        <v>0.09513420827424401</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09633893812387163</v>
+        <v>0.04930405857773849</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1301952390859656</v>
+        <v>0.1484313069960795</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09643429443480918</v>
+        <v>0.0492053628396578</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01939549934099791</v>
+        <v>0.01766158955124204</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09726786542137546</v>
+        <v>0.03497295664463319</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03747067466353653</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09788064731348167</v>
+        <v>0.05130536878411621</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08320499015046887</v>
+        <v>0.09593420827424404</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09797180148190336</v>
+        <v>0.05013972058753067</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1275715851335369</v>
+        <v>0.1477313069960795</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09806877400150087</v>
+        <v>0.05003935204032996</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02117799202058746</v>
+        <v>0.01771969447219827</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09888899651173171</v>
+        <v>0.03555583925537707</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03728341092468639</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09951199143537304</v>
+        <v>0.05216045826385148</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08194903483573407</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09960466483993509</v>
+        <v>0.05097538259732285</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1274452361743885</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09970325356819254</v>
+        <v>0.05087334124100213</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01996701937162403</v>
+        <v>0.01777591052209537</v>
       </c>
       <c r="G127" t="n">
-        <v>0.100510127602088</v>
+        <v>0.03613872186612097</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0369026937841533</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1011433355572644</v>
+        <v>0.05301554774358676</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0814059032505923</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1012375281979668</v>
+        <v>0.05181104460711503</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1262360505075251</v>
+        <v>0.1478313069960795</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1013377331348842</v>
+        <v>0.0517073304416743</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02076583595988679</v>
+        <v>0.01783025795022659</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1021312586924442</v>
+        <v>0.03672160447686484</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03613431062056162</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1027746796791558</v>
+        <v>0.05387063722332202</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0804883969005275</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1028703915559985</v>
+        <v>0.0526467066169072</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1242638864319516</v>
+        <v>0.1473313069960795</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1029722127015759</v>
+        <v>0.05254131964234646</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01855966653380241</v>
+        <v>0.01788275700588511</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1037523897828005</v>
+        <v>0.03730448708760874</v>
       </c>
       <c r="J129" t="n">
-        <v>0.036083308555185</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1044060238010471</v>
+        <v>0.05472572670305729</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07930926800330004</v>
+        <v>0.09523420827424403</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1045032549140302</v>
+        <v>0.05348236862669938</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1223486022466729</v>
+        <v>0.1477313069960795</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1046066922682676</v>
+        <v>0.05337530884301863</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02033493134653947</v>
+        <v>0.01793342793836417</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1053735208731567</v>
+        <v>0.03788736969835262</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03561579162341863</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1060373679229385</v>
+        <v>0.05558081618279256</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07880785174747665</v>
+        <v>0.09593420827424404</v>
       </c>
       <c r="M130" t="n">
-        <v>0.106136118272062</v>
+        <v>0.05431803063649156</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1220235743978878</v>
+        <v>0.1473313069960795</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1062411718349593</v>
+        <v>0.0542092980436908</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01909628964321664</v>
+        <v>0.01798229099695697</v>
       </c>
       <c r="G131" t="n">
-        <v>0.106994651963513</v>
+        <v>0.03847025230909651</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03521675219089167</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1076687120448298</v>
+        <v>0.05643590566252783</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07753448883482061</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1077689816300937</v>
+        <v>0.05515369264628374</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1211845446512566</v>
+        <v>0.1476313069960795</v>
       </c>
       <c r="O131" t="n">
-        <v>0.107875651401651</v>
+        <v>0.05504328724436296</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01884840066895265</v>
+        <v>0.01802936643095673</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1086157830538692</v>
+        <v>0.03905313491984039</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03459447489180024</v>
+        <v>0.04313710955240849</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1093000561667212</v>
+        <v>0.0572909951422631</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07720750462418247</v>
+        <v>0.09583420827424402</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1094018449881254</v>
+        <v>0.05598935465607592</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1193586787197026</v>
+        <v>0.1480313069960795</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1095101309683426</v>
+        <v>0.05587727644503513</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01859592366886621</v>
+        <v>0.01807467448965667</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1102369141442255</v>
+        <v>0.03963601753058428</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03445724436034044</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1109314002886125</v>
+        <v>0.05814608462199838</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07544522447441263</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1110347083461571</v>
+        <v>0.0568250166658681</v>
       </c>
       <c r="N133" t="n">
-        <v>0.117574403764069</v>
+        <v>0.1476313069960795</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1111446105350343</v>
+        <v>0.0567112656457073</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01934351788807604</v>
+        <v>0.01811823542235001</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1118580452345818</v>
+        <v>0.04021890014132817</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03411334523070837</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1125627444105039</v>
+        <v>0.05900117410173364</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07486597374436169</v>
+        <v>0.09593420827424404</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1126675717041889</v>
+        <v>0.05766067867566028</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1160601469451988</v>
+        <v>0.1477313069960795</v>
       </c>
       <c r="O134" t="n">
-        <v>0.112779090101726</v>
+        <v>0.05754525484637946</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01709584257170085</v>
+        <v>0.01816006947832995</v>
       </c>
       <c r="G135" t="n">
-        <v>0.113479176324938</v>
+        <v>0.04080178275207205</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03337106213710016</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1141940885323953</v>
+        <v>0.05985626358146891</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07408807779288007</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1143004350622206</v>
+        <v>0.05849634068545245</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1150443354239349</v>
+        <v>0.1472313069960795</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1144135696684177</v>
+        <v>0.05837924404705162</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01785755696485935</v>
+        <v>0.01820019690688973</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1151003074152943</v>
+        <v>0.04138466536281594</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0330386797137119</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1158254326542866</v>
+        <v>0.06071135306120418</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07312986197881827</v>
+        <v>0.09513420827424401</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1159332984202523</v>
+        <v>0.05933200269524462</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1132553963611204</v>
+        <v>0.1483313069960795</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1160480492351094</v>
+        <v>0.0592132332477238</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01663332031267026</v>
+        <v>0.01823863795732255</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1167214385056506</v>
+        <v>0.04196754797355982</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03262448259473968</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K137" t="n">
-        <v>0.117456776776178</v>
+        <v>0.06156644254093946</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07210965166102676</v>
+        <v>0.09573420827424403</v>
       </c>
       <c r="M137" t="n">
-        <v>0.117566161778284</v>
+        <v>0.0601676647050368</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1117217569175984</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O137" t="n">
-        <v>0.117682528801801</v>
+        <v>0.06004722244839596</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0164277918602523</v>
+        <v>0.01827541287892162</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1183425695960068</v>
+        <v>0.04255043058430372</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03203675541437968</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1190881208980694</v>
+        <v>0.06242153202067472</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07164577219835611</v>
+        <v>0.09533420827424402</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1191990251363158</v>
+        <v>0.06100332671482898</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1107718442542119</v>
+        <v>0.1475313069960795</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1193170083684927</v>
+        <v>0.06088121164906813</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01824563085272417</v>
+        <v>0.01831054192098017</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1199637006863631</v>
+        <v>0.0431333131950476</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03208378280682794</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1207194650199607</v>
+        <v>0.06327662150041</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07075654894965672</v>
+        <v>0.09533420827424402</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1208318884943475</v>
+        <v>0.06183898872462116</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1093340855318037</v>
+        <v>0.1485313069960795</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1209514879351844</v>
+        <v>0.06171520084974029</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01609149653520459</v>
+        <v>0.01834404533279142</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1215848317767193</v>
+        <v>0.04371619580579149</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03167384940628061</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1223508091418521</v>
+        <v>0.06413171098014527</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06946030727377911</v>
+        <v>0.09523420827424403</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1224647518523792</v>
+        <v>0.06267465073441333</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1080369079112172</v>
+        <v>0.1482313069960795</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1225859675018761</v>
+        <v>0.06254919005041246</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01697004815281226</v>
+        <v>0.01837594336364858</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1232059628670756</v>
+        <v>0.04429907841653537</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03151523984693377</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1239821532637435</v>
+        <v>0.06498680045988053</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06887537252957376</v>
+        <v>0.09603420827424403</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1240976152104109</v>
+        <v>0.06351031274420552</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1070087385532952</v>
+        <v>0.1471313069960795</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1242204470685678</v>
+        <v>0.06338317925108462</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01788594495066592</v>
+        <v>0.01840625626284483</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1248270939574318</v>
+        <v>0.04488196102727926</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03091623876298355</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1256134973856348</v>
+        <v>0.0658418899396158</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06892007007589118</v>
+        <v>0.09553420827424403</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1257304785684426</v>
+        <v>0.0643459747539977</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1063780046188807</v>
+        <v>0.1481313069960795</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1258549266352595</v>
+        <v>0.06421716845175679</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01684384617388428</v>
+        <v>0.01843500427967345</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1264482250477881</v>
+        <v>0.04546484363802315</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03078513078862606</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1272448415075262</v>
+        <v>0.06669697941935109</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06801272527158186</v>
+        <v>0.09553420827424403</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1273633419264744</v>
+        <v>0.06518163676378988</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1056731332688167</v>
+        <v>0.1480313069960795</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1274894062019511</v>
+        <v>0.06505115765242896</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01584102839768931</v>
+        <v>0.01846220766342762</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1280693561381444</v>
+        <v>0.04604772624876703</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03093020055805738</v>
+        <v>0.04353710955240848</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1288761856294175</v>
+        <v>0.06755206889908634</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06777166347549624</v>
+        <v>0.09583420827424402</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1289962052845061</v>
+        <v>0.06601729877358205</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1059225516639464</v>
+        <v>0.1479313069960795</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1291238857686428</v>
+        <v>0.06588514685310112</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01684852882394404</v>
+        <v>0.01848788666340057</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1296904872285006</v>
+        <v>0.04663060885951092</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03093333383579107</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1305075297513089</v>
+        <v>0.06840715837882161</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06867160612767545</v>
+        <v>0.09523420827424403</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1306290686425378</v>
+        <v>0.06685296078337422</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1059076459545932</v>
+        <v>0.1480313069960795</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1307583653353345</v>
+        <v>0.06671913605377329</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01586256834114632</v>
+        <v>0.01851206152888549</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1313116183188569</v>
+        <v>0.0472134914702548</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0311494706961685</v>
+        <v>0.04323710955240849</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1321388738732003</v>
+        <v>0.06926224785855689</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0685043741082344</v>
+        <v>0.09563420827424401</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1322619320005695</v>
+        <v>0.0676886227931664</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1060536386806031</v>
+        <v>0.1474313069960795</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1323928449020262</v>
+        <v>0.06755312525444546</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01788280458966206</v>
+        <v>0.01853475250917562</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1329327494092131</v>
+        <v>0.0477963740809987</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03077700673283053</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1337702179950916</v>
+        <v>0.07011733733829215</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06856248109489219</v>
+        <v>0.09533329614139818</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1338947953586013</v>
+        <v>0.06852428480295858</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1053391433253424</v>
+        <v>0.1472284360074897</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1340273244687178</v>
+        <v>0.06838711445511762</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01690889520985714</v>
+        <v>0.01855597985356418</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1345538804995694</v>
+        <v>0.04837925669174258</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03121533319387425</v>
+        <v>0.04343710955240848</v>
       </c>
       <c r="K148" t="n">
-        <v>0.135401562116983</v>
+        <v>0.07097242681802743</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06874458054695584</v>
+        <v>0.09592699301342228</v>
       </c>
       <c r="M148" t="n">
-        <v>0.135527658716633</v>
+        <v>0.06935994681275076</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1064620710713876</v>
+        <v>0.147316587659799</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1356618040354095</v>
+        <v>0.06922110365578979</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01694049784209745</v>
+        <v>0.01857576381134435</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1361750115899256</v>
+        <v>0.04896213930248647</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03116384132739677</v>
+        <v>0.04333710955240848</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1370329062388743</v>
+        <v>0.0718275162977627</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06894932592373229</v>
+        <v>0.09551489049372677</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1371605220746647</v>
+        <v>0.07019560882254294</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1053203331013149</v>
+        <v>0.1484958871434835</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1372962836021012</v>
+        <v>0.07005509285646194</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01697727012674889</v>
+        <v>0.01859412463180939</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1377961426802819</v>
+        <v>0.04954502191323035</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0309219223814952</v>
+        <v>0.04343600210765822</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1386642503607657</v>
+        <v>0.07268260577749797</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06817537068452861</v>
+        <v>0.09519721666409792</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1387933854326964</v>
+        <v>0.07103127083233511</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1058118405977008</v>
+        <v>0.1474666851070159</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1389307631687929</v>
+        <v>0.07088908205713412</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01801886970417735</v>
+        <v>0.01861108256425251</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1394172737706381</v>
+        <v>0.05012790452397424</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0313889676042666</v>
+        <v>0.04313209401443473</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1402955944826571</v>
+        <v>0.07353769525723323</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06862136828865184</v>
+        <v>0.0958741996063219</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1404262487907281</v>
+        <v>0.07186693284212729</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1056345047431215</v>
+        <v>0.1476293321988688</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1405652427354846</v>
+        <v>0.07172307125780628</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01606495421474871</v>
+        <v>0.0186266578579669</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1410384048609944</v>
+        <v>0.05071078713471813</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03126436824380809</v>
+        <v>0.04332547348083148</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1419269386045484</v>
+        <v>0.0743927847369685</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06908597219540893</v>
+        <v>0.09584606740218496</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1420591121487599</v>
+        <v>0.07270259485191947</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1066862367201536</v>
+        <v>0.1477841790675151</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1421997223021763</v>
+        <v>0.07255706045847846</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01611518129882888</v>
+        <v>0.01864087076224579</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1426595359513507</v>
+        <v>0.05129366974546201</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03114751554821678</v>
+        <v>0.04311625128827436</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1435582827264398</v>
+        <v>0.07524787421670377</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06876783586410687</v>
+        <v>0.09551304813347325</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1436919755067916</v>
+        <v>0.07353825686171166</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1061649477113732</v>
+        <v>0.1471315763614272</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1438342018688679</v>
+        <v>0.07339104965915061</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01616920859678373</v>
+        <v>0.0186537415263824</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1442806670417069</v>
+        <v>0.0518765523562059</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03163780076558974</v>
+        <v>0.04350453821818916</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1451896268483312</v>
+        <v>0.07610296369643904</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06956561275405274</v>
+        <v>0.09497536988197303</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1453248388648233</v>
+        <v>0.07437391887150384</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1072685488993569</v>
+        <v>0.1470718747290779</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1454686814355596</v>
+        <v>0.07422503885982279</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01822669374897916</v>
+        <v>0.01866529039966994</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1459017981320632</v>
+        <v>0.05245943496694978</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0314346151440241</v>
+        <v>0.04339044505200169</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1468209709702225</v>
+        <v>0.07695805317617432</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0694779563245535</v>
+        <v>0.09563326072947045</v>
       </c>
       <c r="M155" t="n">
-        <v>0.146957702222855</v>
+        <v>0.07520958088129601</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1069949514666809</v>
+        <v>0.1477054248189397</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1471031610022513</v>
+        <v>0.07505902806049494</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01829368787265106</v>
+        <v>0.01867553763140163</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1475229292224195</v>
+        <v>0.05304231757769368</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03183734993161691</v>
+        <v>0.04327408257113784</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1484523150921139</v>
+        <v>0.07781314265590959</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06930352003491616</v>
+        <v>0.09538694875775175</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1485905655808868</v>
+        <v>0.07604524289108817</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1076420665959216</v>
+        <v>0.1475325772794856</v>
       </c>
       <c r="O156" t="n">
-        <v>0.148737640568943</v>
+        <v>0.07589301726116711</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01741129539364392</v>
+        <v>0.01868450347087069</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1491440603127757</v>
+        <v>0.05362520018843756</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03197730536443941</v>
+        <v>0.04305556155702339</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1500836592140052</v>
+        <v>0.07866823213564485</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07049485353608015</v>
+        <v>0.09493666204860318</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1502234289389185</v>
+        <v>0.07688090490088036</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1089676361161062</v>
+        <v>0.147853682759188</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1503721201356346</v>
+        <v>0.07672700646183928</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01857839309638522</v>
+        <v>0.01869220816737031</v>
       </c>
       <c r="G158" t="n">
-        <v>0.150765191403132</v>
+        <v>0.05420808279918144</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03211440272739284</v>
+        <v>0.04313499279108417</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1517150033358966</v>
+        <v>0.07952332161538013</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07049829479398839</v>
+        <v>0.09558262868381084</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1518562922969502</v>
+        <v>0.07771656691067254</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1095133775256368</v>
+        <v>0.1478690919065195</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1520065997023263</v>
+        <v>0.07756099566251144</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01878464596983566</v>
+        <v>0.01869867197019376</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1523863224934882</v>
+        <v>0.05479096540992533</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03223288133890155</v>
+        <v>0.04301248705474602</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1533463474577879</v>
+        <v>0.0803784110951154</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07078559034869911</v>
+        <v>0.09472507674516095</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1534891556549819</v>
+        <v>0.07855222892046472</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1102506496327965</v>
+        <v>0.1468791553699531</v>
       </c>
       <c r="O159" t="n">
-        <v>0.153641079269018</v>
+        <v>0.07839498486318361</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01901971900295593</v>
+        <v>0.01870391512863419</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1540074535838445</v>
+        <v>0.05537384802066922</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03291436444829197</v>
+        <v>0.04298815512943474</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1549776915796793</v>
+        <v>0.08123350057485067</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07251609138668291</v>
+        <v>0.09486423431443977</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1551220190130136</v>
+        <v>0.07938789093025689</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1114163960811063</v>
+        <v>0.1470842237979612</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1552755588357097</v>
+        <v>0.07922897406385578</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01727327718470672</v>
+        <v>0.01870795789198487</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1556285846742007</v>
+        <v>0.0559567306314131</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03294047530489062</v>
+        <v>0.0431621077965762</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1566090357015707</v>
+        <v>0.08208859005458594</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07334914909441015</v>
+        <v>0.09520032947343351</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1567548823710454</v>
+        <v>0.08022355294004907</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1121475605140871</v>
+        <v>0.1473846478390164</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1569100384024014</v>
+        <v>0.08006296326452796</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01753498550404872</v>
+        <v>0.01871082050953898</v>
       </c>
       <c r="G162" t="n">
-        <v>0.157249715764557</v>
+        <v>0.056539613242157</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03369283715802394</v>
+        <v>0.0431344558375962</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158240379823462</v>
+        <v>0.0829436795343212</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07434411465835128</v>
+        <v>0.09493359030392837</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1583877457290771</v>
+        <v>0.08105921494984125</v>
       </c>
       <c r="N162" t="n">
-        <v>0.11378108657526</v>
+        <v>0.1465807781415916</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1585445179690931</v>
+        <v>0.08089695246520011</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01879450894994263</v>
+        <v>0.01871252323058976</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1588708468549132</v>
+        <v>0.05712249585290088</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03405307325701845</v>
+        <v>0.04310531003392057</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1598717239453534</v>
+        <v>0.08379876901405647</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07516033926497681</v>
+        <v>0.09446424488771046</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1600206090871088</v>
+        <v>0.08189487695963343</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1154539179081459</v>
+        <v>0.1463729653541594</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1601789975357847</v>
+        <v>0.08173094166587229</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01804151251134914</v>
+        <v>0.01871308630443043</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1604919779452695</v>
+        <v>0.05770537846364476</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03430280685120062</v>
+        <v>0.04297478116697517</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1615030680672448</v>
+        <v>0.08465385849379174</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07645717410075709</v>
+        <v>0.09469252130656611</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1616534724451405</v>
+        <v>0.08273053896942562</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1171029981562656</v>
+        <v>0.1473615601251924</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1618134771024764</v>
+        <v>0.08256493086654444</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01826566117722895</v>
+        <v>0.01871308630443042</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1621131090356258</v>
+        <v>0.05770537846364476</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0350236611898969</v>
+        <v>0.04304298001818578</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1631344121891361</v>
+        <v>0.08550894797352702</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07739397035216267</v>
+        <v>0.09491864764228145</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1632863358031723</v>
+        <v>0.08356620097921778</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1192652709631403</v>
+        <v>0.1469469131031633</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1634479566691681</v>
+        <v>0.08339892006721661</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01845897225379158</v>
+        <v>0.01827799674042055</v>
       </c>
       <c r="G166" t="n">
-        <v>0.163734240125982</v>
+        <v>0.05770510993518075</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0351972595224338</v>
+        <v>0.04311001736897825</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1647657563110275</v>
+        <v>0.08636403745326228</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07743007920566392</v>
+        <v>0.09464285197664271</v>
       </c>
       <c r="M166" t="n">
-        <v>0.164919199161204</v>
+        <v>0.08440186298900997</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1208776799722909</v>
+        <v>0.1462293749365448</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1650824362358598</v>
+        <v>0.08423290926788878</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02064085869935171</v>
+        <v>0.01784795148506324</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1653553712163383</v>
+        <v>0.05770484140671674</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03572364469205846</v>
+        <v>0.04297600400077842</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1663971004329189</v>
+        <v>0.08721912693299756</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07885595212564847</v>
+        <v>0.09486536239143609</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1665520625192357</v>
+        <v>0.08523752499880213</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1215118549527324</v>
+        <v>0.1461092962738094</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1667169158025515</v>
+        <v>0.08506689846856094</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01881832980612753</v>
+        <v>0.01742347615113713</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1669765023066946</v>
+        <v>0.05770457287825271</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03573991349351491</v>
+        <v>0.0430410506950121</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1680284445548102</v>
+        <v>0.08807421641273283</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07895579361916394</v>
+        <v>0.09458640696844778</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1681849258772674</v>
+        <v>0.08607318700859432</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1225979325506784</v>
+        <v>0.14598702776343</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1683513953692432</v>
+        <v>0.08590088766923311</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02099171343177536</v>
+        <v>0.01700509635147613</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1685976333970508</v>
+        <v>0.0577043043497887</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03644860945204938</v>
+        <v>0.04300526823310512</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1696597886767016</v>
+        <v>0.0889293058924681</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0803387846218781</v>
+        <v>0.09460621378946402</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1698177892352992</v>
+        <v>0.0869088490183865</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1229577068339596</v>
+        <v>0.1453629200538792</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1699858749359348</v>
+        <v>0.08673487686990528</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02016133743395153</v>
+        <v>0.01659333769885863</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1702187644874071</v>
+        <v>0.05770403582132468</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03675031553350327</v>
+        <v>0.04296876739648331</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1712911327985929</v>
+        <v>0.08978439537220337</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08100621463650018</v>
+        <v>0.09412501093627096</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1714506525933309</v>
+        <v>0.08774451102817866</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1248931781399893</v>
+        <v>0.1461373237936295</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1716203545026265</v>
+        <v>0.08756886607057744</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02032752967031232</v>
+        <v>0.01618872580608158</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1718398955777633</v>
+        <v>0.05770376729286066</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03674561470371804</v>
+        <v>0.04303165896657249</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1729224769204843</v>
+        <v>0.09063948485193864</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08165937316573946</v>
+        <v>0.09404302649065485</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1730835159513626</v>
+        <v>0.08858017303797085</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1255063468061813</v>
+        <v>0.1458105896311538</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1732548340693182</v>
+        <v>0.08840285527124961</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01949061799851407</v>
+        <v>0.01579178628592486</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1734610266681196</v>
+        <v>0.05770349876439664</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03693508992853502</v>
+        <v>0.0427940537247985</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1745538210423757</v>
+        <v>0.09149457433167392</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08219954971230528</v>
+        <v>0.09466048853440193</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1747163793093943</v>
+        <v>0.08941583504776303</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1257992131699489</v>
+        <v>0.1451830682149246</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1748893136360099</v>
+        <v>0.08923684447192178</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0196509302762131</v>
+        <v>0.01540304475122001</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1750821577584758</v>
+        <v>0.05770323023593262</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0373193241737957</v>
+        <v>0.04265606245258718</v>
       </c>
       <c r="K173" t="n">
-        <v>0.176185165164267</v>
+        <v>0.09234966381140917</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08272803377890692</v>
+        <v>0.09407720137369718</v>
       </c>
       <c r="M173" t="n">
-        <v>0.176349242667426</v>
+        <v>0.09025149705755521</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1271737775687057</v>
+        <v>0.145752657233478</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1765237932027016</v>
+        <v>0.09007083367259394</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02180879436106569</v>
+        <v>0.01502302681474654</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1767032888488321</v>
+        <v>0.05770296170746861</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03759890040534142</v>
+        <v>0.04291779593136431</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1778165092861584</v>
+        <v>0.09320475329114446</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08264611486825363</v>
+        <v>0.09377908745475219</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1779821060254577</v>
+        <v>0.09108715906734739</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1282320403398651</v>
+        <v>0.1460953414680737</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1781582727693932</v>
+        <v>0.09090482287326611</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01996453811072819</v>
+        <v>0.01465225808930141</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1783244199391883</v>
+        <v>0.0577026931790046</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03817440158901361</v>
+        <v>0.04257928521091808</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1794478534080498</v>
+        <v>0.09405984277087973</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08395508248305472</v>
+        <v>0.09416094927510046</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1796149693834895</v>
+        <v>0.09192282107713956</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1295760018208408</v>
+        <v>0.1446078374763505</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1797927523360849</v>
+        <v>0.09173881207393828</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0201184893828569</v>
+        <v>0.01429126418766613</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1799455510295446</v>
+        <v>0.05770242465054057</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03814641069065372</v>
+        <v>0.04243434041670917</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1810791975299411</v>
+        <v>0.09491493225061498</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08385622612601956</v>
+        <v>0.09412515929307361</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1812478327415212</v>
+        <v>0.09275848308693174</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1300076623490461</v>
+        <v>0.1450937926292983</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1814272319027766</v>
+        <v>0.09257280127461043</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02127097603510812</v>
+        <v>0.01394057072266908</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1815666821199008</v>
+        <v>0.05770215612207655</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03841551067610309</v>
+        <v>0.04267983902226562</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1827105416518325</v>
+        <v>0.09577002173035026</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08475083529985736</v>
+        <v>0.09337408996700314</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1828806960995529</v>
+        <v>0.09359414509672392</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1314290222618946</v>
+        <v>0.1442568542979079</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1830617114694683</v>
+        <v>0.09340679047528261</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02242852662126026</v>
+        <v>0.0136007033070913</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1831878132102571</v>
+        <v>0.05770188759361254</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03888464675712816</v>
+        <v>0.04251693335246642</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1843418857737238</v>
+        <v>0.09662511121008553</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08554372031117777</v>
+        <v>0.09381011375522075</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1845135594575847</v>
+        <v>0.09442980710651609</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1324452838587762</v>
+        <v>0.1443006698531694</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1846961910361599</v>
+        <v>0.09424077967595476</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0205941955401502</v>
+        <v>0.01327218755372978</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1848089443006134</v>
+        <v>0.05770161906514853</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03886909000116372</v>
+        <v>0.04254677573219062</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1859732298956152</v>
+        <v>0.0974802006898208</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08626906796591713</v>
+        <v>0.09343560311605803</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1861464228156164</v>
+        <v>0.09526546911630827</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1327088127304656</v>
+        <v>0.1436288866660734</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1863306706028516</v>
+        <v>0.09507476887662694</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02276235292602574</v>
+        <v>0.01295554907536795</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1864300753909696</v>
+        <v>0.0577013505366845</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03926325935218622</v>
+        <v>0.04227051848631722</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1876045740175065</v>
+        <v>0.09833529016955607</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08631766129977847</v>
+        <v>0.09275293050784658</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1877792861736481</v>
+        <v>0.09610113112610046</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1340112538821133</v>
+        <v>0.1441451521076104</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1879651501695433</v>
+        <v>0.09590875807729909</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02092736676260319</v>
+        <v>0.01265131348483037</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1880512064813259</v>
+        <v>0.05770108200822049</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03945714048523358</v>
+        <v>0.04228931393972518</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1892359181393979</v>
+        <v>0.09919037964929134</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08786734893054862</v>
+        <v>0.09256446838891799</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1894121495316798</v>
+        <v>0.09693679313589262</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1358182450450069</v>
+        <v>0.1433531135487704</v>
       </c>
       <c r="O181" t="n">
-        <v>0.189599629736235</v>
+        <v>0.09674274727797127</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02308360503359892</v>
+        <v>0.01236000639489997</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1896723375716821</v>
+        <v>0.05770081347975647</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03974071907534382</v>
+        <v>0.04240431441729357</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1908672622612892</v>
+        <v>0.1000454691290266</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0883959794760143</v>
+        <v>0.09307258921760392</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1910450128897115</v>
+        <v>0.09777245514568481</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1359954239504341</v>
+        <v>0.1440564183605442</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1912341093029267</v>
+        <v>0.09757673647864343</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02322543572272928</v>
+        <v>0.0120821534183737</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1912934686620384</v>
+        <v>0.05770054495129245</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04030398079755489</v>
+        <v>0.04211667224390134</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1924986063831806</v>
+        <v>0.1009005586087619</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08858140155396232</v>
+        <v>0.09207966545223584</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1926778762477433</v>
+        <v>0.09860811715547699</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1374084283296826</v>
+        <v>0.1434587139139221</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1928685888696184</v>
+        <v>0.09841072567931559</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02134722681371061</v>
+        <v>0.01181828016803738</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1929145997523947</v>
+        <v>0.05770027642282843</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04043691132690475</v>
+        <v>0.04222753974442757</v>
       </c>
       <c r="K184" t="n">
-        <v>0.194129950505072</v>
+        <v>0.1017556480884972</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08890146378217947</v>
+        <v>0.09238806955114554</v>
       </c>
       <c r="M184" t="n">
-        <v>0.194310739605775</v>
+        <v>0.09944377916526917</v>
       </c>
       <c r="N184" t="n">
-        <v>0.13842289591404</v>
+        <v>0.1431636475798945</v>
       </c>
       <c r="O184" t="n">
-        <v>0.19450306843631</v>
+        <v>0.09924471487998776</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02344334629025926</v>
+        <v>0.01156891225671092</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1945357308427509</v>
+        <v>0.05770000789436441</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04042949633843138</v>
+        <v>0.04173806924375122</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1957612946269633</v>
+        <v>0.1026107375682324</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08943401477845256</v>
+        <v>0.09220017397266453</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1959436029638067</v>
+        <v>0.1002794411750613</v>
       </c>
       <c r="N185" t="n">
-        <v>0.138904464434794</v>
+        <v>0.1422748667294518</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1961375480030017</v>
+        <v>0.1000787040806599</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02351093289862714</v>
+        <v>0.01133457529717955</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1961568619331072</v>
+        <v>0.0576997393659004</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04087172150717271</v>
+        <v>0.04184941306675133</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1973926387488547</v>
+        <v>0.1034658270479677</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08975690316056834</v>
+        <v>0.09151835117512441</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1975764663218385</v>
+        <v>0.1011151031848535</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1383187716232323</v>
+        <v>0.1427960187335843</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1977720275696934</v>
+        <v>0.1009126932813321</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02257147100710344</v>
+        <v>0.01111579490224021</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1977779930234634</v>
+        <v>0.05769947083743639</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04077936581391016</v>
+        <v>0.04186272353830689</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1990239828707461</v>
+        <v>0.104320916527703</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08979609235957259</v>
+        <v>0.09134497361685684</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1992093296798702</v>
+        <v>0.1019507651946457</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1397927223891776</v>
+        <v>0.1420307509632825</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1994065071363851</v>
+        <v>0.1017466824820043</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02163068957855864</v>
+        <v>0.0109130966846814</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1993991241138197</v>
+        <v>0.05769920230897236</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04118446963472618</v>
+        <v>0.0417791529832969</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2006553269926374</v>
+        <v>0.1051760060074382</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0900285130347982</v>
+        <v>0.09188241375619338</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2008421930379019</v>
+        <v>0.1027864272044379</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1403531547779538</v>
+        <v>0.1409827107895369</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2010409867030768</v>
+        <v>0.1025806716826764</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02368856788641074</v>
+        <v>0.01072700625731776</v>
       </c>
       <c r="G189" t="n">
-        <v>0.201020255204176</v>
+        <v>0.05769893378050835</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04098722277876332</v>
+        <v>0.04149985372660039</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2022866711145288</v>
+        <v>0.1060310954871735</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09025574468667821</v>
+        <v>0.09103304405146562</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2024750563959336</v>
+        <v>0.1036220892142301</v>
       </c>
       <c r="N189" t="n">
-        <v>0.140005555171847</v>
+        <v>0.1409555455833379</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2026754662697685</v>
+        <v>0.1034146608833486</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02274508520407771</v>
+        <v>0.01055590298068296</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2026413862945322</v>
+        <v>0.05769866525204433</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04118758839195062</v>
+        <v>0.04132597809309639</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2039180152364202</v>
+        <v>0.1068861849669088</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09097770579512862</v>
+        <v>0.09129923696100525</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2041079197539653</v>
+        <v>0.1044577512240222</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1409497971130587</v>
+        <v>0.1407529027156757</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2043099458364601</v>
+        <v>0.1042486500840208</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02180022080497748</v>
+        <v>0.01038743495404808</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2042625173848885</v>
+        <v>0.05769839672358032</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04108552962021712</v>
+        <v>0.04125867840766385</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2055493593583115</v>
+        <v>0.107741274446644</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09109431484006544</v>
+        <v>0.09088336494314378</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2057407831119971</v>
+        <v>0.1052934132338144</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1414857541437901</v>
+        <v>0.1416784295575408</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2059444254031518</v>
+        <v>0.1050826392846929</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02285395396252808</v>
+        <v>0.01021998153794836</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2058836484752447</v>
+        <v>0.05769812819511629</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04148100960949183</v>
+        <v>0.04129910699518184</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2071807034802029</v>
+        <v>0.1085963639263793</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09090549030140468</v>
+        <v>0.09138780045621289</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2073736464700288</v>
+        <v>0.1061290752436066</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1406132998062425</v>
+        <v>0.1403357734799237</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2075789049698435</v>
+        <v>0.1059166284853651</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02190626395014741</v>
+        <v>0.01005406834519536</v>
       </c>
       <c r="G193" t="n">
-        <v>0.207504779565601</v>
+        <v>0.05769785966665228</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04157399150570379</v>
+        <v>0.04124841618052934</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2088120476020942</v>
+        <v>0.1094514534061146</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0914111506590623</v>
+        <v>0.09140866003308007</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2090065098280605</v>
+        <v>0.1069647372533988</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1412323076426173</v>
+        <v>0.1405149079843369</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2092133845365352</v>
+        <v>0.1067506176860373</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02195713004125352</v>
+        <v>0.009890220988578724</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2091259106559572</v>
+        <v>0.05769759113818827</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04146443845478205</v>
+        <v>0.04120766771815984</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2104433917239856</v>
+        <v>0.1103065428858499</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0919112143929543</v>
+        <v>0.09083255468260393</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2106393731860922</v>
+        <v>0.1078003992631909</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1413426511951159</v>
+        <v>0.1405979645446385</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2108478641032269</v>
+        <v>0.1075846068867094</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02300653150926431</v>
+        <v>0.009728965080895415</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2107470417463135</v>
+        <v>0.05769732260972425</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04145231360265562</v>
+        <v>0.04117166097941516</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2120747358458769</v>
+        <v>0.1111616323655851</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09210559998299672</v>
+        <v>0.09095884630129256</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2122722365441239</v>
+        <v>0.1086360612729831</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1413442040059395</v>
+        <v>0.1402846971398339</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2124823436699185</v>
+        <v>0.1084185960873816</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02305444762759778</v>
+        <v>0.00957082623493561</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2123681728366698</v>
+        <v>0.05769705408126023</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04183758009525354</v>
+        <v>0.04113681381961522</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2137060799677684</v>
+        <v>0.1120167218453204</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0921942259091055</v>
+        <v>0.09118745886634624</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2139050999021557</v>
+        <v>0.1094717232827753</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1416368396172896</v>
+        <v>0.1409749888939591</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2141168232366102</v>
+        <v>0.1092525852880537</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02210085766967188</v>
+        <v>0.009416330063510066</v>
       </c>
       <c r="G197" t="n">
-        <v>0.213989303927026</v>
+        <v>0.05769678555279621</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04172020107850484</v>
+        <v>0.04130308931378547</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2153374240896597</v>
+        <v>0.1128718113250557</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09257701065119667</v>
+        <v>0.09071831635496522</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2155379632601874</v>
+        <v>0.1103073852925675</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1419204315713674</v>
+        <v>0.1398687229310501</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2157513028033019</v>
+        <v>0.1100865744887259</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0241457409089046</v>
+        <v>0.009266002179408796</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2156104350173823</v>
+        <v>0.05769651702433219</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04180013969833855</v>
+        <v>0.04107045053695144</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2169687682115511</v>
+        <v>0.1137269008047909</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09265387268918621</v>
+        <v>0.09035134274434975</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2171708266182191</v>
+        <v>0.1111430473023596</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1425948534103744</v>
+        <v>0.140765782375143</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2173857823699936</v>
+        <v>0.1109205636893981</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0241890766187139</v>
+        <v>0.00912036819542876</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2172315661077385</v>
+        <v>0.05769624849586818</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0417773591006837</v>
+        <v>0.04093886056413845</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2186001123334424</v>
+        <v>0.1145819902845262</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09302473050299009</v>
+        <v>0.09098646201170013</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2188036899762509</v>
+        <v>0.1119787093121518</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1425599786765117</v>
+        <v>0.1396660503502739</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2190202619366853</v>
+        <v>0.1117545528900703</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02423084407251774</v>
+        <v>0.008979953724360938</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2188526971980948</v>
+        <v>0.05769597996740415</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0421518224314693</v>
+        <v>0.04130828247037205</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2202314564553338</v>
+        <v>0.1154370797642615</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09228950257252438</v>
+        <v>0.09092359813421649</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2204365533342826</v>
+        <v>0.112814371321944</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1438156809119809</v>
+        <v>0.1400694099804788</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2206547415033769</v>
+        <v>0.1125885420907424</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0242710225437341</v>
+        <v>0.008845284379014551</v>
       </c>
       <c r="G201" t="n">
-        <v>0.220473828288451</v>
+        <v>0.05769571143894014</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04192349283662442</v>
+        <v>0.04127867933067764</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2218628005772251</v>
+        <v>0.1162921692439968</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09294810737770501</v>
+        <v>0.09026267508909919</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2220694166923143</v>
+        <v>0.1136500333317362</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1430618336589831</v>
+        <v>0.1406757443897938</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2222892210700687</v>
+        <v>0.1134225312914146</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02230959130578095</v>
+        <v>0.008716885772180334</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2220949593788073</v>
+        <v>0.05769544291047612</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04219233346207807</v>
+        <v>0.04085001422008067</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2234941446991165</v>
+        <v>0.117147258723732</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09290046339844807</v>
+        <v>0.09030361685354849</v>
       </c>
       <c r="M202" t="n">
-        <v>0.223702280050346</v>
+        <v>0.1144856953415284</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1443983104597199</v>
+        <v>0.140384936702255</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2239237006367603</v>
+        <v>0.1142565204920868</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02334652963207623</v>
+        <v>0.008595283516655255</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2237160904691635</v>
+        <v>0.05769517438201211</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04215830745375929</v>
+        <v>0.0410222502136066</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2251254888210079</v>
+        <v>0.1180023482034673</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0927464891146694</v>
+        <v>0.08994634740476457</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2253351434083777</v>
+        <v>0.1153213573513206</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1439249848563923</v>
+        <v>0.1395968700418984</v>
       </c>
       <c r="O203" t="n">
-        <v>0.225558180203452</v>
+        <v>0.1150905096927589</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02438181679603796</v>
+        <v>0.00848100322523148</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2253372215595198</v>
+        <v>0.05769490585354808</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0422213779575971</v>
+        <v>0.04109535038628088</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2267568329428992</v>
+        <v>0.1188574376832025</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09368610300628513</v>
+        <v>0.09009079071994774</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2269680067664094</v>
+        <v>0.1161570193611127</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1439417303912019</v>
+        <v>0.1401114275327601</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2271926597701437</v>
+        <v>0.1159244988934311</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02341543207108404</v>
+        <v>0.008374570510715947</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2269583526498761</v>
+        <v>0.05769463732508407</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04238150811952053</v>
+        <v>0.04116927781312898</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2283881770647906</v>
+        <v>0.1197125271629378</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0931192235532112</v>
+        <v>0.09033687077629818</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2286008701244412</v>
+        <v>0.1169926813709049</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1451484206063501</v>
+        <v>0.1396284922988761</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2288271393368354</v>
+        <v>0.1167584880941032</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02344735473063252</v>
+        <v>0.00827651098590048</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2285794837402323</v>
+        <v>0.05769436879662006</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04263866108545863</v>
+        <v>0.04094399556917629</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2300195211866819</v>
+        <v>0.1205676166426731</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0937457692353636</v>
+        <v>0.09058451155101627</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2302337334824729</v>
+        <v>0.1178283433806971</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1454449290440379</v>
+        <v>0.1391479474642826</v>
       </c>
       <c r="O206" t="n">
-        <v>0.230461618903527</v>
+        <v>0.1175924772947754</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02447756404810129</v>
+        <v>0.008187350263582069</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2302006148305886</v>
+        <v>0.05769410026815604</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04239280000134042</v>
+        <v>0.04091946672944829</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2316508653085733</v>
+        <v>0.1214227061224084</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09376565853265836</v>
+        <v>0.09063363702130214</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2318665968405046</v>
+        <v>0.1186640053904892</v>
       </c>
       <c r="N207" t="n">
-        <v>0.145631129246467</v>
+        <v>0.1399696761530156</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2320960984702187</v>
+        <v>0.1184264664954476</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02450603929690838</v>
+        <v>0.008107613956554391</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2318217459209448</v>
+        <v>0.05769383173969202</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04274388801309492</v>
+        <v>0.04109565436897045</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2332822094304647</v>
+        <v>0.1222777956021436</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09407880992501144</v>
+        <v>0.08988417116435612</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2334994601985363</v>
+        <v>0.1194996674002814</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1450068947558386</v>
+        <v>0.140093561489111</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2337305780369104</v>
+        <v>0.1192604556961197</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02353275975047171</v>
+        <v>0.008037827677621408</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2334428770113011</v>
+        <v>0.057693563211228</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04269188826665118</v>
+        <v>0.04077252156276819</v>
       </c>
       <c r="K209" t="n">
-        <v>0.234913553552356</v>
+        <v>0.1231328850818789</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0938851418923389</v>
+        <v>0.08983603795737841</v>
       </c>
       <c r="M209" t="n">
-        <v>0.235132323556568</v>
+        <v>0.1203353294100736</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1459720991143539</v>
+        <v>0.1400194865966051</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2353650576036021</v>
+        <v>0.1200944448967919</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02255770468220929</v>
+        <v>0.007978517039576395</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2350640081016574</v>
+        <v>0.05769329468276398</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0426367639079382</v>
+        <v>0.04085003138586694</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2365448976742474</v>
+        <v>0.1239879745616142</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09408457291455666</v>
+        <v>0.0898891613775693</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2367651869145998</v>
+        <v>0.1211709914198658</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1449266158642145</v>
+        <v>0.1394473345995339</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2369995371702938</v>
+        <v>0.1209284340974641</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02458085336553907</v>
+        <v>0.007930207655216327</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2366851391920136</v>
+        <v>0.05769302615429997</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04257847808288506</v>
+        <v>0.04102814691329219</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2381762417961387</v>
+        <v>0.1248430640413494</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09367702147158075</v>
+        <v>0.09034346540212906</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2383980502726315</v>
+        <v>0.122006653429658</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1454703185476215</v>
+        <v>0.1394769886219334</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2386340167369854</v>
+        <v>0.1217624232981363</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02460218507387901</v>
+        <v>0.007893425137336825</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2383062702823699</v>
+        <v>0.05769275762583594</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04281699393742075</v>
+        <v>0.04070683122006938</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2398075859180301</v>
+        <v>0.1256981535210847</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09396240604332717</v>
+        <v>0.09029887400825792</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2400309136306632</v>
+        <v>0.1228423154394502</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1461030807067764</v>
+        <v>0.1384083317878396</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2402684963036771</v>
+        <v>0.1225964124988084</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02462167908064708</v>
+        <v>0.007868695098738075</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2399274013727261</v>
+        <v>0.05769248909737193</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04265227461747433</v>
+        <v>0.04058604738122394</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2414389300399215</v>
+        <v>0.12655324300082</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09474064510971189</v>
+        <v>0.08945531117315608</v>
       </c>
       <c r="M213" t="n">
-        <v>0.241663776988695</v>
+        <v>0.1236779774492423</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1459247758838805</v>
+        <v>0.1396412472212888</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2419029758703688</v>
+        <v>0.1234304016994806</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02263931465926128</v>
+        <v>0.007856543152215206</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2415485324630824</v>
+        <v>0.05769222056890792</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04288428326897478</v>
+        <v>0.04076575847178131</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2430702741618128</v>
+        <v>0.1274083324805553</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09411165715065095</v>
+        <v>0.09011270087402387</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2432966403467267</v>
+        <v>0.1245136394590345</v>
       </c>
       <c r="N214" t="n">
-        <v>0.146335277621135</v>
+        <v>0.1383756180463168</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2435374554370605</v>
+        <v>0.1242643909001527</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02265507108313954</v>
+        <v>0.007856543152215206</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2431696635534386</v>
+        <v>0.05769222056890792</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0429129830378512</v>
+        <v>0.04064592756676699</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2447016182837042</v>
+        <v>0.1282634219602905</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09477536064606035</v>
+        <v>0.0893709670880615</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2449295037047584</v>
+        <v>0.1253493014688267</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1454344594607414</v>
+        <v>0.1393113273869599</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2451719350037521</v>
+        <v>0.1250983801008249</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02466892762569983</v>
+        <v>0.007611909953920692</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2447907946437949</v>
+        <v>0.05767271364711632</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04283833707003258</v>
+        <v>0.04072651774120635</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2463329624055955</v>
+        <v>0.1291185114400258</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09493167407585601</v>
+        <v>0.09013003379246926</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2465623670627901</v>
+        <v>0.1261849634786189</v>
       </c>
       <c r="N216" t="n">
-        <v>0.145522194944901</v>
+        <v>0.139248258367254</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2468064145704438</v>
+        <v>0.1259323693014971</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02368086356036013</v>
+        <v>0.007370769477567943</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2464119257341512</v>
+        <v>0.05765320672532473</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04266030851144796</v>
+        <v>0.0405074920701249</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2479643065274869</v>
+        <v>0.1299736009197611</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09438051591995397</v>
+        <v>0.08988982496444739</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2481952304208218</v>
+        <v>0.127020625488411</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1456983576158152</v>
+        <v>0.1389862941112353</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2484408941371355</v>
+        <v>0.1267663585021692</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02269085816053844</v>
+        <v>0.007133704448344755</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2480330568245074</v>
+        <v>0.05763369980353313</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04287886050802635</v>
+        <v>0.04068881362854807</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2495956506493782</v>
+        <v>0.1308286903994963</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09412180465827022</v>
+        <v>0.0898502645811961</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2498280937788536</v>
+        <v>0.1278562874982032</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1466628210156852</v>
+        <v>0.1394253177429396</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2500753737038272</v>
+        <v>0.1276003477028414</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02269889069965267</v>
+        <v>0.006901297591439488</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2496541879148637</v>
+        <v>0.05761419288174154</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04299395620569682</v>
+        <v>0.04057044549150129</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2512269947712696</v>
+        <v>0.1316837798792316</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09455545877072086</v>
+        <v>0.08961127661991569</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2514609571368853</v>
+        <v>0.1286919495079954</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1459154586867125</v>
+        <v>0.1387652123864033</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2517098532705189</v>
+        <v>0.1284343369035136</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02370494045112083</v>
+        <v>0.006674131632039962</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2512753190052199</v>
+        <v>0.05759468595994995</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0428055587503884</v>
+        <v>0.04065235073401004</v>
       </c>
       <c r="K220" t="n">
-        <v>0.252858338893161</v>
+        <v>0.1325388693589669</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09508139673722171</v>
+        <v>0.08937278505780641</v>
       </c>
       <c r="M220" t="n">
-        <v>0.253093820494917</v>
+        <v>0.1295276115177875</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1468561441710983</v>
+        <v>0.1388058611656622</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2533443328372106</v>
+        <v>0.1292683261041857</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02470898668836088</v>
+        <v>0.006452789295334396</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2528964500955762</v>
+        <v>0.05757517903815835</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04311363128803006</v>
+        <v>0.04083449243109975</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2544896830150524</v>
+        <v>0.1333939588387022</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09489953703768886</v>
+        <v>0.08943471387206853</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2547266838529487</v>
+        <v>0.1303632735275798</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1459847510110439</v>
+        <v>0.1387471472047526</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2549788124039022</v>
+        <v>0.1301023153048579</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02371100868479076</v>
+        <v>0.006237853306511019</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2545175811859324</v>
+        <v>0.05755567211636676</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04311813696455091</v>
+        <v>0.04041683365779587</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2561210271369437</v>
+        <v>0.1342490483184374</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0945097981520383</v>
+        <v>0.08999698703990225</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2563595472109805</v>
+        <v>0.1311989355373719</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1465011527487509</v>
+        <v>0.1387889536277103</v>
       </c>
       <c r="O222" t="n">
-        <v>0.256613291970594</v>
+        <v>0.1309363045055301</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0247029150243461</v>
+        <v>0.006029906390757643</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2561387122762887</v>
+        <v>0.05753616519457516</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04301556724610642</v>
+        <v>0.04049933748912386</v>
       </c>
       <c r="K223" t="n">
-        <v>0.257752371258835</v>
+        <v>0.1351041377981727</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09430658699142996</v>
+        <v>0.08955952853850782</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2579924105690122</v>
+        <v>0.1320345975471641</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1462996355946148</v>
+        <v>0.1379311635585716</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2582477715372856</v>
+        <v>0.1317702937062022</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02364075195472912</v>
+        <v>0.005829531273262613</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2577598433666449</v>
+        <v>0.05751665827278357</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04263299969177144</v>
+        <v>0.04058196700010913</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2593837153807264</v>
+        <v>0.135959227277908</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09403316050639526</v>
+        <v>0.08972226234508557</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2596252739270439</v>
+        <v>0.1328702595569563</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1456458114721482</v>
+        <v>0.1377736601213723</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2598822511039773</v>
+        <v>0.1326042829068744</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02252331713569149</v>
+        <v>0.005637310679213768</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2593809744570013</v>
+        <v>0.05749715135099197</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0424498912756721</v>
+        <v>0.04036468526577718</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2610150595026178</v>
+        <v>0.1368143167576432</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09453660181513851</v>
+        <v>0.08968511243683572</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2612581372850756</v>
+        <v>0.1337059215667484</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1453446371447436</v>
+        <v>0.1388163264401487</v>
       </c>
       <c r="O225" t="n">
-        <v>0.261516730670669</v>
+        <v>0.1334382721075466</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02235707194202352</v>
+        <v>0.005453827333799323</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2610021055473575</v>
+        <v>0.05747764442920038</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04237773101055142</v>
+        <v>0.04064745536115341</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2626464036245092</v>
+        <v>0.1376694062373785</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09374232426438928</v>
+        <v>0.08944800279095849</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2628910006431073</v>
+        <v>0.1345415835765406</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1443355349943002</v>
+        <v>0.1379590456389369</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2631512102373607</v>
+        <v>0.1342722613082187</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02414847774851557</v>
+        <v>0.005279663962207463</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2626232366377138</v>
+        <v>0.05745813750740879</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04222800790915245</v>
+        <v>0.0403302403612633</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2642777477464005</v>
+        <v>0.1385244957171138</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09267574120087718</v>
+        <v>0.08931085738465414</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2645238640011391</v>
+        <v>0.1353772455863328</v>
       </c>
       <c r="N227" t="n">
-        <v>0.143257927402717</v>
+        <v>0.1376017008417727</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2647856898040524</v>
+        <v>0.1351062505088909</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02290399592995791</v>
+        <v>0.005115403289626078</v>
       </c>
       <c r="G228" t="n">
-        <v>0.26424436772807</v>
+        <v>0.05743863058561719</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04141221098421817</v>
+        <v>0.0403130033411323</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2659090918682919</v>
+        <v>0.139379585196849</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09216226597133181</v>
+        <v>0.08897360019512296</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2661567273591708</v>
+        <v>0.136212907596125</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1413512367518933</v>
+        <v>0.1386441751726925</v>
       </c>
       <c r="O228" t="n">
-        <v>0.266420169370744</v>
+        <v>0.1359402397095631</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02363008786114089</v>
+        <v>0.004961628041243421</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2658654988184262</v>
+        <v>0.0574191236638256</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04134182924849161</v>
+        <v>0.04039570737578584</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2675404359901832</v>
+        <v>0.1402346746765843</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09042731192248274</v>
+        <v>0.08883615519956517</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2677895907172025</v>
+        <v>0.1370485696059172</v>
       </c>
       <c r="N229" t="n">
-        <v>0.140354885423728</v>
+        <v>0.137586351755732</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2680546489374357</v>
+        <v>0.1367742289102352</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0223332149168548</v>
+        <v>0.004818920942247423</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2674866299087825</v>
+        <v>0.057399616742034</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04062835171471579</v>
+        <v>0.04067831554024938</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2691717801120746</v>
+        <v>0.1410897641563196</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09009629240105965</v>
+        <v>0.08929844637518103</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2694224540752342</v>
+        <v>0.1378842316157093</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1381082958001202</v>
+        <v>0.1383281137149274</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2696891285041274</v>
+        <v>0.1376082181109074</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02201983847189</v>
+        <v>0.004687864717826326</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2691077609991388</v>
+        <v>0.05738010982024242</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04028326739563372</v>
+        <v>0.04056079090954835</v>
       </c>
       <c r="K231" t="n">
-        <v>0.270803124233966</v>
+        <v>0.1419448536360549</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0885946207537921</v>
+        <v>0.0892603976991708</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2710553174332659</v>
+        <v>0.1387198936255015</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1372508902629692</v>
+        <v>0.1377693441743149</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2713236080708191</v>
+        <v>0.1384422073115796</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02169641990103676</v>
+        <v>0.004569042093168073</v>
       </c>
       <c r="G232" t="n">
-        <v>0.270728892089495</v>
+        <v>0.05736060289845082</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03931806530398844</v>
+        <v>0.04054309655870821</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2724344683558573</v>
+        <v>0.1427999431157901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08734771032740965</v>
+        <v>0.08952194564335025</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2726881807912977</v>
+        <v>0.1395555556352937</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1348220911941738</v>
+        <v>0.1380099623157651</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2729580876375108</v>
+        <v>0.1392761965122518</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02036942057908542</v>
+        <v>0.004463035793460815</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2723500231798513</v>
+        <v>0.05734109597665922</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03894423445252294</v>
+        <v>0.04062523390088039</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2740658124777487</v>
+        <v>0.1436550325955254</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08578097446864197</v>
+        <v>0.08918355495551372</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2743210441493294</v>
+        <v>0.1403912176450859</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1325613209756334</v>
+        <v>0.1376507363705333</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2745925672042024</v>
+        <v>0.1401101857129239</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02004530188082632</v>
+        <v>0.004370428543892697</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2739711542702075</v>
+        <v>0.05732158905486764</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03837326385398027</v>
+        <v>0.04050746955746451</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2756971565996401</v>
+        <v>0.1445101220752607</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08461982652421862</v>
+        <v>0.08914549771669517</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2759539075073611</v>
+        <v>0.1412268796548781</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1316080019892469</v>
+        <v>0.137692024722202</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2762270467708941</v>
+        <v>0.1409441749135961</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01973052518104974</v>
+        <v>0.004291803069651712</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2755922853605638</v>
+        <v>0.05730208213307603</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03791664252110341</v>
+        <v>0.04018986444111866</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2773285007215314</v>
+        <v>0.1453652115549959</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08328967984086924</v>
+        <v>0.08890778052423079</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2775867708653929</v>
+        <v>0.1420625416646702</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1292015566169134</v>
+        <v>0.1383338375133869</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2778615263375858</v>
+        <v>0.1417781641142682</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02043155185454602</v>
+        <v>0.00422774209592601</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2772134164509201</v>
+        <v>0.05728257521128445</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03708585946663542</v>
+        <v>0.04057242175622984</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2789598448434227</v>
+        <v>0.1462203010347312</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08181594776532336</v>
+        <v>0.08927040997545674</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2792196342234246</v>
+        <v>0.1428982036744624</v>
       </c>
       <c r="N236" t="n">
-        <v>0.127381407240532</v>
+        <v>0.1369761848867034</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2794960059042775</v>
+        <v>0.1426121533149404</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02015484327610548</v>
+        <v>0.004178828347903618</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2788345475412763</v>
+        <v>0.05726306828949285</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03699240370331927</v>
+        <v>0.04055514470718502</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2805911889653142</v>
+        <v>0.1470753905144665</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08152404364431071</v>
+        <v>0.08853339266770921</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2808524975814563</v>
+        <v>0.1437338656842546</v>
       </c>
       <c r="N237" t="n">
-        <v>0.125186976242002</v>
+        <v>0.1376190769847669</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2811304854709691</v>
+        <v>0.1434461425156126</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02089751447626333</v>
+        <v>0.004145644550772661</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2804556786316326</v>
+        <v>0.05724356136770125</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03613788003136856</v>
+        <v>0.0403380364983712</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2822225330872055</v>
+        <v>0.1479304799942018</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0806193739980911</v>
+        <v>0.0887967351983244</v>
       </c>
       <c r="M238" t="n">
-        <v>0.282485360939488</v>
+        <v>0.1445695276940468</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1237295616782174</v>
+        <v>0.137062523950193</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2827649650376609</v>
+        <v>0.1442801317162847</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01864015858266708</v>
+        <v>0.00412877342972124</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2820768097219888</v>
+        <v>0.05722405444590967</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03578625758703069</v>
+        <v>0.04052110033417543</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2838538772090969</v>
+        <v>0.148785569473937</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07932234614226832</v>
+        <v>0.08886044416463851</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2841182242975197</v>
+        <v>0.1454051897038389</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1231861290905134</v>
+        <v>0.137406535925597</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2843994446043525</v>
+        <v>0.1451141209169569</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01838182950911871</v>
+        <v>0.00412664464780773</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2836979408123451</v>
+        <v>0.05720454752411806</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03563291981828294</v>
+        <v>0.04050433941898464</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2854852213309882</v>
+        <v>0.1496406589536723</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07822152897162846</v>
+        <v>0.08872452616398774</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2857510876555515</v>
+        <v>0.1462408517136311</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1204368264601498</v>
+        <v>0.1373511230535947</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2860339241710442</v>
+        <v>0.1459481101176291</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01912251194838174</v>
+        <v>0.004126837657796485</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2853190719027013</v>
+        <v>0.05718504060232648</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03487783950722806</v>
+        <v>0.04008775695718586</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2871165654528796</v>
+        <v>0.1504957484334075</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07711686228101078</v>
+        <v>0.08868898779370821</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2873839510135832</v>
+        <v>0.1470765137234233</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1196815603940422</v>
+        <v>0.1373962954768014</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2876684037377359</v>
+        <v>0.1467820993183012</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01786219059321966</v>
+        <v>0.004127565156984869</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2869402029930576</v>
+        <v>0.05716553368053488</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0347209894359688</v>
+        <v>0.04007135615316608</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2887479095747709</v>
+        <v>0.1513508379131428</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07590828586525442</v>
+        <v>0.0892538356511362</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2890168143716149</v>
+        <v>0.1479121757332155</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1181202374991057</v>
+        <v>0.1368420633378326</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2893028833044275</v>
+        <v>0.1476160885189734</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01960085013639601</v>
+        <v>0.004129183471505961</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2885613340834138</v>
+        <v>0.05714602675874328</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03396234238660789</v>
+        <v>0.04005514021131228</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2903792536966623</v>
+        <v>0.1522059273928781</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07479573951919855</v>
+        <v>0.08891907633360779</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2906496777296466</v>
+        <v>0.1487478377430077</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1161527643822559</v>
+        <v>0.1365884367793039</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2909373628711192</v>
+        <v>0.1484500777196456</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01833847527067429</v>
+        <v>0.00413204892749286</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2901824651737701</v>
+        <v>0.0571265198369517</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03350187114124814</v>
+        <v>0.04023911233601146</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2920105978185537</v>
+        <v>0.1530610168726134</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07427916303768234</v>
+        <v>0.08918471643845929</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2922825410876784</v>
+        <v>0.1495834997527998</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1153790476504081</v>
+        <v>0.1367354259438306</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2925718424378109</v>
+        <v>0.1492840669203177</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01707505068881799</v>
+        <v>0.004136517851078637</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2918035962641263</v>
+        <v>0.05710701291516009</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03333954848199229</v>
+        <v>0.04012327573165067</v>
       </c>
       <c r="K245" t="n">
-        <v>0.293641941940445</v>
+        <v>0.1539161063523486</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07265849621554502</v>
+        <v>0.08845076256302681</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2939154044457101</v>
+        <v>0.150419161762592</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1126989939104776</v>
+        <v>0.1378830409740284</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2942063220045026</v>
+        <v>0.1501180561209899</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01881056108359066</v>
+        <v>0.00414294656839638</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2934247273544826</v>
+        <v>0.05708750599336851</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0327753471909431</v>
+        <v>0.04040763360261682</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2952732860623364</v>
+        <v>0.1547711958320839</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07163367884762573</v>
+        <v>0.08911722130464658</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2955482678037418</v>
+        <v>0.1512548237723842</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1115125097693799</v>
+        <v>0.1373312920125127</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2958408015711942</v>
+        <v>0.1509520453216621</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01654499114775578</v>
+        <v>0.00415169140557918</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2950458584448389</v>
+        <v>0.05706799907157691</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03220924005020334</v>
+        <v>0.04039218915329695</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2969046301842277</v>
+        <v>0.1556262853118192</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07110465072876371</v>
+        <v>0.08848409926065479</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2971811311617735</v>
+        <v>0.1520904857821763</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1096195018340301</v>
+        <v>0.136580189201899</v>
       </c>
       <c r="O247" t="n">
-        <v>0.297475281137886</v>
+        <v>0.1517860345223342</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01627832557407689</v>
+        <v>0.004163108688760131</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2966669895351952</v>
+        <v>0.05704849214978531</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03164119984187576</v>
+        <v>0.04017694558807806</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2985359743061191</v>
+        <v>0.1564813747915544</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06967135165379812</v>
+        <v>0.0887514030283876</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2988139945198052</v>
+        <v>0.1529261477919686</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1081198767113438</v>
+        <v>0.1369297426848027</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2991097607045776</v>
+        <v>0.1526200237230064</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01801054905531748</v>
+        <v>0.004177554744072297</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2982881206255514</v>
+        <v>0.05702898522799373</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03107119934806309</v>
+        <v>0.04016190611134715</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3001673184280105</v>
+        <v>0.1573364642712897</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06853372141756803</v>
+        <v>0.0883191392051812</v>
       </c>
       <c r="M249" t="n">
-        <v>0.300446857877837</v>
+        <v>0.1537618098017607</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1067135410082363</v>
+        <v>0.1366799626038394</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3007442402712693</v>
+        <v>0.1534540129236786</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01774164628424107</v>
+        <v>0.004195385897648785</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2999092517159077</v>
+        <v>0.05700947830620212</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03069921135086814</v>
+        <v>0.04034707392749121</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3017986625499018</v>
+        <v>0.158191553751025</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06829169981491282</v>
+        <v>0.08838731438837177</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3020797212358687</v>
+        <v>0.1545974718115529</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1045004013316229</v>
+        <v>0.1374308591016246</v>
       </c>
       <c r="O250" t="n">
-        <v>0.302378719837961</v>
+        <v>0.1542880021243507</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01647160195361116</v>
+        <v>0.004216958475622659</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3015303828062639</v>
+        <v>0.05698997138441054</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03052520863239364</v>
+        <v>0.0399324522408972</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3034300066717932</v>
+        <v>0.1590466432307603</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0668452266406715</v>
+        <v>0.08815593517529555</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3037125845939004</v>
+        <v>0.1554331338213451</v>
       </c>
       <c r="N251" t="n">
-        <v>0.103680364288419</v>
+        <v>0.1372824423207737</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3040131994046527</v>
+        <v>0.1551219913250229</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01620040075619128</v>
+        <v>0.00424262880412702</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3031515138966202</v>
+        <v>0.05697046446261894</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02974916397474235</v>
+        <v>0.04021804425595217</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3050613507936846</v>
+        <v>0.1599017327104955</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06569424168968335</v>
+        <v>0.08892500816328869</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3053454479519321</v>
+        <v>0.1562687958311373</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1012533364855401</v>
+        <v>0.1373347224039024</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3056476789713443</v>
+        <v>0.1559559805256951</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01592802738474493</v>
+        <v>0.00427275320929494</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3047726449869764</v>
+        <v>0.05695095754082735</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02927105016001703</v>
+        <v>0.04020385317704307</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3066926949155759</v>
+        <v>0.1607568221902308</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06463868475678752</v>
+        <v>0.08809453994968741</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3069783113099638</v>
+        <v>0.1571044578409294</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1005192245299013</v>
+        <v>0.1367877094936261</v>
       </c>
       <c r="O253" t="n">
-        <v>0.307282158538036</v>
+        <v>0.1567899697263672</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01465446653203561</v>
+        <v>0.004307688017259524</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3063937760773327</v>
+        <v>0.05693145061903575</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02889083997032045</v>
+        <v>0.03998988220855694</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3083240390374672</v>
+        <v>0.1616119116699661</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0637784956368232</v>
+        <v>0.08876453713182786</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3086111746679956</v>
+        <v>0.1579401198507216</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0986779350284181</v>
+        <v>0.1374414137325601</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3089166381047277</v>
+        <v>0.1576239589270394</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01437970289082686</v>
+        <v>0.004347789554153846</v>
       </c>
       <c r="G255" t="n">
-        <v>0.308014907167689</v>
+        <v>0.05691194369724415</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02830850618775535</v>
+        <v>0.03987613455488076</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3099553831593587</v>
+        <v>0.1624670011497013</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06251361412462958</v>
+        <v>0.08813500630704624</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3102440380260273</v>
+        <v>0.1587757818605138</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09702937458800592</v>
+        <v>0.1362958452633201</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3105511176714194</v>
+        <v>0.1584579481277116</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01410372115388218</v>
+        <v>0.004393414146110969</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3096360382580452</v>
+        <v>0.05689243677545257</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02782402159442453</v>
+        <v>0.0398626134204015</v>
       </c>
       <c r="K256" t="n">
-        <v>0.31158672728125</v>
+        <v>0.1633220906294366</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0615439800150458</v>
+        <v>0.08810595407267874</v>
       </c>
       <c r="M256" t="n">
-        <v>0.311876901384059</v>
+        <v>0.159611443870306</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09477344981558006</v>
+        <v>0.1373510142285214</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3121855972381111</v>
+        <v>0.1592919373283837</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01382650601396507</v>
+        <v>0.004444918119264035</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3112571693484015</v>
+        <v>0.05687292985366097</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02753735897243069</v>
+        <v>0.0399493220095062</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3132180714031413</v>
+        <v>0.1641771801091719</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06036953310291107</v>
+        <v>0.08857738702606155</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3135097647420907</v>
+        <v>0.1604471058800981</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09341006731805579</v>
+        <v>0.1359069307707797</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3138200768048027</v>
+        <v>0.1601259265290559</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01454804216383906</v>
+        <v>0.004502657799746061</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3128783004387577</v>
+        <v>0.05685342293186938</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02704849110387664</v>
+        <v>0.03993626352658181</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3148494155250327</v>
+        <v>0.1650322695889072</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05929021318306463</v>
+        <v>0.0880493117645309</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3151426281001224</v>
+        <v>0.1612827678898903</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09243913370234863</v>
+        <v>0.1368636050327105</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3154545563714944</v>
+        <v>0.160959915729728</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01326831429626762</v>
+        <v>0.004566989513690195</v>
       </c>
       <c r="G259" t="n">
-        <v>0.314499431529114</v>
+        <v>0.05683391601007778</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02645739077086509</v>
+        <v>0.03992344117601535</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3164807596469241</v>
+        <v>0.1658873590686424</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05860596005034555</v>
+        <v>0.08792173488542296</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3167754914581541</v>
+        <v>0.1621184298996825</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08966055557537383</v>
+        <v>0.1369210471569291</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3170890359381861</v>
+        <v>0.1617939049304002</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01298730710401432</v>
+        <v>0.004638269587229508</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3161205626194702</v>
+        <v>0.05681440908828619</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02616403075549885</v>
+        <v>0.03991085816219382</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3181121037688155</v>
+        <v>0.1667424485483777</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05711671349959307</v>
+        <v>0.08779466298607383</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3184083548161859</v>
+        <v>0.1629540919094747</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08907423954404692</v>
+        <v>0.1366792672860512</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3187235155048778</v>
+        <v>0.1626278941310724</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01270500527984264</v>
+        <v>0.004716854346497018</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3177416937098265</v>
+        <v>0.0567949021664946</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02526838383988066</v>
+        <v>0.0397985176895042</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3197434478907068</v>
+        <v>0.1675975380281129</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05612241332564638</v>
+        <v>0.08856810266381984</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3200412181742176</v>
+        <v>0.1637897539192669</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08748009221528297</v>
+        <v>0.1369382755626922</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3203579950715695</v>
+        <v>0.1634618833317446</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01442139351651608</v>
+        <v>0.004803100117625914</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3193628248001827</v>
+        <v>0.056775395244703</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02477042280611326</v>
+        <v>0.0400864229623335</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3213747920125982</v>
+        <v>0.1684526275078482</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05532299932334464</v>
+        <v>0.08824206051599706</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3216740815322494</v>
+        <v>0.164625415929059</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08547802019599754</v>
+        <v>0.1368980821294676</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3219924746382611</v>
+        <v>0.1642958725324167</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01213645650679818</v>
+        <v>0.00489736322674917</v>
       </c>
       <c r="G263" t="n">
-        <v>0.320983955890539</v>
+        <v>0.05675588832291141</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02457012043629944</v>
+        <v>0.03997457718506869</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3230061361344895</v>
+        <v>0.1693077169875835</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05371841128752708</v>
+        <v>0.08851654313994181</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3233069448902811</v>
+        <v>0.1654610779388512</v>
       </c>
       <c r="N263" t="n">
-        <v>0.082867930093106</v>
+        <v>0.1361586971289928</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3236269542049529</v>
+        <v>0.1651298617330889</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01385017894345245</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3226050869808952</v>
+        <v>0.05673638140111981</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02376744951254195</v>
+        <v>0.03976298356209682</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3246374802563809</v>
+        <v>0.1701628064673188</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05320858901303288</v>
+        <v>0.08829155713299011</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3249398082483128</v>
+        <v>0.1662967399486434</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08234972851352373</v>
+        <v>0.1364201307038834</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3252614337716445</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1659638509337611</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05672322350638297</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00530187582801387</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05672349203484698</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005600956889729745</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05672376056331099</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005897167926050752</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05672402909177502</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006190433677841396</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05672429762023903</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006480678886004919</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05672456614870305</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006767828291431618</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05672483467716707</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007051806635024069</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05672510320563109</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007332538657647852</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05672537173409511</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007609949100205668</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05672564026255912</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007883962703587828</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05672590879102313</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008154504208696317</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05672617731948716</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008421498356397869</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05672644584795117</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008684869887594635</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05672671437641519</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008944543543176899</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0567269829048792</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009200444064046021</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05672725143334323</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009452496191069991</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05672751996180724</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009700624665150336</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05672778849027126</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.00994475422717736</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05672805701873527</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01018480961805168</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0567283255471993</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01042071557864273</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05672859407566331</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01065239684985131</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05672886260412733</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01087977817256771</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05672913113259134</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01110278428769185</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05672939966105537</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0113213399360946</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05672966818951938</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01153567716670734</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.0567299367179834</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01174756456860822</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05673020524644741</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01195723419072797</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05673047377491144</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01216461077393861</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05673074230337545</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01236961905913961</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05673101083183946</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01257218378722127</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05673127936030348</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01277222969908252</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.0567315478887675</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01296968153559624</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05673181641723152</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01316446403766149</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05673208494569554</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01335650194616856</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05673235347415955</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01354572000201591</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05673262200262358</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01373204294607736</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05673289053108759</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01391539551925149</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.0567331590595516</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01409570246242862</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05673342758801562</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01427288851650664</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05673369611647965</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01444687842236046</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05673396464494366</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01461759692088811</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05673423317340767</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01478496875297992</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05673450170187169</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01494891865953321</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05673477023033571</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01510937138142403</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05673503875879973</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01526625165954985</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05673530728726375</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01541948423480098</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05673557581572776</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01556899384807413</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05673584434419179</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01571470524024658</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.0567361128726558</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01585654315221521</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05673638140111981</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01585654315221521</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05672322350638297</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01598610033261491</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05674326748510259</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01611461401802113</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05676331146382222</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01624170547987982</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05678335544254185</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01636699598963697</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05680339942126147</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01649010681873855</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05682344339998111</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01661065923863051</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05684348737870073</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01672827452075891</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05686353135742037</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01684257393656957</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05688357533614</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01695317875750852</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05690361931485963</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01705971025502175</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05692366329357925</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01716178970055522</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05694370727229888</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0172590383655549</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05696375125101851</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01735107752146674</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05698379522973814</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01743752843973675</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05700383920845777</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01751801239181087</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05702388318717739</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01759215064913507</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05704392716589702</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01765956448315532</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05706397114461664</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.0177198751653176</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05708401512333627</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01777270396706791</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05710405910205591</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01781767215985214</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05712410308077554</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0178544010151163</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05714414705949517</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01788251180430636</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0571641910382148</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0179016257988683</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05718423501693443</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01791136427024807</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05720427899565405</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01791259763623876</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05722432297437368</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01791255354458716</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0572443669530933</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.0179123873529773</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05726441093181293</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01791201766143699</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05728445491053256</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01791136306999406</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05730449888925219</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01791034217867633</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05732454286797182</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01790887358751161</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05734458684669146</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01790687589652774</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05736463082541108</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01790426770575254</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05738467480413071</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01790096761521382</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05740471878285034</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01789689422493941</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05742476276156996</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01789196613495714</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05744480674028959</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01788610194529481</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05746485071900922</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01787922025598026</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05748489469772885</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01787123966704131</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05750493867644848</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01786207877850577</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0575249826551681</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01785165619040148</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05754502663388773</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01783989050275625</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05756507061260736</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0178267003155979</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.057585114591327</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01781200422895425</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05760515857004662</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01779572084285314</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05762520254876626</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01777776875732238</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05764524652748588</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01775806657238979</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05766529050620551</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.0177365328880832</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05768533448492513</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01771308630443042</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05770537846364476</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01771308630443042</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05770537846364476</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01806752346965879</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05928772296488236</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01841488970498303</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06087006746611997</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01875503478151413</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06245241196735756</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01908780847036312</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06403475646859516</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.019413060542641</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06561710096983277</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01973064076945879</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06719944547107037</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.02004039892192748</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06878178997230797</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02034218477115809</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07036413447354556</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02063584808826164</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07194647897478317</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02092123864434913</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07352882347602077</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02119820621053157</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07511116797725836</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02146660055791998</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07669351247849597</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02172627145762535</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07827585697973356</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02197706868075871</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07985820148097117</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02221884199843106</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08144054598220878</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02245144118175339</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08302289048344635</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02267471600183676</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08460523498468397</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02288851622979212</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08618757948592157</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02309269163673053</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08776992398715917</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02328709199376297</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08935226848839677</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02347156707200046</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09093461298963436</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02364596664255403</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09251695749087196</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02381014047653462</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09409930199210957</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02396393834505334</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09568164649334716</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02410721001922113</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09726399099458477</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02423980527014902</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09884633549582236</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02436157386894799</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.10042867999706</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02447236558672912</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1020110244982976</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02457203019460336</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1035933689995352</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02466041746368175</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1051757135007728</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02473737716507525</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1067580580020104</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02480275906989493</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.108340402503248</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02485641294925178</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1099227470044856</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02489818857425682</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1115050915057232</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02492793571602102</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1130874360069608</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02495078173924056</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1146697805081984</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02495076426109519</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.116252125009436</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02494753482871755</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1178344695106736</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02493900826533751</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1194168140119112</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02492558688014354</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1209991585131488</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02490767298232409</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1225815030143864</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02488566888106762</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.124163847515624</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02485997688556259</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1257461920168616</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02483099930499746</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1273285365180992</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0247991384485607</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1289108810193368</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02476479662544075</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1304932255205744</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02472837614482606</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.132075570021812</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02469027931590512</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1336579145230496</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02465090844786637</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1352402590242872</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02461066584989825</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1368226035255248</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02456968251015473</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1384049480267624</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02451590234751987</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.139987292528</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02444568877866901</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1415696370292376</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02436322653839366</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1431519815304752</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02427270036148536</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1447343260317128</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0241782949827356</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1463166705329504</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02408419513693594</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.147899015034188</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02399458555887786</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02391365098335289</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1510637040366632</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02384557614515254</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1526460485379008</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02379454577906831</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1542283930391384</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02375639452715726</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.155810737540376</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0237205747019046</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1573930820416136</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02368685791265689</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1589754265428512</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02365511006422229</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1605577710440888</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.023625197061409</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1621401155453264</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02359698480902522</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.163722460046564</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02357033921187912</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1653048045478016</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0235451261747789</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1668871490490392</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02352121160253273</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1684694935502768</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02349846139994879</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1700518380515144</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02347674147183529</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.171634182552752</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02345591772300039</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1732165270539896</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0234358560582523</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1747988715552272</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02341642238239917</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1763812160564648</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02339748260024922</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1779635605577024</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02337890261661063</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.17954590505894</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02336054833629159</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1811282495601776</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02334228566410024</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1827105940614152</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02332398050484483</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1842929385626528</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.0233054987633335</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1858752830638904</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02328670634437445</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.187457627565128</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02326786191525193</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1890399720663656</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02324933240891629</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1906223165676032</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02323112948313623</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1922046610688408</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02321326477482943</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1937870055700784</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.0231957499209136</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.195369350071316</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02317859655830638</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1969516945725536</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02316181632392542</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1985340390737912</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02314542085468844</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2001163835750288</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02312942178751309</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2016987280762664</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02311383075931704</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.203281072577504</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02309865940701797</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2048634170787416</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02308391936753353</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2064457615799792</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02306962227778139</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2080281060812168</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02305577977467924</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2096104505824544</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02304240349514475</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.211192795083692</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02302950507609558</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2127751395849296</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02301709615444941</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2143574840861672</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
